--- a/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book.xlsx
+++ b/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saojoaocp.sharepoint.com/sites/ArmoryFrontOffice/Documentos Compartilhados/General/Programs/ciencia_de_dados/Correlacao_de_fundos/Desenvolvimento/2Descritivas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_5DBD52C21A0063615E4E4D60CB070CC2DD96A44E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F6D32D0-B0E5-493F-A575-E7A8B5A885CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Relatorio" sheetId="1" r:id="rId1"/>
     <sheet name="UnstackRetornosPercentuais" sheetId="2" r:id="rId2"/>
     <sheet name="StackRetornos1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="135">
   <si>
     <t>data</t>
   </si>
@@ -376,6 +370,12 @@
   </si>
   <si>
     <t>Nov</t>
+  </si>
+  <si>
+    <t>Retorno (%)</t>
+  </si>
+  <si>
+    <t>Riverview ALF dif</t>
   </si>
   <si>
     <t>count</t>
@@ -426,8 +426,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -974,23 +974,12 @@
     <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -998,26 +987,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>151543</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>599218</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>189643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="fig_pairplot.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="fig_pairplot.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1030,7 +1013,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="190500"/>
+          <a:off x="0" y="6667500"/>
           <a:ext cx="6857143" cy="6857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1044,24 +1027,18 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>5664</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>732739</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>37643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="retorno_density_distribution.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="retorno_density_distribution.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1074,7 +1051,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="7429500"/>
+          <a:off x="9305925" y="6667500"/>
           <a:ext cx="5485714" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1088,24 +1065,18 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>5664</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>732739</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>37643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="CorrelationMatrix.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="CorrelationMatrix.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1118,7 +1089,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="11239500"/>
+          <a:off x="9305925" y="10477500"/>
           <a:ext cx="5485714" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1143,18 +1114,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="285750"/>
+          <a:off x="1476375" y="285750"/>
           <a:ext cx="2438400" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1210,6 +1175,310 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="1428750"/>
+          <a:ext cx="2762250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E9EBC"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="2F778D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retorno do fundo - Retorno do benchmarck</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="1428750"/>
+          <a:ext cx="2762250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E9EBC"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="2F778D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retorno do fundo - Retorno do benchmarck</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="3143250"/>
+          <a:ext cx="2762250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E9EBC"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="2F778D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retorno do fundo - Retorno do benchmarck</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="4857750"/>
+          <a:ext cx="2762250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E9EBC"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="2F778D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retorno Benchmarck</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1256,7 +1525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1288,27 +1557,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1340,24 +1591,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1533,40 +1766,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:M50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A9:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="16" max="19" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1606,13 +1845,37 @@
       <c r="M10" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10">
+        <v>45</v>
+      </c>
+      <c r="R10">
+        <v>33</v>
+      </c>
+      <c r="S10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11">
+        <v>3.11</v>
+      </c>
+      <c r="R11">
+        <v>2.7</v>
+      </c>
+      <c r="S11">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>2018</v>
       </c>
@@ -1652,8 +1915,20 @@
       <c r="M12" s="6">
         <v>-1.34</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12">
+        <v>-6.99</v>
+      </c>
+      <c r="R12">
+        <v>0.54</v>
+      </c>
+      <c r="S12">
+        <v>-5.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>2019</v>
       </c>
@@ -1679,27 +1954,39 @@
         <v>0.2</v>
       </c>
       <c r="I13" s="13">
-        <v>-0.14000000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="J13" s="3">
         <v>0.34</v>
       </c>
       <c r="K13" s="14">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L13" s="15">
         <v>-1.29</v>
       </c>
       <c r="M13" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13">
+        <v>0.48</v>
+      </c>
+      <c r="R13">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="S13">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>2020</v>
       </c>
       <c r="B14" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="C14" s="4">
         <v>1.89</v>
@@ -1714,7 +2001,7 @@
         <v>-0.95</v>
       </c>
       <c r="G14" s="20">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="H14" s="21">
         <v>0.63</v>
@@ -1734,8 +2021,20 @@
       <c r="M14" s="26">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14">
+        <v>5.07</v>
+      </c>
+      <c r="R14">
+        <v>1.58</v>
+      </c>
+      <c r="S14">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>2021</v>
       </c>
@@ -1749,7 +2048,7 @@
         <v>-0.38</v>
       </c>
       <c r="E15" s="17">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="F15" s="30">
         <v>-0.42</v>
@@ -1775,687 +2074,592 @@
       <c r="M15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="P15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q15">
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="P16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16">
+        <v>37</v>
+      </c>
+      <c r="R16">
+        <v>33</v>
+      </c>
+      <c r="S16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="P17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17">
+        <v>23.28</v>
+      </c>
+      <c r="R17">
+        <v>30.59</v>
+      </c>
+      <c r="S17">
+        <v>51.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18">
+        <v>5.74</v>
+      </c>
+      <c r="R18">
+        <v>10.19</v>
+      </c>
+      <c r="S18">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19">
+        <v>1.13</v>
+      </c>
+      <c r="R19">
+        <v>6.45</v>
+      </c>
+      <c r="S19">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20">
+        <v>-8.140000000000001</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>-5.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="31">
+        <v>-0.2</v>
+      </c>
+      <c r="K21" s="32">
+        <v>1.73</v>
+      </c>
+      <c r="L21" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="M21" s="34">
+        <v>-1.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="35">
+        <v>-1.12</v>
+      </c>
+      <c r="C22" s="29">
+        <v>-0.36</v>
+      </c>
+      <c r="D22" s="36">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="E22" s="37">
+        <v>1.82</v>
+      </c>
+      <c r="F22" s="38">
+        <v>-0.5</v>
+      </c>
+      <c r="G22" s="39">
+        <v>1.27</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="40">
+        <v>0.16</v>
+      </c>
+      <c r="J22" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="K22" s="41">
+        <v>0.97</v>
+      </c>
+      <c r="L22" s="42">
+        <v>-1.39</v>
+      </c>
+      <c r="M22" s="43">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.64</v>
+      </c>
+      <c r="C23" s="44">
+        <v>-4.17</v>
+      </c>
+      <c r="D23" s="18">
+        <v>7.12</v>
+      </c>
+      <c r="E23" s="45">
+        <v>-1.23</v>
+      </c>
+      <c r="F23" s="46">
+        <v>-0.46</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0.14</v>
+      </c>
+      <c r="H23" s="47">
+        <v>0.68</v>
+      </c>
+      <c r="I23" s="48">
+        <v>0.88</v>
+      </c>
+      <c r="J23" s="49">
+        <v>1.37</v>
+      </c>
+      <c r="K23" s="50">
+        <v>-0.93</v>
+      </c>
+      <c r="L23" s="51">
+        <v>2.93</v>
+      </c>
+      <c r="M23" s="52">
+        <v>3.1</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q23">
+        <v>-0.11</v>
+      </c>
+      <c r="R23">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="53">
+        <v>1.97</v>
+      </c>
+      <c r="C24" s="18">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="D24" s="25">
+        <v>-0.88</v>
+      </c>
+      <c r="E24" s="54">
+        <v>1.8</v>
+      </c>
+      <c r="F24" s="55">
+        <v>0.99</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q24">
+        <v>0.87</v>
+      </c>
+      <c r="R24">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="P25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25">
+        <v>0.17</v>
+      </c>
+      <c r="R25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="P26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26">
+        <v>1.87</v>
+      </c>
+      <c r="R26">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="29" spans="1:19">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="1">
         <v>2018</v>
       </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="31">
-        <v>-0.2</v>
-      </c>
-      <c r="K20" s="32">
-        <v>1.73</v>
-      </c>
-      <c r="L20" s="33">
-        <v>1.4</v>
-      </c>
-      <c r="M20" s="34">
-        <v>-1.51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="K30" s="35">
+        <v>-1.12</v>
+      </c>
+      <c r="L30" s="56">
+        <v>-0.84</v>
+      </c>
+      <c r="M30" s="57">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="1">
         <v>2019</v>
       </c>
-      <c r="B21" s="35">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="C21" s="29">
-        <v>-0.36</v>
-      </c>
-      <c r="D21" s="36">
-        <v>-0.81</v>
-      </c>
-      <c r="E21" s="37">
-        <v>1.82</v>
-      </c>
-      <c r="F21" s="38">
-        <v>-0.5</v>
-      </c>
-      <c r="G21" s="39">
-        <v>1.27</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="I21" s="40">
-        <v>0.16</v>
-      </c>
-      <c r="J21" s="27">
-        <v>0.15</v>
-      </c>
-      <c r="K21" s="41">
-        <v>0.97</v>
-      </c>
-      <c r="L21" s="42">
-        <v>-1.39</v>
-      </c>
-      <c r="M21" s="43">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B31" s="58">
+        <v>1.62</v>
+      </c>
+      <c r="C31" s="41">
+        <v>0.96</v>
+      </c>
+      <c r="D31" s="39">
+        <v>1.29</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="F31" s="59">
+        <v>1.25</v>
+      </c>
+      <c r="G31" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="H31" s="60">
+        <v>0.44</v>
+      </c>
+      <c r="I31" s="47">
+        <v>0.68</v>
+      </c>
+      <c r="J31" s="61">
+        <v>0.39</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L31" s="62">
+        <v>1.92</v>
+      </c>
+      <c r="M31" s="63">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="1">
         <v>2020</v>
       </c>
-      <c r="B22" s="21">
-        <v>0.64</v>
-      </c>
-      <c r="C22" s="44">
-        <v>-4.17</v>
-      </c>
-      <c r="D22" s="18">
-        <v>7.12</v>
-      </c>
-      <c r="E22" s="45">
+      <c r="B32" s="61">
+        <v>0.38</v>
+      </c>
+      <c r="C32" s="45">
         <v>-1.23</v>
       </c>
-      <c r="F22" s="46">
+      <c r="D32" s="64">
+        <v>-6.99</v>
+      </c>
+      <c r="E32" s="65">
+        <v>2.49</v>
+      </c>
+      <c r="F32" s="52">
+        <v>3.11</v>
+      </c>
+      <c r="G32" s="49">
+        <v>1.36</v>
+      </c>
+      <c r="H32" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="K32" s="67">
+        <v>2.38</v>
+      </c>
+      <c r="L32" s="68">
+        <v>1.68</v>
+      </c>
+      <c r="M32" s="14">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="21">
+        <v>0.63</v>
+      </c>
+      <c r="C33" s="46">
         <v>-0.46</v>
       </c>
-      <c r="G22" s="27">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H22" s="47">
-        <v>0.68</v>
-      </c>
-      <c r="I22" s="48">
-        <v>0.88</v>
-      </c>
-      <c r="J22" s="49">
-        <v>1.37</v>
-      </c>
-      <c r="K22" s="50">
-        <v>-0.93</v>
-      </c>
-      <c r="L22" s="51">
-        <v>2.93</v>
-      </c>
-      <c r="M22" s="52">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B23" s="53">
-        <v>1.97</v>
-      </c>
-      <c r="C23" s="18">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="D23" s="25">
-        <v>-0.88</v>
-      </c>
-      <c r="E23" s="54">
-        <v>1.8</v>
-      </c>
-      <c r="F23" s="55">
-        <v>0.99</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="K28" s="35">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="L28" s="56">
-        <v>-0.84</v>
-      </c>
-      <c r="M28" s="57">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B29" s="58">
-        <v>1.62</v>
-      </c>
-      <c r="C29" s="41">
-        <v>0.96</v>
-      </c>
-      <c r="D29" s="39">
-        <v>1.29</v>
-      </c>
-      <c r="E29" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="F29" s="59">
-        <v>1.25</v>
-      </c>
-      <c r="G29" s="22">
-        <v>0.41</v>
-      </c>
-      <c r="H29" s="60">
-        <v>0.44</v>
-      </c>
-      <c r="I29" s="47">
-        <v>0.68</v>
-      </c>
-      <c r="J29" s="61">
-        <v>0.39</v>
-      </c>
-      <c r="K29" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L29" s="62">
-        <v>1.92</v>
-      </c>
-      <c r="M29" s="63">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B30" s="61">
-        <v>0.38</v>
-      </c>
-      <c r="C30" s="45">
-        <v>-1.23</v>
-      </c>
-      <c r="D30" s="64">
-        <v>-6.99</v>
-      </c>
-      <c r="E30" s="65">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="F30" s="52">
-        <v>3.11</v>
-      </c>
-      <c r="G30" s="49">
-        <v>1.36</v>
-      </c>
-      <c r="H30" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="J30" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="K30" s="67">
-        <v>2.38</v>
-      </c>
-      <c r="L30" s="68">
-        <v>1.68</v>
-      </c>
-      <c r="M30" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B31" s="21">
-        <v>0.63</v>
-      </c>
-      <c r="C31" s="46">
-        <v>-0.46</v>
-      </c>
-      <c r="D31" s="41">
-        <v>0.94</v>
-      </c>
-      <c r="E31" s="26">
+      <c r="D33" s="41">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E33" s="26">
         <v>0.27</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F33" s="69">
         <v>1.07</v>
       </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34">
-        <v>45</v>
-      </c>
-      <c r="C34">
-        <v>33</v>
-      </c>
-      <c r="D34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35">
-        <v>3.11</v>
-      </c>
-      <c r="C35">
-        <v>2.7</v>
-      </c>
-      <c r="D35">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36">
-        <v>-6.99</v>
-      </c>
-      <c r="C36">
-        <v>0.54</v>
-      </c>
-      <c r="D36">
-        <v>-5.39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37">
-        <v>0.48</v>
-      </c>
-      <c r="C37">
-        <v>0.81</v>
-      </c>
-      <c r="D37">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38">
-        <v>5.07</v>
-      </c>
-      <c r="C38">
-        <v>1.58</v>
-      </c>
-      <c r="D38">
-        <v>7.06</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39">
-        <v>8</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40">
-        <v>37</v>
-      </c>
-      <c r="C40">
-        <v>33</v>
-      </c>
-      <c r="D40">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41">
-        <v>23.28</v>
-      </c>
-      <c r="C41">
-        <v>30.59</v>
-      </c>
-      <c r="D41">
-        <v>51.38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42">
-        <v>5.74</v>
-      </c>
-      <c r="C42">
-        <v>10.19</v>
-      </c>
-      <c r="D42">
-        <v>16.27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C43">
-        <v>6.45</v>
-      </c>
-      <c r="D43">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44">
-        <v>-8.14</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>-5.39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47">
-        <v>-0.11</v>
-      </c>
-      <c r="C47">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48">
-        <v>0.87</v>
-      </c>
-      <c r="C48">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49">
-        <v>0.17</v>
-      </c>
-      <c r="C49">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50">
-        <v>1.87</v>
-      </c>
-      <c r="C50">
-        <v>2.37</v>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B27:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2463,25 +2667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +2694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -2515,16 +2708,16 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.32390356063842768</v>
+        <v>0.3239035606384277</v>
       </c>
       <c r="F2">
-        <v>0.66000223159790039</v>
+        <v>0.6600022315979004</v>
       </c>
       <c r="G2">
         <v>0.1200079917907715</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -2538,16 +2731,16 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>-1.1240303516387939</v>
+        <v>-1.124030351638794</v>
       </c>
       <c r="F3">
         <v>0.7799983024597168</v>
       </c>
       <c r="G3">
-        <v>0.60926675796508789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6092667579650879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -2561,16 +2754,16 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>-0.84301233291625977</v>
+        <v>-0.8430123329162598</v>
       </c>
       <c r="F4">
         <v>0.6199955940246582</v>
       </c>
       <c r="G4">
-        <v>0.55594444274902344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5559444427490234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -2587,13 +2780,13 @@
         <v>2.045905590057373</v>
       </c>
       <c r="F5">
-        <v>0.70999860763549794</v>
+        <v>0.7099986076354979</v>
       </c>
       <c r="G5">
-        <v>0.53312778472900391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5331277847290039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -2610,13 +2803,13 @@
         <v>1.620364189147949</v>
       </c>
       <c r="F6">
-        <v>0.60999393463134766</v>
+        <v>0.6099939346313477</v>
       </c>
       <c r="G6">
-        <v>0.50083398818969727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5008339881896973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -2630,16 +2823,16 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0.95789432525634755</v>
+        <v>0.9578943252563475</v>
       </c>
       <c r="F7">
-        <v>0.66000223159790039</v>
+        <v>0.6600022315979004</v>
       </c>
       <c r="G7">
-        <v>0.59605836868286133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5960583686828613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -2653,16 +2846,16 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>1.2878298759460449</v>
+        <v>1.287829875946045</v>
       </c>
       <c r="F8">
-        <v>0.65000057220458984</v>
+        <v>0.6500005722045898</v>
       </c>
       <c r="G8">
         <v>0.4759669303894043</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -2676,16 +2869,16 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>4.6312808990478523E-2</v>
+        <v>0.04631280899047852</v>
       </c>
       <c r="F9">
-        <v>0.77000856399536133</v>
+        <v>0.7700085639953613</v>
       </c>
       <c r="G9">
         <v>1.865816116333008</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -2702,13 +2895,13 @@
         <v>1.245081424713135</v>
       </c>
       <c r="F10">
-        <v>0.53999423980712891</v>
+        <v>0.5399942398071289</v>
       </c>
       <c r="G10">
-        <v>0.74024200439453125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7402420043945312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>18</v>
       </c>
@@ -2725,13 +2918,13 @@
         <v>0.4086613655090332</v>
       </c>
       <c r="F11">
-        <v>0.62999725341796875</v>
+        <v>0.6299972534179688</v>
       </c>
       <c r="G11">
         <v>1.67686939239502</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -2745,16 +2938,16 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>0.43785572052001948</v>
+        <v>0.4378557205200195</v>
       </c>
       <c r="F12">
         <v>0.6399989128112793</v>
       </c>
       <c r="G12">
-        <v>0.68563222885131836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6856322288513184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -2768,16 +2961,16 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>0.68371295928955078</v>
+        <v>0.6837129592895508</v>
       </c>
       <c r="F13">
-        <v>0.54000616073608398</v>
+        <v>0.540006160736084</v>
       </c>
       <c r="G13">
-        <v>0.84660053253173828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8466005325317383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>21</v>
       </c>
@@ -2791,16 +2984,16 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>0.38878917694091802</v>
+        <v>0.388789176940918</v>
       </c>
       <c r="F14">
-        <v>0.73000192642211914</v>
+        <v>0.7300019264221191</v>
       </c>
       <c r="G14">
-        <v>0.53837299346923828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5383729934692383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>22</v>
       </c>
@@ -2814,16 +3007,16 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>6.660223007202147E-2</v>
+        <v>0.06660223007202147</v>
       </c>
       <c r="F15">
-        <v>0.62999725341796875</v>
+        <v>0.6299972534179688</v>
       </c>
       <c r="G15">
         <v>1.034665107727051</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>23</v>
       </c>
@@ -2837,16 +3030,16 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>1.9168853759765621</v>
+        <v>1.916885375976562</v>
       </c>
       <c r="F16">
-        <v>0.62999725341796875</v>
+        <v>0.6299972534179688</v>
       </c>
       <c r="G16">
-        <v>0.53000450134277344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5300045013427734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -2860,16 +3053,16 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>0.60232877731323242</v>
+        <v>0.6023287773132324</v>
       </c>
       <c r="F17">
-        <v>0.67000389099121094</v>
+        <v>0.6700038909912109</v>
       </c>
       <c r="G17">
-        <v>0.53614377975463867</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5361437797546387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>25</v>
       </c>
@@ -2883,16 +3076,16 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.37580728530883789</v>
+        <v>0.3758072853088379</v>
       </c>
       <c r="F18">
-        <v>0.66000223159790039</v>
+        <v>0.6600022315979004</v>
       </c>
       <c r="G18">
-        <v>1.0132431983947749</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.013243198394775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>26</v>
       </c>
@@ -2909,13 +3102,13 @@
         <v>-1.22833251953125</v>
       </c>
       <c r="F19">
-        <v>0.66000223159790039</v>
+        <v>0.6600022315979004</v>
       </c>
       <c r="G19">
-        <v>-5.3937554359436044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-5.393755435943604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>27</v>
       </c>
@@ -2929,16 +3122,16 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>-6.9925904273986834</v>
+        <v>-6.992590427398683</v>
       </c>
       <c r="F20">
-        <v>2.6999950408935551</v>
+        <v>2.699995040893555</v>
       </c>
       <c r="G20">
-        <v>0.13021230697631839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1302123069763184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>28</v>
       </c>
@@ -2952,16 +3145,16 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>2.4934291839599609</v>
+        <v>2.493429183959961</v>
       </c>
       <c r="F21">
-        <v>1.2099981307983401</v>
+        <v>1.20999813079834</v>
       </c>
       <c r="G21">
-        <v>1.2632250785827639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.263225078582764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>29</v>
       </c>
@@ -2975,16 +3168,16 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>3.1080961227416992</v>
+        <v>3.108096122741699</v>
       </c>
       <c r="F22">
-        <v>2.1600008010864258</v>
+        <v>2.160000801086426</v>
       </c>
       <c r="G22">
-        <v>2.6508927345275879</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.650892734527588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>30</v>
       </c>
@@ -2998,16 +3191,16 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>1.3629674911499019</v>
+        <v>1.362967491149902</v>
       </c>
       <c r="F23">
-        <v>0.78999996185302734</v>
+        <v>0.7899999618530273</v>
       </c>
       <c r="G23">
-        <v>1.5012025833129889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.501202583312989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>31</v>
       </c>
@@ -3021,16 +3214,16 @@
         <v>7</v>
       </c>
       <c r="E24">
-        <v>0.74869394302368164</v>
+        <v>0.7486939430236816</v>
       </c>
       <c r="F24">
         <v>1.380002498626709</v>
       </c>
       <c r="G24">
-        <v>1.4261841773986821</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.426184177398682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -3044,16 +3237,16 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>0.22617578506469729</v>
+        <v>0.2261757850646973</v>
       </c>
       <c r="F25">
-        <v>0.62000751495361328</v>
+        <v>0.6200075149536133</v>
       </c>
       <c r="G25">
-        <v>1.1023402214050291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.102340221405029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>33</v>
       </c>
@@ -3067,16 +3260,16 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>0.19716024398803711</v>
+        <v>0.1971602439880371</v>
       </c>
       <c r="F26">
-        <v>0.67000389099121094</v>
+        <v>0.6700038909912109</v>
       </c>
       <c r="G26">
         <v>1.5625</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>34</v>
       </c>
@@ -3090,16 +3283,16 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>2.3804068565368648</v>
+        <v>2.380406856536865</v>
       </c>
       <c r="F27">
-        <v>0.78999996185302734</v>
+        <v>0.7899999618530273</v>
       </c>
       <c r="G27">
         <v>1.453924179077148</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>35</v>
       </c>
@@ -3113,16 +3306,16 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>1.6830325126647949</v>
+        <v>1.683032512664795</v>
       </c>
       <c r="F28">
-        <v>0.78999996185302734</v>
+        <v>0.7899999618530273</v>
       </c>
       <c r="G28">
-        <v>4.6159029006958008</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.615902900695801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>36</v>
       </c>
@@ -3136,16 +3329,16 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <v>0.55946111679077148</v>
+        <v>0.5594611167907715</v>
       </c>
       <c r="F29">
-        <v>0.82999467849731445</v>
+        <v>0.8299946784973145</v>
       </c>
       <c r="G29">
-        <v>3.6556243896484379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.655624389648438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>37</v>
       </c>
@@ -3159,16 +3352,16 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.62506198883056641</v>
+        <v>0.6250619888305664</v>
       </c>
       <c r="F30">
-        <v>0.76000690460205078</v>
+        <v>0.7600069046020508</v>
       </c>
       <c r="G30">
-        <v>2.5970101356506352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.597010135650635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>38</v>
       </c>
@@ -3182,16 +3375,16 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>-0.46044588088989258</v>
+        <v>-0.4604458808898926</v>
       </c>
       <c r="F31">
-        <v>0.56999921798706055</v>
+        <v>0.5699992179870605</v>
       </c>
       <c r="G31">
-        <v>8.7545871734619141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.754587173461914</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>39</v>
       </c>
@@ -3205,16 +3398,16 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>0.94488859176635742</v>
+        <v>0.9448885917663574</v>
       </c>
       <c r="F32">
-        <v>0.56000947952270508</v>
+        <v>0.5600094795227051</v>
       </c>
       <c r="G32">
-        <v>6.8867206573486328E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.06886720657348633</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>40</v>
       </c>
@@ -3228,16 +3421,16 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>0.26780366897583008</v>
+        <v>0.2678036689758301</v>
       </c>
       <c r="F33">
         <v>0.55999755859375</v>
       </c>
       <c r="G33">
-        <v>2.0628929138183598</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.06289291381836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>41</v>
       </c>
@@ -3254,7 +3447,7 @@
         <v>1.074302196502686</v>
       </c>
       <c r="F34">
-        <v>0.65000057220458984</v>
+        <v>0.6500005722045898</v>
       </c>
       <c r="G34">
         <v>2.062904834747314</v>
@@ -3266,14 +3459,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -3308,7 +3501,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>42</v>
       </c>
@@ -3337,7 +3530,7 @@
         <v>1.008591294288635</v>
       </c>
       <c r="J2">
-        <v>0.85912942886352539</v>
+        <v>0.8591294288635254</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3346,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -3360,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>271.44488525390619</v>
+        <v>271.4448852539062</v>
       </c>
       <c r="F3" t="s">
         <v>107</v>
@@ -3372,7 +3565,7 @@
         <v>2018</v>
       </c>
       <c r="I3">
-        <v>0.99468368291854858</v>
+        <v>0.9946836829185486</v>
       </c>
       <c r="J3">
         <v>-0.5316317081451416</v>
@@ -3384,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -3398,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>270.00180053710938</v>
+        <v>270.0018005371094</v>
       </c>
       <c r="F4" t="s">
         <v>108</v>
@@ -3410,10 +3603,10 @@
         <v>2018</v>
       </c>
       <c r="I4">
-        <v>0.99134480953216564</v>
+        <v>0.9913448095321656</v>
       </c>
       <c r="J4">
-        <v>-0.86551904678344727</v>
+        <v>-0.8655190467834473</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3422,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -3436,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>267.66488647460938</v>
+        <v>267.6648864746094</v>
       </c>
       <c r="F5" t="s">
         <v>109</v>
@@ -3448,7 +3641,7 @@
         <v>2018</v>
       </c>
       <c r="I5">
-        <v>1.0122241973876951</v>
+        <v>1.012224197387695</v>
       </c>
       <c r="J5">
         <v>1.222419738769531</v>
@@ -3460,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -3486,10 +3679,10 @@
         <v>2018</v>
       </c>
       <c r="I6">
-        <v>0.99431461095809937</v>
+        <v>0.9943146109580994</v>
       </c>
       <c r="J6">
-        <v>-0.56853890419006348</v>
+        <v>-0.5685389041900635</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3498,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -3512,7 +3705,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>269.39651489257813</v>
+        <v>269.3965148925781</v>
       </c>
       <c r="F7" t="s">
         <v>111</v>
@@ -3524,10 +3717,10 @@
         <v>2018</v>
       </c>
       <c r="I7">
-        <v>1.0092425346374509</v>
+        <v>1.009242534637451</v>
       </c>
       <c r="J7">
-        <v>0.92425346374511719</v>
+        <v>0.9242534637451172</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3536,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>20</v>
       </c>
@@ -3550,7 +3743,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>271.88641357421881</v>
+        <v>271.8864135742188</v>
       </c>
       <c r="F8" t="s">
         <v>112</v>
@@ -3562,10 +3755,10 @@
         <v>2018</v>
       </c>
       <c r="I8">
-        <v>1.0051053762435911</v>
+        <v>1.005105376243591</v>
       </c>
       <c r="J8">
-        <v>0.51053762435913086</v>
+        <v>0.5105376243591309</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3574,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>24</v>
       </c>
@@ -3588,7 +3781,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>273.27450561523438</v>
+        <v>273.2745056152344</v>
       </c>
       <c r="F9" t="s">
         <v>113</v>
@@ -3600,10 +3793,10 @@
         <v>2018</v>
       </c>
       <c r="I9">
-        <v>1.0082937479019169</v>
+        <v>1.008293747901917</v>
       </c>
       <c r="J9">
-        <v>0.82937479019165039</v>
+        <v>0.8293747901916504</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3612,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>28</v>
       </c>
@@ -3626,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>275.54098510742188</v>
+        <v>275.5409851074219</v>
       </c>
       <c r="F10" t="s">
         <v>114</v>
@@ -3638,7 +3831,7 @@
         <v>2018</v>
       </c>
       <c r="I10">
-        <v>1.0045114755630491</v>
+        <v>1.004511475563049</v>
       </c>
       <c r="J10">
         <v>0.4511475563049317</v>
@@ -3650,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>32</v>
       </c>
@@ -3664,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>276.78408813476563</v>
+        <v>276.7840881347656</v>
       </c>
       <c r="F11" t="s">
         <v>115</v>
@@ -3676,10 +3869,10 @@
         <v>2018</v>
       </c>
       <c r="I11">
-        <v>1.0032390356063841</v>
+        <v>1.003239035606384</v>
       </c>
       <c r="J11">
-        <v>0.32390356063842768</v>
+        <v>0.3239035606384277</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -3688,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>36</v>
       </c>
@@ -3702,7 +3895,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>277.68060302734369</v>
+        <v>277.6806030273437</v>
       </c>
       <c r="F12" t="s">
         <v>116</v>
@@ -3714,10 +3907,10 @@
         <v>2018</v>
       </c>
       <c r="I12">
-        <v>0.98875969648361195</v>
+        <v>0.9887596964836119</v>
       </c>
       <c r="J12">
-        <v>-1.1240303516387939</v>
+        <v>-1.124030351638794</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3726,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>39</v>
       </c>
@@ -3740,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>274.55938720703119</v>
+        <v>274.5593872070312</v>
       </c>
       <c r="F13" t="s">
         <v>117</v>
@@ -3755,7 +3948,7 @@
         <v>0.9915698766708374</v>
       </c>
       <c r="J13">
-        <v>-0.84301233291625977</v>
+        <v>-0.8430123329162598</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3764,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>43</v>
       </c>
@@ -3778,7 +3971,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>272.24481201171881</v>
+        <v>272.2448120117188</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -3802,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -3840,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -3854,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>282.31631469726563</v>
+        <v>282.3163146972656</v>
       </c>
       <c r="F16" t="s">
         <v>108</v>
@@ -3866,10 +4059,10 @@
         <v>2019</v>
       </c>
       <c r="I16">
-        <v>1.0095789432525639</v>
+        <v>1.009578943252564</v>
       </c>
       <c r="J16">
-        <v>0.95789432525634755</v>
+        <v>0.9578943252563475</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -3878,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -3892,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>285.02059936523438</v>
+        <v>285.0205993652344</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -3907,7 +4100,7 @@
         <v>1.01287829875946</v>
       </c>
       <c r="J17">
-        <v>1.2878298759460449</v>
+        <v>1.287829875946045</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -3916,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -3930,7 +4123,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>288.69119262695313</v>
+        <v>288.6911926269531</v>
       </c>
       <c r="F18" t="s">
         <v>110</v>
@@ -3945,7 +4138,7 @@
         <v>1.000463128089905</v>
       </c>
       <c r="J18">
-        <v>4.6312808990478523E-2</v>
+        <v>0.04631280899047852</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -3954,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3968,7 +4161,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>288.82489013671881</v>
+        <v>288.8248901367188</v>
       </c>
       <c r="F19" t="s">
         <v>111</v>
@@ -3980,7 +4173,7 @@
         <v>2019</v>
       </c>
       <c r="I19">
-        <v>1.0124508142471309</v>
+        <v>1.012450814247131</v>
       </c>
       <c r="J19">
         <v>1.245081424713135</v>
@@ -3992,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -4006,7 +4199,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>292.42098999023438</v>
+        <v>292.4209899902344</v>
       </c>
       <c r="F20" t="s">
         <v>112</v>
@@ -4018,7 +4211,7 @@
         <v>2019</v>
       </c>
       <c r="I20">
-        <v>1.0040866136550901</v>
+        <v>1.00408661365509</v>
       </c>
       <c r="J20">
         <v>0.4086613655090332</v>
@@ -4030,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -4044,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>293.61599731445313</v>
+        <v>293.6159973144531</v>
       </c>
       <c r="F21" t="s">
         <v>113</v>
@@ -4059,7 +4252,7 @@
         <v>1.0043785572052</v>
       </c>
       <c r="J21">
-        <v>0.43785572052001948</v>
+        <v>0.4378557205200195</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -4068,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>29</v>
       </c>
@@ -4097,7 +4290,7 @@
         <v>1.006837129592896</v>
       </c>
       <c r="J22">
-        <v>0.68371295928955078</v>
+        <v>0.6837129592895508</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -4106,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>33</v>
       </c>
@@ -4120,7 +4313,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>296.91790771484381</v>
+        <v>296.9179077148438</v>
       </c>
       <c r="F23" t="s">
         <v>115</v>
@@ -4135,7 +4328,7 @@
         <v>1.003887891769409</v>
       </c>
       <c r="J23">
-        <v>0.38878917694091802</v>
+        <v>0.388789176940918</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -4144,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>37</v>
       </c>
@@ -4158,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>298.07229614257813</v>
+        <v>298.0722961425781</v>
       </c>
       <c r="F24" t="s">
         <v>116</v>
@@ -4173,7 +4366,7 @@
         <v>1.00066602230072</v>
       </c>
       <c r="J24">
-        <v>6.660223007202147E-2</v>
+        <v>0.06660223007202147</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -4182,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>40</v>
       </c>
@@ -4196,7 +4389,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>298.27081298828119</v>
+        <v>298.2708129882812</v>
       </c>
       <c r="F25" t="s">
         <v>117</v>
@@ -4208,10 +4401,10 @@
         <v>2019</v>
       </c>
       <c r="I25">
-        <v>1.0191688537597661</v>
+        <v>1.019168853759766</v>
       </c>
       <c r="J25">
-        <v>1.9168853759765621</v>
+        <v>1.916885375976562</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -4220,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>44</v>
       </c>
@@ -4234,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>303.98831176757813</v>
+        <v>303.9883117675781</v>
       </c>
       <c r="F26" t="s">
         <v>106</v>
@@ -4246,10 +4439,10 @@
         <v>2019</v>
       </c>
       <c r="I26">
-        <v>1.0060232877731321</v>
+        <v>1.006023287773132</v>
       </c>
       <c r="J26">
-        <v>0.60232877731323242</v>
+        <v>0.6023287773132324</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -4258,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -4272,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>305.81930541992188</v>
+        <v>305.8193054199219</v>
       </c>
       <c r="F27" t="s">
         <v>107</v>
@@ -4284,10 +4477,10 @@
         <v>2020</v>
       </c>
       <c r="I27">
-        <v>1.0037580728530879</v>
+        <v>1.003758072853088</v>
       </c>
       <c r="J27">
-        <v>0.37580728530883789</v>
+        <v>0.3758072853088379</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -4296,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -4310,7 +4503,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>306.96859741210938</v>
+        <v>306.9685974121094</v>
       </c>
       <c r="F28" t="s">
         <v>108</v>
@@ -4322,7 +4515,7 @@
         <v>2020</v>
       </c>
       <c r="I28">
-        <v>0.98771667480468761</v>
+        <v>0.9877166748046876</v>
       </c>
       <c r="J28">
         <v>-1.22833251953125</v>
@@ -4334,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -4360,10 +4553,10 @@
         <v>2020</v>
       </c>
       <c r="I29">
-        <v>0.93007409572601318</v>
+        <v>0.9300740957260132</v>
       </c>
       <c r="J29">
-        <v>-6.9925904273986834</v>
+        <v>-6.992590427398683</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -4372,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>14</v>
       </c>
@@ -4386,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>281.99661254882813</v>
+        <v>281.9966125488281</v>
       </c>
       <c r="F30" t="s">
         <v>110</v>
@@ -4398,10 +4591,10 @@
         <v>2020</v>
       </c>
       <c r="I30">
-        <v>1.0249342918396001</v>
+        <v>1.0249342918396</v>
       </c>
       <c r="J30">
-        <v>2.4934291839599609</v>
+        <v>2.493429183959961</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -4410,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>18</v>
       </c>
@@ -4424,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>289.02801513671881</v>
+        <v>289.0280151367188</v>
       </c>
       <c r="F31" t="s">
         <v>111</v>
@@ -4439,7 +4632,7 @@
         <v>1.031080961227417</v>
       </c>
       <c r="J31">
-        <v>3.1080961227416992</v>
+        <v>3.108096122741699</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -4448,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>22</v>
       </c>
@@ -4462,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>298.01129150390619</v>
+        <v>298.0112915039062</v>
       </c>
       <c r="F32" t="s">
         <v>112</v>
@@ -4477,7 +4670,7 @@
         <v>1.013629674911499</v>
       </c>
       <c r="J32">
-        <v>1.3629674911499019</v>
+        <v>1.362967491149902</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -4486,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>26</v>
       </c>
@@ -4500,7 +4693,7 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <v>302.07308959960938</v>
+        <v>302.0730895996094</v>
       </c>
       <c r="F33" t="s">
         <v>113</v>
@@ -4515,7 +4708,7 @@
         <v>1.007486939430237</v>
       </c>
       <c r="J33">
-        <v>0.74869394302368164</v>
+        <v>0.7486939430236816</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -4524,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -4538,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <v>304.33468627929688</v>
+        <v>304.3346862792969</v>
       </c>
       <c r="F34" t="s">
         <v>114</v>
@@ -4553,7 +4746,7 @@
         <v>1.002261757850647</v>
       </c>
       <c r="J34">
-        <v>0.22617578506469729</v>
+        <v>0.2261757850646973</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -4562,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4576,7 +4769,7 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>305.02301025390619</v>
+        <v>305.0230102539062</v>
       </c>
       <c r="F35" t="s">
         <v>115</v>
@@ -4588,10 +4781,10 @@
         <v>2020</v>
       </c>
       <c r="I35">
-        <v>1.0019716024398799</v>
+        <v>1.00197160243988</v>
       </c>
       <c r="J35">
-        <v>0.19716024398803711</v>
+        <v>0.1971602439880371</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -4600,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>38</v>
       </c>
@@ -4626,10 +4819,10 @@
         <v>2020</v>
       </c>
       <c r="I36">
-        <v>1.0238040685653691</v>
+        <v>1.023804068565369</v>
       </c>
       <c r="J36">
-        <v>2.3804068565368648</v>
+        <v>2.380406856536865</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4638,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>41</v>
       </c>
@@ -4652,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>312.89950561523438</v>
+        <v>312.8995056152344</v>
       </c>
       <c r="F37" t="s">
         <v>117</v>
@@ -4664,10 +4857,10 @@
         <v>2020</v>
       </c>
       <c r="I37">
-        <v>1.0168303251266479</v>
+        <v>1.016830325126648</v>
       </c>
       <c r="J37">
-        <v>1.6830325126647949</v>
+        <v>1.683032512664795</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4676,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -4690,7 +4883,7 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>318.16571044921881</v>
+        <v>318.1657104492188</v>
       </c>
       <c r="F38" t="s">
         <v>106</v>
@@ -4705,7 +4898,7 @@
         <v>1.005594611167907</v>
       </c>
       <c r="J38">
-        <v>0.55946111679077148</v>
+        <v>0.5594611167907715</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4714,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -4728,7 +4921,7 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>319.94570922851563</v>
+        <v>319.9457092285156</v>
       </c>
       <c r="F39" t="s">
         <v>107</v>
@@ -4740,10 +4933,10 @@
         <v>2021</v>
       </c>
       <c r="I39">
-        <v>1.0062506198883061</v>
+        <v>1.006250619888306</v>
       </c>
       <c r="J39">
-        <v>0.62506198883056641</v>
+        <v>0.6250619888305664</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4752,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>7</v>
       </c>
@@ -4766,7 +4959,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>321.94558715820313</v>
+        <v>321.9455871582031</v>
       </c>
       <c r="F40" t="s">
         <v>108</v>
@@ -4778,10 +4971,10 @@
         <v>2021</v>
       </c>
       <c r="I40">
-        <v>0.99539554119110119</v>
+        <v>0.9953955411911012</v>
       </c>
       <c r="J40">
-        <v>-0.46044588088989258</v>
+        <v>-0.4604458808898926</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4790,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>11</v>
       </c>
@@ -4804,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>320.46319580078119</v>
+        <v>320.4631958007812</v>
       </c>
       <c r="F41" t="s">
         <v>109</v>
@@ -4819,7 +5012,7 @@
         <v>1.009448885917664</v>
       </c>
       <c r="J41">
-        <v>0.94488859176635742</v>
+        <v>0.9448885917663574</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4828,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -4854,10 +5047,10 @@
         <v>2021</v>
       </c>
       <c r="I42">
-        <v>1.0026780366897581</v>
+        <v>1.002678036689758</v>
       </c>
       <c r="J42">
-        <v>0.26780366897583008</v>
+        <v>0.2678036689758301</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4866,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>19</v>
       </c>
@@ -4880,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>324.35751342773438</v>
+        <v>324.3575134277344</v>
       </c>
       <c r="F43" t="s">
         <v>111</v>
@@ -4892,7 +5085,7 @@
         <v>2021</v>
       </c>
       <c r="I43">
-        <v>1.0107430219650271</v>
+        <v>1.010743021965027</v>
       </c>
       <c r="J43">
         <v>1.074302196502686</v>
@@ -4904,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>23</v>
       </c>
@@ -4918,7 +5111,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>327.84210205078119</v>
+        <v>327.8421020507812</v>
       </c>
       <c r="F44" t="s">
         <v>112</v>
@@ -4930,10 +5123,10 @@
         <v>2021</v>
       </c>
       <c r="I44">
-        <v>1.0036405324935911</v>
+        <v>1.003640532493591</v>
       </c>
       <c r="J44">
-        <v>0.36405324935913091</v>
+        <v>0.3640532493591309</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4942,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>27</v>
       </c>
@@ -4956,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>329.03561401367188</v>
+        <v>329.0356140136719</v>
       </c>
       <c r="F45" t="s">
         <v>113</v>
@@ -4971,7 +5164,7 @@
         <v>1.004615902900696</v>
       </c>
       <c r="J45">
-        <v>0.46159029006958008</v>
+        <v>0.4615902900695801</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4980,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>31</v>
       </c>
@@ -4994,7 +5187,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>330.55441284179688</v>
+        <v>330.5544128417969</v>
       </c>
       <c r="F46" t="s">
         <v>114</v>
@@ -5006,10 +5199,10 @@
         <v>2021</v>
       </c>
       <c r="I46">
-        <v>1.0037194490432739</v>
+        <v>1.003719449043274</v>
       </c>
       <c r="J46">
-        <v>0.37194490432739258</v>
+        <v>0.3719449043273926</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -5018,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>35</v>
       </c>
@@ -5032,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>331.78390502929688</v>
+        <v>331.7839050292969</v>
       </c>
       <c r="F47" t="s">
         <v>115</v>
@@ -5050,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -5079,7 +5272,7 @@
         <v>1.006600022315979</v>
       </c>
       <c r="J48">
-        <v>0.66000223159790039</v>
+        <v>0.6600022315979004</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -5088,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -5114,7 +5307,7 @@
         <v>2018</v>
       </c>
       <c r="I49">
-        <v>1.0077999830245969</v>
+        <v>1.007799983024597</v>
       </c>
       <c r="J49">
         <v>0.7799983024597168</v>
@@ -5126,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -5140,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>106.99875640869141</v>
+        <v>106.9987564086914</v>
       </c>
       <c r="F50" t="s">
         <v>117</v>
@@ -5164,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -5193,7 +5386,7 @@
         <v>1.007099986076355</v>
       </c>
       <c r="J51">
-        <v>0.70999860763549794</v>
+        <v>0.7099986076354979</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5202,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -5228,10 +5421,10 @@
         <v>2019</v>
       </c>
       <c r="I52">
-        <v>1.0060999393463139</v>
+        <v>1.006099939346314</v>
       </c>
       <c r="J52">
-        <v>0.60999393463134766</v>
+        <v>0.6099939346313477</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5240,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -5254,7 +5447,7 @@
         <v>4</v>
       </c>
       <c r="E53">
-        <v>109.08795166015619</v>
+        <v>109.0879516601562</v>
       </c>
       <c r="F53" t="s">
         <v>108</v>
@@ -5269,7 +5462,7 @@
         <v>1.006600022315979</v>
       </c>
       <c r="J53">
-        <v>0.66000223159790039</v>
+        <v>0.6600022315979004</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5278,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -5304,10 +5497,10 @@
         <v>2019</v>
       </c>
       <c r="I54">
-        <v>1.0065000057220459</v>
+        <v>1.006500005722046</v>
       </c>
       <c r="J54">
-        <v>0.65000057220458984</v>
+        <v>0.6500005722045898</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5316,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>7</v>
       </c>
@@ -5342,10 +5535,10 @@
         <v>2019</v>
       </c>
       <c r="I55">
-        <v>1.0077000856399541</v>
+        <v>1.007700085639954</v>
       </c>
       <c r="J55">
-        <v>0.77000856399536133</v>
+        <v>0.7700085639953613</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5354,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>8</v>
       </c>
@@ -5368,7 +5561,7 @@
         <v>4</v>
       </c>
       <c r="E56">
-        <v>111.37270355224609</v>
+        <v>111.3727035522461</v>
       </c>
       <c r="F56" t="s">
         <v>111</v>
@@ -5380,10 +5573,10 @@
         <v>2019</v>
       </c>
       <c r="I56">
-        <v>1.0053999423980711</v>
+        <v>1.005399942398071</v>
       </c>
       <c r="J56">
-        <v>0.53999423980712891</v>
+        <v>0.5399942398071289</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5392,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>9</v>
       </c>
@@ -5418,10 +5611,10 @@
         <v>2019</v>
       </c>
       <c r="I57">
-        <v>1.0062999725341799</v>
+        <v>1.00629997253418</v>
       </c>
       <c r="J57">
-        <v>0.62999725341796875</v>
+        <v>0.6299972534179688</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -5430,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>10</v>
       </c>
@@ -5444,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="E58">
-        <v>112.67955017089839</v>
+        <v>112.6795501708984</v>
       </c>
       <c r="F58" t="s">
         <v>113</v>
@@ -5468,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -5482,7 +5675,7 @@
         <v>4</v>
       </c>
       <c r="E59">
-        <v>113.40069580078119</v>
+        <v>113.4006958007812</v>
       </c>
       <c r="F59" t="s">
         <v>114</v>
@@ -5494,10 +5687,10 @@
         <v>2019</v>
       </c>
       <c r="I59">
-        <v>1.0054000616073611</v>
+        <v>1.005400061607361</v>
       </c>
       <c r="J59">
-        <v>0.54000616073608398</v>
+        <v>0.540006160736084</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5506,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>12</v>
       </c>
@@ -5535,7 +5728,7 @@
         <v>1.007300019264221</v>
       </c>
       <c r="J60">
-        <v>0.73000192642211914</v>
+        <v>0.7300019264221191</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5544,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>13</v>
       </c>
@@ -5558,7 +5751,7 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <v>114.84535980224609</v>
+        <v>114.8453598022461</v>
       </c>
       <c r="F61" t="s">
         <v>116</v>
@@ -5570,10 +5763,10 @@
         <v>2019</v>
       </c>
       <c r="I61">
-        <v>1.0062999725341799</v>
+        <v>1.00629997253418</v>
       </c>
       <c r="J61">
-        <v>0.62999725341796875</v>
+        <v>0.6299972534179688</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -5582,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>14</v>
       </c>
@@ -5608,10 +5801,10 @@
         <v>2019</v>
       </c>
       <c r="I62">
-        <v>1.0062999725341799</v>
+        <v>1.00629997253418</v>
       </c>
       <c r="J62">
-        <v>0.62999725341796875</v>
+        <v>0.6299972534179688</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -5620,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>15</v>
       </c>
@@ -5646,10 +5839,10 @@
         <v>2019</v>
       </c>
       <c r="I63">
-        <v>1.0067000389099121</v>
+        <v>1.006700038909912</v>
       </c>
       <c r="J63">
-        <v>0.67000389099121094</v>
+        <v>0.6700038909912109</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -5658,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>16</v>
       </c>
@@ -5672,7 +5865,7 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <v>117.07615661621089</v>
+        <v>117.0761566162109</v>
       </c>
       <c r="F64" t="s">
         <v>107</v>
@@ -5687,7 +5880,7 @@
         <v>1.006600022315979</v>
       </c>
       <c r="J64">
-        <v>0.66000223159790039</v>
+        <v>0.6600022315979004</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -5696,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>17</v>
       </c>
@@ -5710,7 +5903,7 @@
         <v>4</v>
       </c>
       <c r="E65">
-        <v>117.84886169433589</v>
+        <v>117.8488616943359</v>
       </c>
       <c r="F65" t="s">
         <v>108</v>
@@ -5725,7 +5918,7 @@
         <v>1.006600022315979</v>
       </c>
       <c r="J65">
-        <v>0.66000223159790039</v>
+        <v>0.6600022315979004</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -5734,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>18</v>
       </c>
@@ -5763,7 +5956,7 @@
         <v>1.026999950408936</v>
       </c>
       <c r="J66">
-        <v>2.6999950408935551</v>
+        <v>2.699995040893555</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -5772,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>19</v>
       </c>
@@ -5801,7 +5994,7 @@
         <v>1.012099981307983</v>
       </c>
       <c r="J67">
-        <v>1.2099981307983401</v>
+        <v>1.20999813079834</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -5810,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>20</v>
       </c>
@@ -5839,7 +6032,7 @@
         <v>1.021600008010864</v>
       </c>
       <c r="J68">
-        <v>2.1600008010864258</v>
+        <v>2.160000801086426</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -5848,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>21</v>
       </c>
@@ -5874,10 +6067,10 @@
         <v>2020</v>
       </c>
       <c r="I69">
-        <v>1.0078999996185301</v>
+        <v>1.00789999961853</v>
       </c>
       <c r="J69">
-        <v>0.78999996185302734</v>
+        <v>0.7899999618530273</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -5886,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>22</v>
       </c>
@@ -5900,7 +6093,7 @@
         <v>4</v>
       </c>
       <c r="E70">
-        <v>126.96221923828119</v>
+        <v>126.9622192382812</v>
       </c>
       <c r="F70" t="s">
         <v>113</v>
@@ -5912,7 +6105,7 @@
         <v>2020</v>
       </c>
       <c r="I70">
-        <v>1.0138000249862671</v>
+        <v>1.013800024986267</v>
       </c>
       <c r="J70">
         <v>1.380002498626709</v>
@@ -5924,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>23</v>
       </c>
@@ -5938,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="E71">
-        <v>128.71429443359381</v>
+        <v>128.7142944335938</v>
       </c>
       <c r="F71" t="s">
         <v>114</v>
@@ -5950,10 +6143,10 @@
         <v>2020</v>
       </c>
       <c r="I71">
-        <v>1.0062000751495359</v>
+        <v>1.006200075149536</v>
       </c>
       <c r="J71">
-        <v>0.62000751495361328</v>
+        <v>0.6200075149536133</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -5962,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>24</v>
       </c>
@@ -5988,10 +6181,10 @@
         <v>2020</v>
       </c>
       <c r="I72">
-        <v>1.0067000389099121</v>
+        <v>1.006700038909912</v>
       </c>
       <c r="J72">
-        <v>0.67000389099121094</v>
+        <v>0.6700038909912109</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -6000,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>25</v>
       </c>
@@ -6014,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="E73">
-        <v>130.38006591796881</v>
+        <v>130.3800659179688</v>
       </c>
       <c r="F73" t="s">
         <v>116</v>
@@ -6026,10 +6219,10 @@
         <v>2020</v>
       </c>
       <c r="I73">
-        <v>1.0078999996185301</v>
+        <v>1.00789999961853</v>
       </c>
       <c r="J73">
-        <v>0.78999996185302734</v>
+        <v>0.7899999618530273</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -6038,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>26</v>
       </c>
@@ -6064,10 +6257,10 @@
         <v>2020</v>
       </c>
       <c r="I74">
-        <v>1.0078999996185301</v>
+        <v>1.00789999961853</v>
       </c>
       <c r="J74">
-        <v>0.78999996185302734</v>
+        <v>0.7899999618530273</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -6076,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>27</v>
       </c>
@@ -6090,7 +6283,7 @@
         <v>4</v>
       </c>
       <c r="E75">
-        <v>132.44819641113281</v>
+        <v>132.4481964111328</v>
       </c>
       <c r="F75" t="s">
         <v>106</v>
@@ -6102,10 +6295,10 @@
         <v>2020</v>
       </c>
       <c r="I75">
-        <v>1.0082999467849729</v>
+        <v>1.008299946784973</v>
       </c>
       <c r="J75">
-        <v>0.82999467849731445</v>
+        <v>0.8299946784973145</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -6114,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>28</v>
       </c>
@@ -6143,7 +6336,7 @@
         <v>1.007600069046021</v>
       </c>
       <c r="J76">
-        <v>0.76000690460205078</v>
+        <v>0.7600069046020508</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -6152,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>29</v>
       </c>
@@ -6166,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="E77">
-        <v>134.56248474121091</v>
+        <v>134.5624847412109</v>
       </c>
       <c r="F77" t="s">
         <v>108</v>
@@ -6181,7 +6374,7 @@
         <v>1.005699992179871</v>
       </c>
       <c r="J77">
-        <v>0.56999921798706055</v>
+        <v>0.5699992179870605</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -6190,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>30</v>
       </c>
@@ -6204,7 +6397,7 @@
         <v>4</v>
       </c>
       <c r="E78">
-        <v>135.32948303222659</v>
+        <v>135.3294830322266</v>
       </c>
       <c r="F78" t="s">
         <v>109</v>
@@ -6216,10 +6409,10 @@
         <v>2021</v>
       </c>
       <c r="I78">
-        <v>1.0056000947952271</v>
+        <v>1.005600094795227</v>
       </c>
       <c r="J78">
-        <v>0.56000947952270508</v>
+        <v>0.5600094795227051</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -6228,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>31</v>
       </c>
@@ -6242,7 +6435,7 @@
         <v>4</v>
       </c>
       <c r="E79">
-        <v>136.08734130859381</v>
+        <v>136.0873413085938</v>
       </c>
       <c r="F79" t="s">
         <v>110</v>
@@ -6254,7 +6447,7 @@
         <v>2021</v>
       </c>
       <c r="I79">
-        <v>1.0055999755859379</v>
+        <v>1.005599975585938</v>
       </c>
       <c r="J79">
         <v>0.55999755859375</v>
@@ -6266,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>32</v>
       </c>
@@ -6280,7 +6473,7 @@
         <v>4</v>
       </c>
       <c r="E80">
-        <v>136.84942626953119</v>
+        <v>136.8494262695312</v>
       </c>
       <c r="F80" t="s">
         <v>111</v>
@@ -6292,10 +6485,10 @@
         <v>2021</v>
       </c>
       <c r="I80">
-        <v>1.0065000057220459</v>
+        <v>1.006500005722046</v>
       </c>
       <c r="J80">
-        <v>0.65000057220458984</v>
+        <v>0.6500005722045898</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -6304,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>33</v>
       </c>
@@ -6318,7 +6511,7 @@
         <v>4</v>
       </c>
       <c r="E81">
-        <v>137.73895263671881</v>
+        <v>137.7389526367188</v>
       </c>
       <c r="F81" t="s">
         <v>112</v>
@@ -6336,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>34</v>
       </c>
@@ -6374,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>35</v>
       </c>
@@ -6400,10 +6593,10 @@
         <v>2018</v>
       </c>
       <c r="I83">
-        <v>1.0060926675796511</v>
+        <v>1.006092667579651</v>
       </c>
       <c r="J83">
-        <v>0.60926675796508789</v>
+        <v>0.6092667579650879</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -6412,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>36</v>
       </c>
@@ -6426,7 +6619,7 @@
         <v>5</v>
       </c>
       <c r="E84">
-        <v>100.73000335693359</v>
+        <v>100.7300033569336</v>
       </c>
       <c r="F84" t="s">
         <v>117</v>
@@ -6441,7 +6634,7 @@
         <v>1.00555944442749</v>
       </c>
       <c r="J84">
-        <v>0.55594444274902344</v>
+        <v>0.5559444427490234</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -6450,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>37</v>
       </c>
@@ -6479,7 +6672,7 @@
         <v>1.00533127784729</v>
       </c>
       <c r="J85">
-        <v>0.53312778472900391</v>
+        <v>0.5331277847290039</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -6488,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>38</v>
       </c>
@@ -6517,7 +6710,7 @@
         <v>1.005008339881897</v>
       </c>
       <c r="J86">
-        <v>0.50083398818969727</v>
+        <v>0.5008339881896973</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -6526,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>39</v>
       </c>
@@ -6552,10 +6745,10 @@
         <v>2019</v>
       </c>
       <c r="I87">
-        <v>1.0059605836868291</v>
+        <v>1.005960583686829</v>
       </c>
       <c r="J87">
-        <v>0.59605836868286133</v>
+        <v>0.5960583686828613</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -6564,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>40</v>
       </c>
@@ -6602,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>41</v>
       </c>
@@ -6616,7 +6809,7 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <v>103.44000244140619</v>
+        <v>103.4400024414062</v>
       </c>
       <c r="F89" t="s">
         <v>110</v>
@@ -6628,7 +6821,7 @@
         <v>2019</v>
       </c>
       <c r="I89">
-        <v>1.0186581611633301</v>
+        <v>1.01865816116333</v>
       </c>
       <c r="J89">
         <v>1.865816116333008</v>
@@ -6640,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>42</v>
       </c>
@@ -6666,10 +6859,10 @@
         <v>2019</v>
       </c>
       <c r="I90">
-        <v>1.0074024200439451</v>
+        <v>1.007402420043945</v>
       </c>
       <c r="J90">
-        <v>0.74024200439453125</v>
+        <v>0.7402420043945312</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -6678,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>43</v>
       </c>
@@ -6692,7 +6885,7 @@
         <v>5</v>
       </c>
       <c r="E91">
-        <v>106.15000152587891</v>
+        <v>106.1500015258789</v>
       </c>
       <c r="F91" t="s">
         <v>112</v>
@@ -6716,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>44</v>
       </c>
@@ -6745,7 +6938,7 @@
         <v>1.006856322288513</v>
       </c>
       <c r="J92">
-        <v>0.68563222885131836</v>
+        <v>0.6856322288513184</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -6754,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>45</v>
       </c>
@@ -6780,10 +6973,10 @@
         <v>2019</v>
       </c>
       <c r="I93">
-        <v>1.0084660053253169</v>
+        <v>1.008466005325317</v>
       </c>
       <c r="J93">
-        <v>0.84660053253173828</v>
+        <v>0.8466005325317383</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -6792,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>46</v>
       </c>
@@ -6818,10 +7011,10 @@
         <v>2019</v>
       </c>
       <c r="I94">
-        <v>1.0053837299346919</v>
+        <v>1.005383729934692</v>
       </c>
       <c r="J94">
-        <v>0.53837299346923828</v>
+        <v>0.5383729934692383</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -6830,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="1">
         <v>47</v>
       </c>
@@ -6868,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>48</v>
       </c>
@@ -6897,7 +7090,7 @@
         <v>1.005300045013428</v>
       </c>
       <c r="J96">
-        <v>0.53000450134277344</v>
+        <v>0.5300045013427734</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -6906,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>49</v>
       </c>
@@ -6932,10 +7125,10 @@
         <v>2019</v>
       </c>
       <c r="I97">
-        <v>1.0053614377975459</v>
+        <v>1.005361437797546</v>
       </c>
       <c r="J97">
-        <v>0.53614377975463867</v>
+        <v>0.5361437797546387</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -6944,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>50</v>
       </c>
@@ -6973,7 +7166,7 @@
         <v>1.010132431983948</v>
       </c>
       <c r="J98">
-        <v>1.0132431983947749</v>
+        <v>1.013243198394775</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -6982,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>51</v>
       </c>
@@ -6996,7 +7189,7 @@
         <v>5</v>
       </c>
       <c r="E99">
-        <v>113.65000152587891</v>
+        <v>113.6500015258789</v>
       </c>
       <c r="F99" t="s">
         <v>108</v>
@@ -7008,10 +7201,10 @@
         <v>2020</v>
       </c>
       <c r="I99">
-        <v>0.94606244564056408</v>
+        <v>0.9460624456405641</v>
       </c>
       <c r="J99">
-        <v>-5.3937554359436044</v>
+        <v>-5.393755435943604</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -7020,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="1">
         <v>52</v>
       </c>
@@ -7034,7 +7227,7 @@
         <v>5</v>
       </c>
       <c r="E100">
-        <v>107.51999664306641</v>
+        <v>107.5199966430664</v>
       </c>
       <c r="F100" t="s">
         <v>109</v>
@@ -7049,7 +7242,7 @@
         <v>1.001302123069763</v>
       </c>
       <c r="J100">
-        <v>0.13021230697631839</v>
+        <v>0.1302123069763184</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -7058,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>53</v>
       </c>
@@ -7084,10 +7277,10 @@
         <v>2020</v>
       </c>
       <c r="I101">
-        <v>1.0126322507858281</v>
+        <v>1.012632250785828</v>
       </c>
       <c r="J101">
-        <v>1.2632250785827639</v>
+        <v>1.263225078582764</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -7096,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
         <v>54</v>
       </c>
@@ -7110,7 +7303,7 @@
         <v>5</v>
       </c>
       <c r="E102">
-        <v>109.01999664306641</v>
+        <v>109.0199966430664</v>
       </c>
       <c r="F102" t="s">
         <v>111</v>
@@ -7122,10 +7315,10 @@
         <v>2020</v>
       </c>
       <c r="I102">
-        <v>1.0265089273452761</v>
+        <v>1.026508927345276</v>
       </c>
       <c r="J102">
-        <v>2.6508927345275879</v>
+        <v>2.650892734527588</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -7134,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
         <v>55</v>
       </c>
@@ -7160,10 +7353,10 @@
         <v>2020</v>
       </c>
       <c r="I103">
-        <v>1.0150120258331301</v>
+        <v>1.01501202583313</v>
       </c>
       <c r="J103">
-        <v>1.5012025833129889</v>
+        <v>1.501202583312989</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -7172,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" s="1">
         <v>56</v>
       </c>
@@ -7201,7 +7394,7 @@
         <v>1.014261841773987</v>
       </c>
       <c r="J104">
-        <v>1.4261841773986821</v>
+        <v>1.426184177398682</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -7210,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
         <v>57</v>
       </c>
@@ -7236,10 +7429,10 @@
         <v>2020</v>
       </c>
       <c r="I105">
-        <v>1.0110234022140501</v>
+        <v>1.01102340221405</v>
       </c>
       <c r="J105">
-        <v>1.1023402214050291</v>
+        <v>1.102340221405029</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -7248,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" s="1">
         <v>58</v>
       </c>
@@ -7262,7 +7455,7 @@
         <v>5</v>
       </c>
       <c r="E106">
-        <v>116.48000335693359</v>
+        <v>116.4800033569336</v>
       </c>
       <c r="F106" t="s">
         <v>115</v>
@@ -7286,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
         <v>59</v>
       </c>
@@ -7312,7 +7505,7 @@
         <v>2020</v>
       </c>
       <c r="I107">
-        <v>1.0145392417907719</v>
+        <v>1.014539241790772</v>
       </c>
       <c r="J107">
         <v>1.453924179077148</v>
@@ -7324,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="1">
         <v>60</v>
       </c>
@@ -7338,7 +7531,7 @@
         <v>5</v>
       </c>
       <c r="E108">
-        <v>120.01999664306641</v>
+        <v>120.0199966430664</v>
       </c>
       <c r="F108" t="s">
         <v>117</v>
@@ -7353,7 +7546,7 @@
         <v>1.046159029006958</v>
       </c>
       <c r="J108">
-        <v>4.6159029006958008</v>
+        <v>4.615902900695801</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -7362,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
         <v>61</v>
       </c>
@@ -7376,7 +7569,7 @@
         <v>5</v>
       </c>
       <c r="E109">
-        <v>125.55999755859381</v>
+        <v>125.5599975585938</v>
       </c>
       <c r="F109" t="s">
         <v>106</v>
@@ -7388,10 +7581,10 @@
         <v>2020</v>
       </c>
       <c r="I109">
-        <v>1.0365562438964839</v>
+        <v>1.036556243896484</v>
       </c>
       <c r="J109">
-        <v>3.6556243896484379</v>
+        <v>3.655624389648438</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -7400,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
         <v>62</v>
       </c>
@@ -7426,10 +7619,10 @@
         <v>2021</v>
       </c>
       <c r="I110">
-        <v>1.0259701013565059</v>
+        <v>1.025970101356506</v>
       </c>
       <c r="J110">
-        <v>2.5970101356506352</v>
+        <v>2.597010135650635</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -7438,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" s="1">
         <v>63</v>
       </c>
@@ -7464,10 +7657,10 @@
         <v>2021</v>
       </c>
       <c r="I111">
-        <v>1.0875458717346189</v>
+        <v>1.087545871734619</v>
       </c>
       <c r="J111">
-        <v>8.7545871734619141</v>
+        <v>8.754587173461914</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -7476,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
         <v>64</v>
       </c>
@@ -7502,10 +7695,10 @@
         <v>2021</v>
       </c>
       <c r="I112">
-        <v>1.0006886720657351</v>
+        <v>1.000688672065735</v>
       </c>
       <c r="J112">
-        <v>6.8867206573486328E-2</v>
+        <v>0.06886720657348633</v>
       </c>
       <c r="K112">
         <v>1</v>
@@ -7514,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="1">
         <v>65</v>
       </c>
@@ -7528,7 +7721,7 @@
         <v>5</v>
       </c>
       <c r="E113">
-        <v>145.32000732421881</v>
+        <v>145.3200073242188</v>
       </c>
       <c r="F113" t="s">
         <v>110</v>
@@ -7543,7 +7736,7 @@
         <v>1.020628929138184</v>
       </c>
       <c r="J113">
-        <v>2.0628929138183598</v>
+        <v>2.06289291381836</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -7552,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="1">
         <v>66</v>
       </c>
@@ -7566,7 +7759,7 @@
         <v>5</v>
       </c>
       <c r="E114">
-        <v>148.31781005859381</v>
+        <v>148.3178100585938</v>
       </c>
       <c r="F114" t="s">
         <v>111</v>
@@ -7578,7 +7771,7 @@
         <v>2021</v>
       </c>
       <c r="I114">
-        <v>1.0206290483474729</v>
+        <v>1.020629048347473</v>
       </c>
       <c r="J114">
         <v>2.062904834747314</v>
@@ -7590,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="1">
         <v>67</v>
       </c>
@@ -7604,7 +7797,7 @@
         <v>5</v>
       </c>
       <c r="E115">
-        <v>151.37745666503909</v>
+        <v>151.3774566650391</v>
       </c>
       <c r="F115" t="s">
         <v>112</v>
@@ -7625,4 +7818,209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006522679F146DFF498D699F828D56000C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafef3a4b21104a4f88b1575ea132e6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2906f1-4e2b-432c-9c12-773b8d680c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a3c71ec86999a8ee9371076eaf4925b" ns2:_="">
+    <xsd:import namespace="ee2906f1-4e2b-432c-9c12-773b8d680c96"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee2906f1-4e2b-432c-9c12-773b8d680c96" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC24A8F6-A27F-4822-A9E3-A03B45DEB73B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5D18EFD-76C1-471C-806E-3057D7AA08D0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1AD65E-F3B3-45C5-9FF1-5032F238063B}"/>
 </file>
--- a/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book.xlsx
+++ b/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saojoaocp.sharepoint.com/sites/ArmoryFrontOffice/Documentos Compartilhados/General/Programs/ciencia_de_dados/Correlacao_de_fundos/Desenvolvimento/2Descritivas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_A476D553BE14D974B3A1583F409FDE16CD5B04B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB634FDF-8F96-47B4-9B8E-B8464AE6A9F4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatorio" sheetId="1" r:id="rId1"/>
     <sheet name="UnstackRetornosPercentuais" sheetId="2" r:id="rId2"/>
     <sheet name="StackRetornos1" sheetId="3" r:id="rId3"/>
+    <sheet name="Anuais" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="139">
   <si>
     <t>data</t>
   </si>
@@ -421,13 +428,25 @@
   </si>
   <si>
     <t>Tracking Error</t>
+  </si>
+  <si>
+    <t>level_1</t>
+  </si>
+  <si>
+    <t>vol_anualizada</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>&lt;lambda_0&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -974,12 +993,23 @@
     <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1000,7 +1030,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="fig_pairplot.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="fig_pairplot.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1038,7 +1074,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="retorno_density_distribution.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="retorno_density_distribution.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1076,7 +1118,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="CorrelationMatrix.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="CorrelationMatrix.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1114,7 +1162,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1190,7 +1244,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1266,7 +1326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1342,7 +1408,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1418,7 +1490,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1525,7 +1603,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1557,9 +1635,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1591,6 +1687,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1766,35 +1880,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="16" max="19" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
       <c r="Q9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1805,7 +1921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1858,7 +1974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -1875,7 +1991,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2018</v>
       </c>
@@ -1928,7 +2044,7 @@
         <v>-5.39</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2019</v>
       </c>
@@ -1954,19 +2070,19 @@
         <v>0.2</v>
       </c>
       <c r="I13" s="13">
-        <v>-0.14</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="J13" s="3">
         <v>0.34</v>
       </c>
       <c r="K13" s="14">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L13" s="15">
         <v>-1.29</v>
       </c>
       <c r="M13" s="16">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>123</v>
@@ -1975,18 +2091,18 @@
         <v>0.48</v>
       </c>
       <c r="R13">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="S13">
         <v>1.28</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2020</v>
       </c>
       <c r="B14" s="17">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C14" s="4">
         <v>1.89</v>
@@ -2001,7 +2117,7 @@
         <v>-0.95</v>
       </c>
       <c r="G14" s="20">
-        <v>-0.57</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="H14" s="21">
         <v>0.63</v>
@@ -2034,7 +2150,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2021</v>
       </c>
@@ -2048,7 +2164,7 @@
         <v>-0.38</v>
       </c>
       <c r="E15" s="17">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F15" s="30">
         <v>-0.42</v>
@@ -2087,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P16" s="1" t="s">
         <v>126</v>
       </c>
@@ -2101,7 +2217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P17" s="1" t="s">
         <v>127</v>
       </c>
@@ -2115,24 +2231,24 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
       <c r="P18" s="1" t="s">
         <v>128</v>
       </c>
@@ -2146,7 +2262,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2190,7 +2306,7 @@
         <v>129</v>
       </c>
       <c r="Q19">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="R19">
         <v>6.45</v>
@@ -2199,7 +2315,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
@@ -2207,7 +2323,7 @@
         <v>130</v>
       </c>
       <c r="Q20">
-        <v>-8.140000000000001</v>
+        <v>-8.14</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2216,7 +2332,7 @@
         <v>-5.39</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2018</v>
       </c>
@@ -2257,18 +2373,18 @@
         <v>-1.51</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2019</v>
       </c>
       <c r="B22" s="35">
-        <v>-1.12</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="C22" s="29">
         <v>-0.36</v>
       </c>
       <c r="D22" s="36">
-        <v>-0.8100000000000001</v>
+        <v>-0.81</v>
       </c>
       <c r="E22" s="37">
         <v>1.82</v>
@@ -2295,7 +2411,7 @@
         <v>-1.39</v>
       </c>
       <c r="M22" s="43">
-        <v>-0.07000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>4</v>
@@ -2304,7 +2420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2020</v>
       </c>
@@ -2324,7 +2440,7 @@
         <v>-0.46</v>
       </c>
       <c r="G23" s="27">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H23" s="47">
         <v>0.68</v>
@@ -2354,7 +2470,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2021</v>
       </c>
@@ -2362,7 +2478,7 @@
         <v>1.97</v>
       </c>
       <c r="C24" s="18">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="D24" s="25">
         <v>-0.88</v>
@@ -2404,7 +2520,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P25" s="1" t="s">
         <v>133</v>
       </c>
@@ -2415,7 +2531,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P26" s="1" t="s">
         <v>134</v>
       </c>
@@ -2426,26 +2542,26 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -2486,12 +2602,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2018</v>
       </c>
@@ -2523,16 +2639,16 @@
         <v>0.32</v>
       </c>
       <c r="K30" s="35">
-        <v>-1.12</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="L30" s="56">
         <v>-0.84</v>
       </c>
       <c r="M30" s="57">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2019</v>
       </c>
@@ -2564,7 +2680,7 @@
         <v>0.39</v>
       </c>
       <c r="K31" s="16">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L31" s="62">
         <v>1.92</v>
@@ -2573,7 +2689,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2020</v>
       </c>
@@ -2587,7 +2703,7 @@
         <v>-6.99</v>
       </c>
       <c r="E32" s="65">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F32" s="52">
         <v>3.11</v>
@@ -2611,10 +2727,10 @@
         <v>1.68</v>
       </c>
       <c r="M32" s="14">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2021</v>
       </c>
@@ -2625,7 +2741,7 @@
         <v>-0.46</v>
       </c>
       <c r="D33" s="41">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="E33" s="26">
         <v>0.27</v>
@@ -2667,14 +2783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2694,7 +2810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -2708,16 +2824,16 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.3239035606384277</v>
+        <v>0.32390356063842768</v>
       </c>
       <c r="F2">
-        <v>0.6600022315979004</v>
+        <v>0.66000223159790039</v>
       </c>
       <c r="G2">
         <v>0.1200079917907715</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -2731,16 +2847,16 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>-1.124030351638794</v>
+        <v>-1.1240303516387939</v>
       </c>
       <c r="F3">
         <v>0.7799983024597168</v>
       </c>
       <c r="G3">
-        <v>0.6092667579650879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.60926675796508789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -2754,16 +2870,16 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>-0.8430123329162598</v>
+        <v>-0.84301233291625977</v>
       </c>
       <c r="F4">
         <v>0.6199955940246582</v>
       </c>
       <c r="G4">
-        <v>0.5559444427490234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.55594444274902344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -2780,13 +2896,13 @@
         <v>2.045905590057373</v>
       </c>
       <c r="F5">
-        <v>0.7099986076354979</v>
+        <v>0.70999860763549794</v>
       </c>
       <c r="G5">
-        <v>0.5331277847290039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.53312778472900391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -2803,13 +2919,13 @@
         <v>1.620364189147949</v>
       </c>
       <c r="F6">
-        <v>0.6099939346313477</v>
+        <v>0.60999393463134766</v>
       </c>
       <c r="G6">
-        <v>0.5008339881896973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.50083398818969727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -2823,16 +2939,16 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0.9578943252563475</v>
+        <v>0.95789432525634755</v>
       </c>
       <c r="F7">
-        <v>0.6600022315979004</v>
+        <v>0.66000223159790039</v>
       </c>
       <c r="G7">
-        <v>0.5960583686828613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.59605836868286133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -2846,16 +2962,16 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>1.287829875946045</v>
+        <v>1.2878298759460449</v>
       </c>
       <c r="F8">
-        <v>0.6500005722045898</v>
+        <v>0.65000057220458984</v>
       </c>
       <c r="G8">
         <v>0.4759669303894043</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -2869,16 +2985,16 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>0.04631280899047852</v>
+        <v>4.6312808990478523E-2</v>
       </c>
       <c r="F9">
-        <v>0.7700085639953613</v>
+        <v>0.77000856399536133</v>
       </c>
       <c r="G9">
         <v>1.865816116333008</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -2895,13 +3011,13 @@
         <v>1.245081424713135</v>
       </c>
       <c r="F10">
-        <v>0.5399942398071289</v>
+        <v>0.53999423980712891</v>
       </c>
       <c r="G10">
-        <v>0.7402420043945312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.74024200439453125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>18</v>
       </c>
@@ -2918,13 +3034,13 @@
         <v>0.4086613655090332</v>
       </c>
       <c r="F11">
-        <v>0.6299972534179688</v>
+        <v>0.62999725341796875</v>
       </c>
       <c r="G11">
         <v>1.67686939239502</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -2938,16 +3054,16 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>0.4378557205200195</v>
+        <v>0.43785572052001948</v>
       </c>
       <c r="F12">
         <v>0.6399989128112793</v>
       </c>
       <c r="G12">
-        <v>0.6856322288513184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.68563222885131836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -2961,16 +3077,16 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>0.6837129592895508</v>
+        <v>0.68371295928955078</v>
       </c>
       <c r="F13">
-        <v>0.540006160736084</v>
+        <v>0.54000616073608398</v>
       </c>
       <c r="G13">
-        <v>0.8466005325317383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.84660053253173828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>21</v>
       </c>
@@ -2984,16 +3100,16 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>0.388789176940918</v>
+        <v>0.38878917694091802</v>
       </c>
       <c r="F14">
-        <v>0.7300019264221191</v>
+        <v>0.73000192642211914</v>
       </c>
       <c r="G14">
-        <v>0.5383729934692383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.53837299346923828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>22</v>
       </c>
@@ -3007,16 +3123,16 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>0.06660223007202147</v>
+        <v>6.660223007202147E-2</v>
       </c>
       <c r="F15">
-        <v>0.6299972534179688</v>
+        <v>0.62999725341796875</v>
       </c>
       <c r="G15">
         <v>1.034665107727051</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>23</v>
       </c>
@@ -3030,16 +3146,16 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>1.916885375976562</v>
+        <v>1.9168853759765621</v>
       </c>
       <c r="F16">
-        <v>0.6299972534179688</v>
+        <v>0.62999725341796875</v>
       </c>
       <c r="G16">
-        <v>0.5300045013427734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.53000450134277344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -3053,16 +3169,16 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>0.6023287773132324</v>
+        <v>0.60232877731323242</v>
       </c>
       <c r="F17">
-        <v>0.6700038909912109</v>
+        <v>0.67000389099121094</v>
       </c>
       <c r="G17">
-        <v>0.5361437797546387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.53614377975463867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25</v>
       </c>
@@ -3076,16 +3192,16 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.3758072853088379</v>
+        <v>0.37580728530883789</v>
       </c>
       <c r="F18">
-        <v>0.6600022315979004</v>
+        <v>0.66000223159790039</v>
       </c>
       <c r="G18">
-        <v>1.013243198394775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1.0132431983947749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>26</v>
       </c>
@@ -3102,13 +3218,13 @@
         <v>-1.22833251953125</v>
       </c>
       <c r="F19">
-        <v>0.6600022315979004</v>
+        <v>0.66000223159790039</v>
       </c>
       <c r="G19">
-        <v>-5.393755435943604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-5.3937554359436044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>27</v>
       </c>
@@ -3122,16 +3238,16 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>-6.992590427398683</v>
+        <v>-6.9925904273986834</v>
       </c>
       <c r="F20">
-        <v>2.699995040893555</v>
+        <v>2.6999950408935551</v>
       </c>
       <c r="G20">
-        <v>0.1302123069763184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.13021230697631839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>28</v>
       </c>
@@ -3145,16 +3261,16 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>2.493429183959961</v>
+        <v>2.4934291839599609</v>
       </c>
       <c r="F21">
-        <v>1.20999813079834</v>
+        <v>1.2099981307983401</v>
       </c>
       <c r="G21">
-        <v>1.263225078582764</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1.2632250785827639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>29</v>
       </c>
@@ -3168,16 +3284,16 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>3.108096122741699</v>
+        <v>3.1080961227416992</v>
       </c>
       <c r="F22">
-        <v>2.160000801086426</v>
+        <v>2.1600008010864258</v>
       </c>
       <c r="G22">
-        <v>2.650892734527588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>2.6508927345275879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30</v>
       </c>
@@ -3191,16 +3307,16 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>1.362967491149902</v>
+        <v>1.3629674911499019</v>
       </c>
       <c r="F23">
-        <v>0.7899999618530273</v>
+        <v>0.78999996185302734</v>
       </c>
       <c r="G23">
-        <v>1.501202583312989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>1.5012025833129889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>31</v>
       </c>
@@ -3214,16 +3330,16 @@
         <v>7</v>
       </c>
       <c r="E24">
-        <v>0.7486939430236816</v>
+        <v>0.74869394302368164</v>
       </c>
       <c r="F24">
         <v>1.380002498626709</v>
       </c>
       <c r="G24">
-        <v>1.426184177398682</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>1.4261841773986821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -3237,16 +3353,16 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>0.2261757850646973</v>
+        <v>0.22617578506469729</v>
       </c>
       <c r="F25">
-        <v>0.6200075149536133</v>
+        <v>0.62000751495361328</v>
       </c>
       <c r="G25">
-        <v>1.102340221405029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>1.1023402214050291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>33</v>
       </c>
@@ -3260,16 +3376,16 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>0.1971602439880371</v>
+        <v>0.19716024398803711</v>
       </c>
       <c r="F26">
-        <v>0.6700038909912109</v>
+        <v>0.67000389099121094</v>
       </c>
       <c r="G26">
         <v>1.5625</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>34</v>
       </c>
@@ -3283,16 +3399,16 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>2.380406856536865</v>
+        <v>2.3804068565368648</v>
       </c>
       <c r="F27">
-        <v>0.7899999618530273</v>
+        <v>0.78999996185302734</v>
       </c>
       <c r="G27">
         <v>1.453924179077148</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>35</v>
       </c>
@@ -3306,16 +3422,16 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>1.683032512664795</v>
+        <v>1.6830325126647949</v>
       </c>
       <c r="F28">
-        <v>0.7899999618530273</v>
+        <v>0.78999996185302734</v>
       </c>
       <c r="G28">
-        <v>4.615902900695801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>4.6159029006958008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>36</v>
       </c>
@@ -3329,16 +3445,16 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <v>0.5594611167907715</v>
+        <v>0.55946111679077148</v>
       </c>
       <c r="F29">
-        <v>0.8299946784973145</v>
+        <v>0.82999467849731445</v>
       </c>
       <c r="G29">
-        <v>3.655624389648438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>3.6556243896484379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37</v>
       </c>
@@ -3352,16 +3468,16 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.6250619888305664</v>
+        <v>0.62506198883056641</v>
       </c>
       <c r="F30">
-        <v>0.7600069046020508</v>
+        <v>0.76000690460205078</v>
       </c>
       <c r="G30">
-        <v>2.597010135650635</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>2.5970101356506352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>38</v>
       </c>
@@ -3375,16 +3491,16 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>-0.4604458808898926</v>
+        <v>-0.46044588088989258</v>
       </c>
       <c r="F31">
-        <v>0.5699992179870605</v>
+        <v>0.56999921798706055</v>
       </c>
       <c r="G31">
-        <v>8.754587173461914</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>8.7545871734619141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>39</v>
       </c>
@@ -3398,16 +3514,16 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>0.9448885917663574</v>
+        <v>0.94488859176635742</v>
       </c>
       <c r="F32">
-        <v>0.5600094795227051</v>
+        <v>0.56000947952270508</v>
       </c>
       <c r="G32">
-        <v>0.06886720657348633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>6.8867206573486328E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40</v>
       </c>
@@ -3421,16 +3537,16 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>0.2678036689758301</v>
+        <v>0.26780366897583008</v>
       </c>
       <c r="F33">
         <v>0.55999755859375</v>
       </c>
       <c r="G33">
-        <v>2.06289291381836</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>2.0628929138183598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41</v>
       </c>
@@ -3447,7 +3563,7 @@
         <v>1.074302196502686</v>
       </c>
       <c r="F34">
-        <v>0.6500005722045898</v>
+        <v>0.65000057220458984</v>
       </c>
       <c r="G34">
         <v>2.062904834747314</v>
@@ -3459,14 +3575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -3501,7 +3617,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42</v>
       </c>
@@ -3530,7 +3646,7 @@
         <v>1.008591294288635</v>
       </c>
       <c r="J2">
-        <v>0.8591294288635254</v>
+        <v>0.85912942886352539</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3539,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -3553,7 +3669,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>271.4448852539062</v>
+        <v>271.44488525390619</v>
       </c>
       <c r="F3" t="s">
         <v>107</v>
@@ -3565,7 +3681,7 @@
         <v>2018</v>
       </c>
       <c r="I3">
-        <v>0.9946836829185486</v>
+        <v>0.99468368291854858</v>
       </c>
       <c r="J3">
         <v>-0.5316317081451416</v>
@@ -3577,7 +3693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -3591,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>270.0018005371094</v>
+        <v>270.00180053710938</v>
       </c>
       <c r="F4" t="s">
         <v>108</v>
@@ -3603,10 +3719,10 @@
         <v>2018</v>
       </c>
       <c r="I4">
-        <v>0.9913448095321656</v>
+        <v>0.99134480953216564</v>
       </c>
       <c r="J4">
-        <v>-0.8655190467834473</v>
+        <v>-0.86551904678344727</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3615,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -3629,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>267.6648864746094</v>
+        <v>267.66488647460938</v>
       </c>
       <c r="F5" t="s">
         <v>109</v>
@@ -3641,7 +3757,7 @@
         <v>2018</v>
       </c>
       <c r="I5">
-        <v>1.012224197387695</v>
+        <v>1.0122241973876951</v>
       </c>
       <c r="J5">
         <v>1.222419738769531</v>
@@ -3653,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -3679,10 +3795,10 @@
         <v>2018</v>
       </c>
       <c r="I6">
-        <v>0.9943146109580994</v>
+        <v>0.99431461095809937</v>
       </c>
       <c r="J6">
-        <v>-0.5685389041900635</v>
+        <v>-0.56853890419006348</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3691,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -3705,7 +3821,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>269.3965148925781</v>
+        <v>269.39651489257813</v>
       </c>
       <c r="F7" t="s">
         <v>111</v>
@@ -3717,10 +3833,10 @@
         <v>2018</v>
       </c>
       <c r="I7">
-        <v>1.009242534637451</v>
+        <v>1.0092425346374509</v>
       </c>
       <c r="J7">
-        <v>0.9242534637451172</v>
+        <v>0.92425346374511719</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3729,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>20</v>
       </c>
@@ -3743,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>271.8864135742188</v>
+        <v>271.88641357421881</v>
       </c>
       <c r="F8" t="s">
         <v>112</v>
@@ -3755,10 +3871,10 @@
         <v>2018</v>
       </c>
       <c r="I8">
-        <v>1.005105376243591</v>
+        <v>1.0051053762435911</v>
       </c>
       <c r="J8">
-        <v>0.5105376243591309</v>
+        <v>0.51053762435913086</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3767,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>24</v>
       </c>
@@ -3781,7 +3897,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>273.2745056152344</v>
+        <v>273.27450561523438</v>
       </c>
       <c r="F9" t="s">
         <v>113</v>
@@ -3793,10 +3909,10 @@
         <v>2018</v>
       </c>
       <c r="I9">
-        <v>1.008293747901917</v>
+        <v>1.0082937479019169</v>
       </c>
       <c r="J9">
-        <v>0.8293747901916504</v>
+        <v>0.82937479019165039</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3805,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>28</v>
       </c>
@@ -3819,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>275.5409851074219</v>
+        <v>275.54098510742188</v>
       </c>
       <c r="F10" t="s">
         <v>114</v>
@@ -3831,7 +3947,7 @@
         <v>2018</v>
       </c>
       <c r="I10">
-        <v>1.004511475563049</v>
+        <v>1.0045114755630491</v>
       </c>
       <c r="J10">
         <v>0.4511475563049317</v>
@@ -3843,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>32</v>
       </c>
@@ -3857,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>276.7840881347656</v>
+        <v>276.78408813476563</v>
       </c>
       <c r="F11" t="s">
         <v>115</v>
@@ -3869,10 +3985,10 @@
         <v>2018</v>
       </c>
       <c r="I11">
-        <v>1.003239035606384</v>
+        <v>1.0032390356063841</v>
       </c>
       <c r="J11">
-        <v>0.3239035606384277</v>
+        <v>0.32390356063842768</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -3881,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>36</v>
       </c>
@@ -3895,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>277.6806030273437</v>
+        <v>277.68060302734369</v>
       </c>
       <c r="F12" t="s">
         <v>116</v>
@@ -3907,10 +4023,10 @@
         <v>2018</v>
       </c>
       <c r="I12">
-        <v>0.9887596964836119</v>
+        <v>0.98875969648361195</v>
       </c>
       <c r="J12">
-        <v>-1.124030351638794</v>
+        <v>-1.1240303516387939</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3919,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39</v>
       </c>
@@ -3933,7 +4049,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>274.5593872070312</v>
+        <v>274.55938720703119</v>
       </c>
       <c r="F13" t="s">
         <v>117</v>
@@ -3948,7 +4064,7 @@
         <v>0.9915698766708374</v>
       </c>
       <c r="J13">
-        <v>-0.8430123329162598</v>
+        <v>-0.84301233291625977</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3957,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43</v>
       </c>
@@ -3971,7 +4087,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>272.2448120117188</v>
+        <v>272.24481201171881</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -3995,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -4033,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -4047,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>282.3163146972656</v>
+        <v>282.31631469726563</v>
       </c>
       <c r="F16" t="s">
         <v>108</v>
@@ -4059,10 +4175,10 @@
         <v>2019</v>
       </c>
       <c r="I16">
-        <v>1.009578943252564</v>
+        <v>1.0095789432525639</v>
       </c>
       <c r="J16">
-        <v>0.9578943252563475</v>
+        <v>0.95789432525634755</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4071,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -4085,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>285.0205993652344</v>
+        <v>285.02059936523438</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -4100,7 +4216,7 @@
         <v>1.01287829875946</v>
       </c>
       <c r="J17">
-        <v>1.287829875946045</v>
+        <v>1.2878298759460449</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4109,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -4123,7 +4239,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>288.6911926269531</v>
+        <v>288.69119262695313</v>
       </c>
       <c r="F18" t="s">
         <v>110</v>
@@ -4138,7 +4254,7 @@
         <v>1.000463128089905</v>
       </c>
       <c r="J18">
-        <v>0.04631280899047852</v>
+        <v>4.6312808990478523E-2</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4147,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4161,7 +4277,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>288.8248901367188</v>
+        <v>288.82489013671881</v>
       </c>
       <c r="F19" t="s">
         <v>111</v>
@@ -4173,7 +4289,7 @@
         <v>2019</v>
       </c>
       <c r="I19">
-        <v>1.012450814247131</v>
+        <v>1.0124508142471309</v>
       </c>
       <c r="J19">
         <v>1.245081424713135</v>
@@ -4185,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -4199,7 +4315,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>292.4209899902344</v>
+        <v>292.42098999023438</v>
       </c>
       <c r="F20" t="s">
         <v>112</v>
@@ -4211,7 +4327,7 @@
         <v>2019</v>
       </c>
       <c r="I20">
-        <v>1.00408661365509</v>
+        <v>1.0040866136550901</v>
       </c>
       <c r="J20">
         <v>0.4086613655090332</v>
@@ -4223,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -4237,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>293.6159973144531</v>
+        <v>293.61599731445313</v>
       </c>
       <c r="F21" t="s">
         <v>113</v>
@@ -4252,7 +4368,7 @@
         <v>1.0043785572052</v>
       </c>
       <c r="J21">
-        <v>0.4378557205200195</v>
+        <v>0.43785572052001948</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -4261,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>29</v>
       </c>
@@ -4290,7 +4406,7 @@
         <v>1.006837129592896</v>
       </c>
       <c r="J22">
-        <v>0.6837129592895508</v>
+        <v>0.68371295928955078</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -4299,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>33</v>
       </c>
@@ -4313,7 +4429,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>296.9179077148438</v>
+        <v>296.91790771484381</v>
       </c>
       <c r="F23" t="s">
         <v>115</v>
@@ -4328,7 +4444,7 @@
         <v>1.003887891769409</v>
       </c>
       <c r="J23">
-        <v>0.388789176940918</v>
+        <v>0.38878917694091802</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -4337,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>37</v>
       </c>
@@ -4351,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>298.0722961425781</v>
+        <v>298.07229614257813</v>
       </c>
       <c r="F24" t="s">
         <v>116</v>
@@ -4366,7 +4482,7 @@
         <v>1.00066602230072</v>
       </c>
       <c r="J24">
-        <v>0.06660223007202147</v>
+        <v>6.660223007202147E-2</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -4375,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40</v>
       </c>
@@ -4389,7 +4505,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>298.2708129882812</v>
+        <v>298.27081298828119</v>
       </c>
       <c r="F25" t="s">
         <v>117</v>
@@ -4401,10 +4517,10 @@
         <v>2019</v>
       </c>
       <c r="I25">
-        <v>1.019168853759766</v>
+        <v>1.0191688537597661</v>
       </c>
       <c r="J25">
-        <v>1.916885375976562</v>
+        <v>1.9168853759765621</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -4413,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44</v>
       </c>
@@ -4427,7 +4543,7 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>303.9883117675781</v>
+        <v>303.98831176757813</v>
       </c>
       <c r="F26" t="s">
         <v>106</v>
@@ -4439,10 +4555,10 @@
         <v>2019</v>
       </c>
       <c r="I26">
-        <v>1.006023287773132</v>
+        <v>1.0060232877731321</v>
       </c>
       <c r="J26">
-        <v>0.6023287773132324</v>
+        <v>0.60232877731323242</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -4451,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -4465,7 +4581,7 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>305.8193054199219</v>
+        <v>305.81930541992188</v>
       </c>
       <c r="F27" t="s">
         <v>107</v>
@@ -4477,10 +4593,10 @@
         <v>2020</v>
       </c>
       <c r="I27">
-        <v>1.003758072853088</v>
+        <v>1.0037580728530879</v>
       </c>
       <c r="J27">
-        <v>0.3758072853088379</v>
+        <v>0.37580728530883789</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -4489,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -4503,7 +4619,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>306.9685974121094</v>
+        <v>306.96859741210938</v>
       </c>
       <c r="F28" t="s">
         <v>108</v>
@@ -4515,7 +4631,7 @@
         <v>2020</v>
       </c>
       <c r="I28">
-        <v>0.9877166748046876</v>
+        <v>0.98771667480468761</v>
       </c>
       <c r="J28">
         <v>-1.22833251953125</v>
@@ -4527,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -4553,10 +4669,10 @@
         <v>2020</v>
       </c>
       <c r="I29">
-        <v>0.9300740957260132</v>
+        <v>0.93007409572601318</v>
       </c>
       <c r="J29">
-        <v>-6.992590427398683</v>
+        <v>-6.9925904273986834</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -4565,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>14</v>
       </c>
@@ -4579,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>281.9966125488281</v>
+        <v>281.99661254882813</v>
       </c>
       <c r="F30" t="s">
         <v>110</v>
@@ -4591,10 +4707,10 @@
         <v>2020</v>
       </c>
       <c r="I30">
-        <v>1.0249342918396</v>
+        <v>1.0249342918396001</v>
       </c>
       <c r="J30">
-        <v>2.493429183959961</v>
+        <v>2.4934291839599609</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -4603,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>18</v>
       </c>
@@ -4617,7 +4733,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>289.0280151367188</v>
+        <v>289.02801513671881</v>
       </c>
       <c r="F31" t="s">
         <v>111</v>
@@ -4632,7 +4748,7 @@
         <v>1.031080961227417</v>
       </c>
       <c r="J31">
-        <v>3.108096122741699</v>
+        <v>3.1080961227416992</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -4641,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>22</v>
       </c>
@@ -4655,7 +4771,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>298.0112915039062</v>
+        <v>298.01129150390619</v>
       </c>
       <c r="F32" t="s">
         <v>112</v>
@@ -4670,7 +4786,7 @@
         <v>1.013629674911499</v>
       </c>
       <c r="J32">
-        <v>1.362967491149902</v>
+        <v>1.3629674911499019</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -4679,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>26</v>
       </c>
@@ -4693,7 +4809,7 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <v>302.0730895996094</v>
+        <v>302.07308959960938</v>
       </c>
       <c r="F33" t="s">
         <v>113</v>
@@ -4708,7 +4824,7 @@
         <v>1.007486939430237</v>
       </c>
       <c r="J33">
-        <v>0.7486939430236816</v>
+        <v>0.74869394302368164</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -4717,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -4731,7 +4847,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <v>304.3346862792969</v>
+        <v>304.33468627929688</v>
       </c>
       <c r="F34" t="s">
         <v>114</v>
@@ -4746,7 +4862,7 @@
         <v>1.002261757850647</v>
       </c>
       <c r="J34">
-        <v>0.2261757850646973</v>
+        <v>0.22617578506469729</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -4755,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4769,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>305.0230102539062</v>
+        <v>305.02301025390619</v>
       </c>
       <c r="F35" t="s">
         <v>115</v>
@@ -4781,10 +4897,10 @@
         <v>2020</v>
       </c>
       <c r="I35">
-        <v>1.00197160243988</v>
+        <v>1.0019716024398799</v>
       </c>
       <c r="J35">
-        <v>0.1971602439880371</v>
+        <v>0.19716024398803711</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -4793,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>38</v>
       </c>
@@ -4819,10 +4935,10 @@
         <v>2020</v>
       </c>
       <c r="I36">
-        <v>1.023804068565369</v>
+        <v>1.0238040685653691</v>
       </c>
       <c r="J36">
-        <v>2.380406856536865</v>
+        <v>2.3804068565368648</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4831,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>41</v>
       </c>
@@ -4845,7 +4961,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>312.8995056152344</v>
+        <v>312.89950561523438</v>
       </c>
       <c r="F37" t="s">
         <v>117</v>
@@ -4857,10 +4973,10 @@
         <v>2020</v>
       </c>
       <c r="I37">
-        <v>1.016830325126648</v>
+        <v>1.0168303251266479</v>
       </c>
       <c r="J37">
-        <v>1.683032512664795</v>
+        <v>1.6830325126647949</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4869,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -4883,7 +4999,7 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>318.1657104492188</v>
+        <v>318.16571044921881</v>
       </c>
       <c r="F38" t="s">
         <v>106</v>
@@ -4898,7 +5014,7 @@
         <v>1.005594611167907</v>
       </c>
       <c r="J38">
-        <v>0.5594611167907715</v>
+        <v>0.55946111679077148</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4907,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -4921,7 +5037,7 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>319.9457092285156</v>
+        <v>319.94570922851563</v>
       </c>
       <c r="F39" t="s">
         <v>107</v>
@@ -4933,10 +5049,10 @@
         <v>2021</v>
       </c>
       <c r="I39">
-        <v>1.006250619888306</v>
+        <v>1.0062506198883061</v>
       </c>
       <c r="J39">
-        <v>0.6250619888305664</v>
+        <v>0.62506198883056641</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4945,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>7</v>
       </c>
@@ -4959,7 +5075,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>321.9455871582031</v>
+        <v>321.94558715820313</v>
       </c>
       <c r="F40" t="s">
         <v>108</v>
@@ -4971,10 +5087,10 @@
         <v>2021</v>
       </c>
       <c r="I40">
-        <v>0.9953955411911012</v>
+        <v>0.99539554119110119</v>
       </c>
       <c r="J40">
-        <v>-0.4604458808898926</v>
+        <v>-0.46044588088989258</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4983,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>11</v>
       </c>
@@ -4997,7 +5113,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>320.4631958007812</v>
+        <v>320.46319580078119</v>
       </c>
       <c r="F41" t="s">
         <v>109</v>
@@ -5012,7 +5128,7 @@
         <v>1.009448885917664</v>
       </c>
       <c r="J41">
-        <v>0.9448885917663574</v>
+        <v>0.94488859176635742</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -5021,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -5047,10 +5163,10 @@
         <v>2021</v>
       </c>
       <c r="I42">
-        <v>1.002678036689758</v>
+        <v>1.0026780366897581</v>
       </c>
       <c r="J42">
-        <v>0.2678036689758301</v>
+        <v>0.26780366897583008</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -5059,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>19</v>
       </c>
@@ -5073,7 +5189,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>324.3575134277344</v>
+        <v>324.35751342773438</v>
       </c>
       <c r="F43" t="s">
         <v>111</v>
@@ -5085,7 +5201,7 @@
         <v>2021</v>
       </c>
       <c r="I43">
-        <v>1.010743021965027</v>
+        <v>1.0107430219650271</v>
       </c>
       <c r="J43">
         <v>1.074302196502686</v>
@@ -5097,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>23</v>
       </c>
@@ -5111,7 +5227,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>327.8421020507812</v>
+        <v>327.84210205078119</v>
       </c>
       <c r="F44" t="s">
         <v>112</v>
@@ -5123,10 +5239,10 @@
         <v>2021</v>
       </c>
       <c r="I44">
-        <v>1.003640532493591</v>
+        <v>1.0036405324935911</v>
       </c>
       <c r="J44">
-        <v>0.3640532493591309</v>
+        <v>0.36405324935913091</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -5135,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>27</v>
       </c>
@@ -5149,7 +5265,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>329.0356140136719</v>
+        <v>329.03561401367188</v>
       </c>
       <c r="F45" t="s">
         <v>113</v>
@@ -5164,7 +5280,7 @@
         <v>1.004615902900696</v>
       </c>
       <c r="J45">
-        <v>0.4615902900695801</v>
+        <v>0.46159029006958008</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -5173,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>31</v>
       </c>
@@ -5187,7 +5303,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>330.5544128417969</v>
+        <v>330.55441284179688</v>
       </c>
       <c r="F46" t="s">
         <v>114</v>
@@ -5199,10 +5315,10 @@
         <v>2021</v>
       </c>
       <c r="I46">
-        <v>1.003719449043274</v>
+        <v>1.0037194490432739</v>
       </c>
       <c r="J46">
-        <v>0.3719449043273926</v>
+        <v>0.37194490432739258</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -5211,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>35</v>
       </c>
@@ -5225,7 +5341,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>331.7839050292969</v>
+        <v>331.78390502929688</v>
       </c>
       <c r="F47" t="s">
         <v>115</v>
@@ -5243,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -5272,7 +5388,7 @@
         <v>1.006600022315979</v>
       </c>
       <c r="J48">
-        <v>0.6600022315979004</v>
+        <v>0.66000223159790039</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -5281,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -5307,7 +5423,7 @@
         <v>2018</v>
       </c>
       <c r="I49">
-        <v>1.007799983024597</v>
+        <v>1.0077999830245969</v>
       </c>
       <c r="J49">
         <v>0.7799983024597168</v>
@@ -5319,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -5333,7 +5449,7 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>106.9987564086914</v>
+        <v>106.99875640869141</v>
       </c>
       <c r="F50" t="s">
         <v>117</v>
@@ -5357,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -5386,7 +5502,7 @@
         <v>1.007099986076355</v>
       </c>
       <c r="J51">
-        <v>0.7099986076354979</v>
+        <v>0.70999860763549794</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5395,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -5421,10 +5537,10 @@
         <v>2019</v>
       </c>
       <c r="I52">
-        <v>1.006099939346314</v>
+        <v>1.0060999393463139</v>
       </c>
       <c r="J52">
-        <v>0.6099939346313477</v>
+        <v>0.60999393463134766</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5433,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -5447,7 +5563,7 @@
         <v>4</v>
       </c>
       <c r="E53">
-        <v>109.0879516601562</v>
+        <v>109.08795166015619</v>
       </c>
       <c r="F53" t="s">
         <v>108</v>
@@ -5462,7 +5578,7 @@
         <v>1.006600022315979</v>
       </c>
       <c r="J53">
-        <v>0.6600022315979004</v>
+        <v>0.66000223159790039</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5471,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -5497,10 +5613,10 @@
         <v>2019</v>
       </c>
       <c r="I54">
-        <v>1.006500005722046</v>
+        <v>1.0065000057220459</v>
       </c>
       <c r="J54">
-        <v>0.6500005722045898</v>
+        <v>0.65000057220458984</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5509,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>7</v>
       </c>
@@ -5535,10 +5651,10 @@
         <v>2019</v>
       </c>
       <c r="I55">
-        <v>1.007700085639954</v>
+        <v>1.0077000856399541</v>
       </c>
       <c r="J55">
-        <v>0.7700085639953613</v>
+        <v>0.77000856399536133</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5547,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>8</v>
       </c>
@@ -5561,7 +5677,7 @@
         <v>4</v>
       </c>
       <c r="E56">
-        <v>111.3727035522461</v>
+        <v>111.37270355224609</v>
       </c>
       <c r="F56" t="s">
         <v>111</v>
@@ -5573,10 +5689,10 @@
         <v>2019</v>
       </c>
       <c r="I56">
-        <v>1.005399942398071</v>
+        <v>1.0053999423980711</v>
       </c>
       <c r="J56">
-        <v>0.5399942398071289</v>
+        <v>0.53999423980712891</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5585,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>9</v>
       </c>
@@ -5611,10 +5727,10 @@
         <v>2019</v>
       </c>
       <c r="I57">
-        <v>1.00629997253418</v>
+        <v>1.0062999725341799</v>
       </c>
       <c r="J57">
-        <v>0.6299972534179688</v>
+        <v>0.62999725341796875</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -5623,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>10</v>
       </c>
@@ -5637,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="E58">
-        <v>112.6795501708984</v>
+        <v>112.67955017089839</v>
       </c>
       <c r="F58" t="s">
         <v>113</v>
@@ -5661,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -5675,7 +5791,7 @@
         <v>4</v>
       </c>
       <c r="E59">
-        <v>113.4006958007812</v>
+        <v>113.40069580078119</v>
       </c>
       <c r="F59" t="s">
         <v>114</v>
@@ -5687,10 +5803,10 @@
         <v>2019</v>
       </c>
       <c r="I59">
-        <v>1.005400061607361</v>
+        <v>1.0054000616073611</v>
       </c>
       <c r="J59">
-        <v>0.540006160736084</v>
+        <v>0.54000616073608398</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5699,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>12</v>
       </c>
@@ -5728,7 +5844,7 @@
         <v>1.007300019264221</v>
       </c>
       <c r="J60">
-        <v>0.7300019264221191</v>
+        <v>0.73000192642211914</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5737,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>13</v>
       </c>
@@ -5751,7 +5867,7 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <v>114.8453598022461</v>
+        <v>114.84535980224609</v>
       </c>
       <c r="F61" t="s">
         <v>116</v>
@@ -5763,10 +5879,10 @@
         <v>2019</v>
       </c>
       <c r="I61">
-        <v>1.00629997253418</v>
+        <v>1.0062999725341799</v>
       </c>
       <c r="J61">
-        <v>0.6299972534179688</v>
+        <v>0.62999725341796875</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -5775,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>14</v>
       </c>
@@ -5801,10 +5917,10 @@
         <v>2019</v>
       </c>
       <c r="I62">
-        <v>1.00629997253418</v>
+        <v>1.0062999725341799</v>
       </c>
       <c r="J62">
-        <v>0.6299972534179688</v>
+        <v>0.62999725341796875</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -5813,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>15</v>
       </c>
@@ -5839,10 +5955,10 @@
         <v>2019</v>
       </c>
       <c r="I63">
-        <v>1.006700038909912</v>
+        <v>1.0067000389099121</v>
       </c>
       <c r="J63">
-        <v>0.6700038909912109</v>
+        <v>0.67000389099121094</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -5851,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>16</v>
       </c>
@@ -5865,7 +5981,7 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <v>117.0761566162109</v>
+        <v>117.07615661621089</v>
       </c>
       <c r="F64" t="s">
         <v>107</v>
@@ -5880,7 +5996,7 @@
         <v>1.006600022315979</v>
       </c>
       <c r="J64">
-        <v>0.6600022315979004</v>
+        <v>0.66000223159790039</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -5889,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>17</v>
       </c>
@@ -5903,7 +6019,7 @@
         <v>4</v>
       </c>
       <c r="E65">
-        <v>117.8488616943359</v>
+        <v>117.84886169433589</v>
       </c>
       <c r="F65" t="s">
         <v>108</v>
@@ -5918,7 +6034,7 @@
         <v>1.006600022315979</v>
       </c>
       <c r="J65">
-        <v>0.6600022315979004</v>
+        <v>0.66000223159790039</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -5927,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>18</v>
       </c>
@@ -5956,7 +6072,7 @@
         <v>1.026999950408936</v>
       </c>
       <c r="J66">
-        <v>2.699995040893555</v>
+        <v>2.6999950408935551</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -5965,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>19</v>
       </c>
@@ -5994,7 +6110,7 @@
         <v>1.012099981307983</v>
       </c>
       <c r="J67">
-        <v>1.20999813079834</v>
+        <v>1.2099981307983401</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6003,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>20</v>
       </c>
@@ -6032,7 +6148,7 @@
         <v>1.021600008010864</v>
       </c>
       <c r="J68">
-        <v>2.160000801086426</v>
+        <v>2.1600008010864258</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6041,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>21</v>
       </c>
@@ -6067,10 +6183,10 @@
         <v>2020</v>
       </c>
       <c r="I69">
-        <v>1.00789999961853</v>
+        <v>1.0078999996185301</v>
       </c>
       <c r="J69">
-        <v>0.7899999618530273</v>
+        <v>0.78999996185302734</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -6079,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>22</v>
       </c>
@@ -6093,7 +6209,7 @@
         <v>4</v>
       </c>
       <c r="E70">
-        <v>126.9622192382812</v>
+        <v>126.96221923828119</v>
       </c>
       <c r="F70" t="s">
         <v>113</v>
@@ -6105,7 +6221,7 @@
         <v>2020</v>
       </c>
       <c r="I70">
-        <v>1.013800024986267</v>
+        <v>1.0138000249862671</v>
       </c>
       <c r="J70">
         <v>1.380002498626709</v>
@@ -6117,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>23</v>
       </c>
@@ -6131,7 +6247,7 @@
         <v>4</v>
       </c>
       <c r="E71">
-        <v>128.7142944335938</v>
+        <v>128.71429443359381</v>
       </c>
       <c r="F71" t="s">
         <v>114</v>
@@ -6143,10 +6259,10 @@
         <v>2020</v>
       </c>
       <c r="I71">
-        <v>1.006200075149536</v>
+        <v>1.0062000751495359</v>
       </c>
       <c r="J71">
-        <v>0.6200075149536133</v>
+        <v>0.62000751495361328</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -6155,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>24</v>
       </c>
@@ -6181,10 +6297,10 @@
         <v>2020</v>
       </c>
       <c r="I72">
-        <v>1.006700038909912</v>
+        <v>1.0067000389099121</v>
       </c>
       <c r="J72">
-        <v>0.6700038909912109</v>
+        <v>0.67000389099121094</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -6193,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>25</v>
       </c>
@@ -6207,7 +6323,7 @@
         <v>4</v>
       </c>
       <c r="E73">
-        <v>130.3800659179688</v>
+        <v>130.38006591796881</v>
       </c>
       <c r="F73" t="s">
         <v>116</v>
@@ -6219,10 +6335,10 @@
         <v>2020</v>
       </c>
       <c r="I73">
-        <v>1.00789999961853</v>
+        <v>1.0078999996185301</v>
       </c>
       <c r="J73">
-        <v>0.7899999618530273</v>
+        <v>0.78999996185302734</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -6231,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>26</v>
       </c>
@@ -6257,10 +6373,10 @@
         <v>2020</v>
       </c>
       <c r="I74">
-        <v>1.00789999961853</v>
+        <v>1.0078999996185301</v>
       </c>
       <c r="J74">
-        <v>0.7899999618530273</v>
+        <v>0.78999996185302734</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -6269,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>27</v>
       </c>
@@ -6283,7 +6399,7 @@
         <v>4</v>
       </c>
       <c r="E75">
-        <v>132.4481964111328</v>
+        <v>132.44819641113281</v>
       </c>
       <c r="F75" t="s">
         <v>106</v>
@@ -6295,10 +6411,10 @@
         <v>2020</v>
       </c>
       <c r="I75">
-        <v>1.008299946784973</v>
+        <v>1.0082999467849729</v>
       </c>
       <c r="J75">
-        <v>0.8299946784973145</v>
+        <v>0.82999467849731445</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -6307,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>28</v>
       </c>
@@ -6336,7 +6452,7 @@
         <v>1.007600069046021</v>
       </c>
       <c r="J76">
-        <v>0.7600069046020508</v>
+        <v>0.76000690460205078</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -6345,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>29</v>
       </c>
@@ -6359,7 +6475,7 @@
         <v>4</v>
       </c>
       <c r="E77">
-        <v>134.5624847412109</v>
+        <v>134.56248474121091</v>
       </c>
       <c r="F77" t="s">
         <v>108</v>
@@ -6374,7 +6490,7 @@
         <v>1.005699992179871</v>
       </c>
       <c r="J77">
-        <v>0.5699992179870605</v>
+        <v>0.56999921798706055</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -6383,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>30</v>
       </c>
@@ -6397,7 +6513,7 @@
         <v>4</v>
       </c>
       <c r="E78">
-        <v>135.3294830322266</v>
+        <v>135.32948303222659</v>
       </c>
       <c r="F78" t="s">
         <v>109</v>
@@ -6409,10 +6525,10 @@
         <v>2021</v>
       </c>
       <c r="I78">
-        <v>1.005600094795227</v>
+        <v>1.0056000947952271</v>
       </c>
       <c r="J78">
-        <v>0.5600094795227051</v>
+        <v>0.56000947952270508</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -6421,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>31</v>
       </c>
@@ -6435,7 +6551,7 @@
         <v>4</v>
       </c>
       <c r="E79">
-        <v>136.0873413085938</v>
+        <v>136.08734130859381</v>
       </c>
       <c r="F79" t="s">
         <v>110</v>
@@ -6447,7 +6563,7 @@
         <v>2021</v>
       </c>
       <c r="I79">
-        <v>1.005599975585938</v>
+        <v>1.0055999755859379</v>
       </c>
       <c r="J79">
         <v>0.55999755859375</v>
@@ -6459,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>32</v>
       </c>
@@ -6473,7 +6589,7 @@
         <v>4</v>
       </c>
       <c r="E80">
-        <v>136.8494262695312</v>
+        <v>136.84942626953119</v>
       </c>
       <c r="F80" t="s">
         <v>111</v>
@@ -6485,10 +6601,10 @@
         <v>2021</v>
       </c>
       <c r="I80">
-        <v>1.006500005722046</v>
+        <v>1.0065000057220459</v>
       </c>
       <c r="J80">
-        <v>0.6500005722045898</v>
+        <v>0.65000057220458984</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -6497,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>33</v>
       </c>
@@ -6511,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="E81">
-        <v>137.7389526367188</v>
+        <v>137.73895263671881</v>
       </c>
       <c r="F81" t="s">
         <v>112</v>
@@ -6529,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>34</v>
       </c>
@@ -6567,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>35</v>
       </c>
@@ -6593,10 +6709,10 @@
         <v>2018</v>
       </c>
       <c r="I83">
-        <v>1.006092667579651</v>
+        <v>1.0060926675796511</v>
       </c>
       <c r="J83">
-        <v>0.6092667579650879</v>
+        <v>0.60926675796508789</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -6605,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>36</v>
       </c>
@@ -6619,7 +6735,7 @@
         <v>5</v>
       </c>
       <c r="E84">
-        <v>100.7300033569336</v>
+        <v>100.73000335693359</v>
       </c>
       <c r="F84" t="s">
         <v>117</v>
@@ -6634,7 +6750,7 @@
         <v>1.00555944442749</v>
       </c>
       <c r="J84">
-        <v>0.5559444427490234</v>
+        <v>0.55594444274902344</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -6643,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>37</v>
       </c>
@@ -6672,7 +6788,7 @@
         <v>1.00533127784729</v>
       </c>
       <c r="J85">
-        <v>0.5331277847290039</v>
+        <v>0.53312778472900391</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -6681,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>38</v>
       </c>
@@ -6710,7 +6826,7 @@
         <v>1.005008339881897</v>
       </c>
       <c r="J86">
-        <v>0.5008339881896973</v>
+        <v>0.50083398818969727</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -6719,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>39</v>
       </c>
@@ -6745,10 +6861,10 @@
         <v>2019</v>
       </c>
       <c r="I87">
-        <v>1.005960583686829</v>
+        <v>1.0059605836868291</v>
       </c>
       <c r="J87">
-        <v>0.5960583686828613</v>
+        <v>0.59605836868286133</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -6757,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>40</v>
       </c>
@@ -6795,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41</v>
       </c>
@@ -6809,7 +6925,7 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <v>103.4400024414062</v>
+        <v>103.44000244140619</v>
       </c>
       <c r="F89" t="s">
         <v>110</v>
@@ -6821,7 +6937,7 @@
         <v>2019</v>
       </c>
       <c r="I89">
-        <v>1.01865816116333</v>
+        <v>1.0186581611633301</v>
       </c>
       <c r="J89">
         <v>1.865816116333008</v>
@@ -6833,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42</v>
       </c>
@@ -6859,10 +6975,10 @@
         <v>2019</v>
       </c>
       <c r="I90">
-        <v>1.007402420043945</v>
+        <v>1.0074024200439451</v>
       </c>
       <c r="J90">
-        <v>0.7402420043945312</v>
+        <v>0.74024200439453125</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -6871,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43</v>
       </c>
@@ -6885,7 +7001,7 @@
         <v>5</v>
       </c>
       <c r="E91">
-        <v>106.1500015258789</v>
+        <v>106.15000152587891</v>
       </c>
       <c r="F91" t="s">
         <v>112</v>
@@ -6909,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44</v>
       </c>
@@ -6938,7 +7054,7 @@
         <v>1.006856322288513</v>
       </c>
       <c r="J92">
-        <v>0.6856322288513184</v>
+        <v>0.68563222885131836</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -6947,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45</v>
       </c>
@@ -6973,10 +7089,10 @@
         <v>2019</v>
       </c>
       <c r="I93">
-        <v>1.008466005325317</v>
+        <v>1.0084660053253169</v>
       </c>
       <c r="J93">
-        <v>0.8466005325317383</v>
+        <v>0.84660053253173828</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -6985,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>46</v>
       </c>
@@ -7011,10 +7127,10 @@
         <v>2019</v>
       </c>
       <c r="I94">
-        <v>1.005383729934692</v>
+        <v>1.0053837299346919</v>
       </c>
       <c r="J94">
-        <v>0.5383729934692383</v>
+        <v>0.53837299346923828</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -7023,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>47</v>
       </c>
@@ -7061,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>48</v>
       </c>
@@ -7090,7 +7206,7 @@
         <v>1.005300045013428</v>
       </c>
       <c r="J96">
-        <v>0.5300045013427734</v>
+        <v>0.53000450134277344</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7099,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>49</v>
       </c>
@@ -7125,10 +7241,10 @@
         <v>2019</v>
       </c>
       <c r="I97">
-        <v>1.005361437797546</v>
+        <v>1.0053614377975459</v>
       </c>
       <c r="J97">
-        <v>0.5361437797546387</v>
+        <v>0.53614377975463867</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -7137,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>50</v>
       </c>
@@ -7166,7 +7282,7 @@
         <v>1.010132431983948</v>
       </c>
       <c r="J98">
-        <v>1.013243198394775</v>
+        <v>1.0132431983947749</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -7175,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>51</v>
       </c>
@@ -7189,7 +7305,7 @@
         <v>5</v>
       </c>
       <c r="E99">
-        <v>113.6500015258789</v>
+        <v>113.65000152587891</v>
       </c>
       <c r="F99" t="s">
         <v>108</v>
@@ -7201,10 +7317,10 @@
         <v>2020</v>
       </c>
       <c r="I99">
-        <v>0.9460624456405641</v>
+        <v>0.94606244564056408</v>
       </c>
       <c r="J99">
-        <v>-5.393755435943604</v>
+        <v>-5.3937554359436044</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -7213,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>52</v>
       </c>
@@ -7227,7 +7343,7 @@
         <v>5</v>
       </c>
       <c r="E100">
-        <v>107.5199966430664</v>
+        <v>107.51999664306641</v>
       </c>
       <c r="F100" t="s">
         <v>109</v>
@@ -7242,7 +7358,7 @@
         <v>1.001302123069763</v>
       </c>
       <c r="J100">
-        <v>0.1302123069763184</v>
+        <v>0.13021230697631839</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -7251,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>53</v>
       </c>
@@ -7277,10 +7393,10 @@
         <v>2020</v>
       </c>
       <c r="I101">
-        <v>1.012632250785828</v>
+        <v>1.0126322507858281</v>
       </c>
       <c r="J101">
-        <v>1.263225078582764</v>
+        <v>1.2632250785827639</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -7289,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>54</v>
       </c>
@@ -7303,7 +7419,7 @@
         <v>5</v>
       </c>
       <c r="E102">
-        <v>109.0199966430664</v>
+        <v>109.01999664306641</v>
       </c>
       <c r="F102" t="s">
         <v>111</v>
@@ -7315,10 +7431,10 @@
         <v>2020</v>
       </c>
       <c r="I102">
-        <v>1.026508927345276</v>
+        <v>1.0265089273452761</v>
       </c>
       <c r="J102">
-        <v>2.650892734527588</v>
+        <v>2.6508927345275879</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -7327,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>55</v>
       </c>
@@ -7353,10 +7469,10 @@
         <v>2020</v>
       </c>
       <c r="I103">
-        <v>1.01501202583313</v>
+        <v>1.0150120258331301</v>
       </c>
       <c r="J103">
-        <v>1.501202583312989</v>
+        <v>1.5012025833129889</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -7365,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>56</v>
       </c>
@@ -7394,7 +7510,7 @@
         <v>1.014261841773987</v>
       </c>
       <c r="J104">
-        <v>1.426184177398682</v>
+        <v>1.4261841773986821</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -7403,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>57</v>
       </c>
@@ -7429,10 +7545,10 @@
         <v>2020</v>
       </c>
       <c r="I105">
-        <v>1.01102340221405</v>
+        <v>1.0110234022140501</v>
       </c>
       <c r="J105">
-        <v>1.102340221405029</v>
+        <v>1.1023402214050291</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -7441,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>58</v>
       </c>
@@ -7455,7 +7571,7 @@
         <v>5</v>
       </c>
       <c r="E106">
-        <v>116.4800033569336</v>
+        <v>116.48000335693359</v>
       </c>
       <c r="F106" t="s">
         <v>115</v>
@@ -7479,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>59</v>
       </c>
@@ -7505,7 +7621,7 @@
         <v>2020</v>
       </c>
       <c r="I107">
-        <v>1.014539241790772</v>
+        <v>1.0145392417907719</v>
       </c>
       <c r="J107">
         <v>1.453924179077148</v>
@@ -7517,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>60</v>
       </c>
@@ -7531,7 +7647,7 @@
         <v>5</v>
       </c>
       <c r="E108">
-        <v>120.0199966430664</v>
+        <v>120.01999664306641</v>
       </c>
       <c r="F108" t="s">
         <v>117</v>
@@ -7546,7 +7662,7 @@
         <v>1.046159029006958</v>
       </c>
       <c r="J108">
-        <v>4.615902900695801</v>
+        <v>4.6159029006958008</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -7555,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>61</v>
       </c>
@@ -7569,7 +7685,7 @@
         <v>5</v>
       </c>
       <c r="E109">
-        <v>125.5599975585938</v>
+        <v>125.55999755859381</v>
       </c>
       <c r="F109" t="s">
         <v>106</v>
@@ -7581,10 +7697,10 @@
         <v>2020</v>
       </c>
       <c r="I109">
-        <v>1.036556243896484</v>
+        <v>1.0365562438964839</v>
       </c>
       <c r="J109">
-        <v>3.655624389648438</v>
+        <v>3.6556243896484379</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -7593,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>62</v>
       </c>
@@ -7619,10 +7735,10 @@
         <v>2021</v>
       </c>
       <c r="I110">
-        <v>1.025970101356506</v>
+        <v>1.0259701013565059</v>
       </c>
       <c r="J110">
-        <v>2.597010135650635</v>
+        <v>2.5970101356506352</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -7631,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>63</v>
       </c>
@@ -7657,10 +7773,10 @@
         <v>2021</v>
       </c>
       <c r="I111">
-        <v>1.087545871734619</v>
+        <v>1.0875458717346189</v>
       </c>
       <c r="J111">
-        <v>8.754587173461914</v>
+        <v>8.7545871734619141</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -7669,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>64</v>
       </c>
@@ -7695,10 +7811,10 @@
         <v>2021</v>
       </c>
       <c r="I112">
-        <v>1.000688672065735</v>
+        <v>1.0006886720657351</v>
       </c>
       <c r="J112">
-        <v>0.06886720657348633</v>
+        <v>6.8867206573486328E-2</v>
       </c>
       <c r="K112">
         <v>1</v>
@@ -7707,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>65</v>
       </c>
@@ -7721,7 +7837,7 @@
         <v>5</v>
       </c>
       <c r="E113">
-        <v>145.3200073242188</v>
+        <v>145.32000732421881</v>
       </c>
       <c r="F113" t="s">
         <v>110</v>
@@ -7736,7 +7852,7 @@
         <v>1.020628929138184</v>
       </c>
       <c r="J113">
-        <v>2.06289291381836</v>
+        <v>2.0628929138183598</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -7745,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>66</v>
       </c>
@@ -7759,7 +7875,7 @@
         <v>5</v>
       </c>
       <c r="E114">
-        <v>148.3178100585938</v>
+        <v>148.31781005859381</v>
       </c>
       <c r="F114" t="s">
         <v>111</v>
@@ -7771,7 +7887,7 @@
         <v>2021</v>
       </c>
       <c r="I114">
-        <v>1.020629048347473</v>
+        <v>1.0206290483474729</v>
       </c>
       <c r="J114">
         <v>2.062904834747314</v>
@@ -7783,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>67</v>
       </c>
@@ -7797,7 +7913,7 @@
         <v>5</v>
       </c>
       <c r="E115">
-        <v>151.3774566650391</v>
+        <v>151.37745666503909</v>
       </c>
       <c r="F115" t="s">
         <v>112</v>
@@ -7813,6 +7929,547 @@
       </c>
       <c r="L115">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.86</v>
+      </c>
+      <c r="E5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F5">
+        <v>1.92</v>
+      </c>
+      <c r="G5">
+        <v>3.11</v>
+      </c>
+      <c r="H5">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0.78</v>
+      </c>
+      <c r="F6">
+        <v>0.77</v>
+      </c>
+      <c r="G6">
+        <v>2.7</v>
+      </c>
+      <c r="H6">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0.61</v>
+      </c>
+      <c r="F7">
+        <v>1.87</v>
+      </c>
+      <c r="G7">
+        <v>4.62</v>
+      </c>
+      <c r="H7">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.86</v>
+      </c>
+      <c r="E8">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.05</v>
+      </c>
+      <c r="G8">
+        <v>-6.99</v>
+      </c>
+      <c r="H8">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0.62</v>
+      </c>
+      <c r="F9">
+        <v>0.54</v>
+      </c>
+      <c r="G9">
+        <v>0.62</v>
+      </c>
+      <c r="H9">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0.12</v>
+      </c>
+      <c r="F10">
+        <v>0.48</v>
+      </c>
+      <c r="G10">
+        <v>-5.39</v>
+      </c>
+      <c r="H10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0.86</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
+        <v>0.81</v>
+      </c>
+      <c r="G11">
+        <v>0.41</v>
+      </c>
+      <c r="H11">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0.69</v>
+      </c>
+      <c r="F12">
+        <v>0.64</v>
+      </c>
+      <c r="G12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0.45</v>
+      </c>
+      <c r="F13">
+        <v>0.84</v>
+      </c>
+      <c r="G13">
+        <v>1.25</v>
+      </c>
+      <c r="H13">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3.41</v>
+      </c>
+      <c r="F14">
+        <v>2.09</v>
+      </c>
+      <c r="G14">
+        <v>9.09</v>
+      </c>
+      <c r="H14">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0.24</v>
+      </c>
+      <c r="F15">
+        <v>0.23</v>
+      </c>
+      <c r="G15">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0.78</v>
+      </c>
+      <c r="F16">
+        <v>1.62</v>
+      </c>
+      <c r="G16">
+        <v>8.41</v>
+      </c>
+      <c r="H16">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1.01</v>
+      </c>
+      <c r="E17">
+        <v>1.02</v>
+      </c>
+      <c r="F17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G17">
+        <v>1.05</v>
+      </c>
+      <c r="H17">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>1.03</v>
+      </c>
+      <c r="F18">
+        <v>1.08</v>
+      </c>
+      <c r="G18">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1.02</v>
+      </c>
+      <c r="F19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G19">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>10.81</v>
+      </c>
+      <c r="E20">
+        <v>2.35</v>
+      </c>
+      <c r="F20">
+        <v>10.08</v>
+      </c>
+      <c r="G20">
+        <v>4.62</v>
+      </c>
+      <c r="H20">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="F21">
+        <v>7.98</v>
+      </c>
+      <c r="G21">
+        <v>14.07</v>
+      </c>
+      <c r="H21">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5.59</v>
+      </c>
+      <c r="F22">
+        <v>10.49</v>
+      </c>
+      <c r="G22">
+        <v>15.68</v>
+      </c>
+      <c r="H22">
+        <v>43.71</v>
       </c>
     </row>
   </sheetData>
@@ -7821,8 +8478,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006522679F146DFF498D699F828D56000C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafef3a4b21104a4f88b1575ea132e6d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2906f1-4e2b-432c-9c12-773b8d680c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a3c71ec86999a8ee9371076eaf4925b" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006522679F146DFF498D699F828D56000C" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="59b1383659f2165d583401089bbb2cdd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2906f1-4e2b-432c-9c12-773b8d680c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d76bf99ca48259c387bedcb1bc0ef443" ns2:_="">
     <xsd:import namespace="ee2906f1-4e2b-432c-9c12-773b8d680c96"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -7908,8 +8580,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -7998,29 +8670,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC24A8F6-A27F-4822-A9E3-A03B45DEB73B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51F72C7B-BDA4-4AE7-B87C-BEF640FBA761}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5D18EFD-76C1-471C-806E-3057D7AA08D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB10A5E-C782-4CA1-B326-AD04BF4BC7F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1AD65E-F3B3-45C5-9FF1-5032F238063B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{428A1131-B549-4EE4-82C8-BF9D77548079}"/>
 </file>
--- a/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book.xlsx
+++ b/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="121">
   <si>
     <t>data</t>
   </si>
@@ -154,148 +154,160 @@
     <t>Retorno</t>
   </si>
   <si>
+    <t>Retorno_Positivo</t>
+  </si>
+  <si>
+    <t>Retorno_Negativo</t>
+  </si>
+  <si>
+    <t>09-2018</t>
+  </si>
+  <si>
+    <t>10-2018</t>
+  </si>
+  <si>
+    <t>11-2018</t>
+  </si>
+  <si>
+    <t>12-2018</t>
+  </si>
+  <si>
+    <t>01-2019</t>
+  </si>
+  <si>
+    <t>02-2019</t>
+  </si>
+  <si>
+    <t>03-2019</t>
+  </si>
+  <si>
+    <t>04-2019</t>
+  </si>
+  <si>
+    <t>05-2019</t>
+  </si>
+  <si>
+    <t>06-2019</t>
+  </si>
+  <si>
+    <t>07-2019</t>
+  </si>
+  <si>
+    <t>08-2019</t>
+  </si>
+  <si>
+    <t>09-2019</t>
+  </si>
+  <si>
+    <t>10-2019</t>
+  </si>
+  <si>
+    <t>11-2019</t>
+  </si>
+  <si>
+    <t>12-2019</t>
+  </si>
+  <si>
+    <t>01-2020</t>
+  </si>
+  <si>
+    <t>02-2020</t>
+  </si>
+  <si>
+    <t>03-2020</t>
+  </si>
+  <si>
+    <t>04-2020</t>
+  </si>
+  <si>
+    <t>05-2020</t>
+  </si>
+  <si>
+    <t>06-2020</t>
+  </si>
+  <si>
+    <t>07-2020</t>
+  </si>
+  <si>
+    <t>08-2020</t>
+  </si>
+  <si>
+    <t>09-2020</t>
+  </si>
+  <si>
+    <t>10-2020</t>
+  </si>
+  <si>
+    <t>11-2020</t>
+  </si>
+  <si>
+    <t>12-2020</t>
+  </si>
+  <si>
+    <t>01-2021</t>
+  </si>
+  <si>
+    <t>02-2021</t>
+  </si>
+  <si>
+    <t>03-2021</t>
+  </si>
+  <si>
+    <t>04-2021</t>
+  </si>
+  <si>
+    <t>05-2021</t>
+  </si>
+  <si>
     <t>06-2021</t>
   </si>
   <si>
-    <t>05-2021</t>
-  </si>
-  <si>
-    <t>04-2021</t>
-  </si>
-  <si>
-    <t>03-2021</t>
-  </si>
-  <si>
-    <t>02-2021</t>
-  </si>
-  <si>
-    <t>01-2021</t>
-  </si>
-  <si>
-    <t>12-2020</t>
-  </si>
-  <si>
-    <t>11-2020</t>
-  </si>
-  <si>
-    <t>10-2020</t>
-  </si>
-  <si>
-    <t>09-2020</t>
-  </si>
-  <si>
-    <t>08-2020</t>
-  </si>
-  <si>
-    <t>07-2020</t>
-  </si>
-  <si>
-    <t>06-2020</t>
-  </si>
-  <si>
-    <t>05-2020</t>
-  </si>
-  <si>
-    <t>04-2020</t>
-  </si>
-  <si>
-    <t>03-2020</t>
-  </si>
-  <si>
-    <t>02-2020</t>
-  </si>
-  <si>
-    <t>01-2020</t>
-  </si>
-  <si>
-    <t>12-2019</t>
-  </si>
-  <si>
-    <t>11-2019</t>
-  </si>
-  <si>
-    <t>10-2019</t>
-  </si>
-  <si>
-    <t>09-2019</t>
-  </si>
-  <si>
-    <t>08-2019</t>
-  </si>
-  <si>
-    <t>07-2019</t>
-  </si>
-  <si>
-    <t>06-2019</t>
-  </si>
-  <si>
-    <t>05-2019</t>
-  </si>
-  <si>
-    <t>04-2019</t>
-  </si>
-  <si>
-    <t>03-2019</t>
-  </si>
-  <si>
-    <t>02-2019</t>
-  </si>
-  <si>
-    <t>01-2019</t>
-  </si>
-  <si>
-    <t>12-2018</t>
-  </si>
-  <si>
-    <t>11-2018</t>
-  </si>
-  <si>
-    <t>10-2018</t>
-  </si>
-  <si>
-    <t>09-2018</t>
-  </si>
-  <si>
     <t>2021-06-30</t>
   </si>
   <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
     <t>Jun</t>
   </si>
   <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Sep</t>
+    <t>Jul</t>
   </si>
   <si>
     <t>Aug</t>
   </si>
   <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Riverview ALF dif</t>
+    <t>Retorno YDT</t>
+  </si>
+  <si>
+    <t>Retorno IDT</t>
+  </si>
+  <si>
+    <t>Retorno [0,1]</t>
   </si>
   <si>
     <t>Pagaya Opportunity Fund_spread</t>
@@ -304,6 +316,51 @@
     <t>Riverview ALF_spread</t>
   </si>
   <si>
+    <t>Pontos</t>
+  </si>
+  <si>
+    <t>Retorno Mensal Máximo</t>
+  </si>
+  <si>
+    <t>Retorno Mensal Minimo</t>
+  </si>
+  <si>
+    <t>Média dos Retornos Mensais</t>
+  </si>
+  <si>
+    <t>Volatilidade Anualizada</t>
+  </si>
+  <si>
+    <t>Pontos Negativos</t>
+  </si>
+  <si>
+    <t>Pontos Positivos</t>
+  </si>
+  <si>
+    <t>Retorno Acumulado ITD</t>
+  </si>
+  <si>
+    <t>Retorno Anualizado</t>
+  </si>
+  <si>
+    <t>Sharpe</t>
+  </si>
+  <si>
+    <t>Maximo Drawdown</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Tracking Error</t>
+  </si>
+  <si>
+    <t>level_1</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
@@ -314,39 +371,6 @@
   </si>
   <si>
     <t>mean</t>
-  </si>
-  <si>
-    <t>Volatilidade Anualizada</t>
-  </si>
-  <si>
-    <t>Dias_Negativos</t>
-  </si>
-  <si>
-    <t>Dias_Positivos</t>
-  </si>
-  <si>
-    <t>Retorno Total</t>
-  </si>
-  <si>
-    <t>Retorno Anualizado</t>
-  </si>
-  <si>
-    <t>Sharpe</t>
-  </si>
-  <si>
-    <t>Maximo Drawdown</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Tracking Error</t>
-  </si>
-  <si>
-    <t>level_1</t>
   </si>
   <si>
     <t>vol_anualizada</t>
@@ -393,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="95">
+  <fills count="103">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +456,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE0F0E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF74BA74"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -504,6 +534,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF9696"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -522,12 +558,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF8AC48A"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -594,6 +624,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF2C962C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6E2C6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -612,6 +648,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF108810"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC8E3C8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -666,6 +708,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF62B062"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD4EAD4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -768,6 +816,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF309830"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFAAAA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -804,6 +858,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF5C5C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8ECD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE6F2E6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -859,6 +925,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84C284"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1028,7 +1100,7 @@
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1081,9 +1153,17 @@
     <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,8 +1183,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>599218</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>322993</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>189643</xdr:rowOff>
     </xdr:to>
@@ -1142,7 +1222,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>732739</xdr:colOff>
+      <xdr:colOff>1504264</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>37643</xdr:rowOff>
     </xdr:to>
@@ -1161,7 +1241,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9305925" y="8953500"/>
+          <a:off x="9410700" y="8953500"/>
           <a:ext cx="5485714" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1180,9 +1260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>732739</xdr:colOff>
+      <xdr:colOff>1504961</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>37643</xdr:rowOff>
+      <xdr:rowOff>38107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1199,8 +1279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9305925" y="12763500"/>
-          <a:ext cx="5485714" cy="3657143"/>
+          <a:off x="9410700" y="12763500"/>
+          <a:ext cx="5486411" cy="3657607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1229,7 +1309,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="285750"/>
+          <a:off x="1143000" y="285750"/>
           <a:ext cx="2438400" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1293,8 +1373,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1305,8 +1385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="1428750"/>
-          <a:ext cx="2762250" cy="190500"/>
+          <a:off x="1143000" y="1428750"/>
+          <a:ext cx="1905000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1369,8 +1449,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1381,8 +1461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="1428750"/>
-          <a:ext cx="2762250" cy="190500"/>
+          <a:off x="1143000" y="1428750"/>
+          <a:ext cx="1905000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1445,8 +1525,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1457,8 +1537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="2952750"/>
-          <a:ext cx="2762250" cy="190500"/>
+          <a:off x="1143000" y="2952750"/>
+          <a:ext cx="1905000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1521,8 +1601,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1533,8 +1613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="4476750"/>
-          <a:ext cx="2762250" cy="190500"/>
+          <a:off x="1143000" y="4476750"/>
+          <a:ext cx="1905000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1597,8 +1677,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1609,8 +1689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="6000750"/>
-          <a:ext cx="2762250" cy="190500"/>
+          <a:off x="1143000" y="6000750"/>
+          <a:ext cx="1905000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1673,8 +1753,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1685,8 +1765,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="7524750"/>
-          <a:ext cx="2762250" cy="190500"/>
+          <a:off x="1143000" y="7524750"/>
+          <a:ext cx="1905000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2029,17 +2109,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A9:S47"/>
+  <dimension ref="A9:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="16" max="19" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="14" max="15" width="15.7109375" customWidth="1"/>
+    <col min="18" max="21" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,87 +2138,95 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="Q9" s="1" t="s">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="S9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="N10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q10">
-        <v>33</v>
-      </c>
-      <c r="R10">
-        <v>33</v>
+      <c r="R10" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="S10">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>33</v>
+      </c>
+      <c r="U10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q11">
-        <v>0.03</v>
-      </c>
-      <c r="R11">
-        <v>0.03</v>
+      <c r="R11" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="S11">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>3.11</v>
+      </c>
+      <c r="T11">
+        <v>2.7</v>
+      </c>
+      <c r="U11">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>2018</v>
       </c>
@@ -2177,142 +2266,160 @@
       <c r="M12" s="6">
         <v>0.0205</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="R12">
-        <v>0.01</v>
+      <c r="N12" s="7">
+        <v>0.0037</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.0037</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="S12">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>-6.99</v>
+      </c>
+      <c r="T12">
+        <v>0.54</v>
+      </c>
+      <c r="U12">
+        <v>-5.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>2019</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>0.0162</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>0.009599999999999999</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>0.0129</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="11">
         <v>0.0005</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="12">
         <v>0.0125</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="13">
         <v>0.0041</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="14">
         <v>0.0044</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="15">
         <v>0.0068</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="16">
         <v>0.0039</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="17">
         <v>0.0007</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="18">
         <v>0.0192</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="19">
         <v>0.006</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13">
-        <v>0.01</v>
-      </c>
-      <c r="R13">
-        <v>0.01</v>
+      <c r="N13" s="20">
+        <v>0.1008</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0.1049</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="S13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>0.53</v>
+      </c>
+      <c r="T13">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="U13">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>2020</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>0.0038</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="21">
         <v>-0.0123</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="22">
         <v>-0.0699</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="23">
         <v>0.0249</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>0.0311</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="24">
         <v>0.0136</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="25">
         <v>0.0075</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="26">
         <v>0.0023</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="27">
         <v>0.002</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="28">
         <v>0.0238</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="29">
         <v>0.0168</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="30">
         <v>0.0056</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14">
-        <v>0.06</v>
-      </c>
-      <c r="R14">
-        <v>0.02</v>
+      <c r="N14" s="20">
+        <v>0.0462</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0.1559</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="S14">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>5.79</v>
+      </c>
+      <c r="T14">
+        <v>1.58</v>
+      </c>
+      <c r="U14">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>2021</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="31">
         <v>0.0063</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="32">
         <v>-0.0046</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>0.0094</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="33">
         <v>0.0027</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="34">
         <v>0.0107</v>
       </c>
       <c r="G15" s="2">
@@ -2336,34 +2443,40 @@
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q15">
+      <c r="N15" s="35">
+        <v>0.0247</v>
+      </c>
+      <c r="O15" s="20">
+        <v>0.1845</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S15">
         <v>5</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="P16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q16">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="R16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S16">
         <v>28</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>33</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -2381,90 +2494,98 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="P17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S17">
         <v>18.45</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>30.59</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>51.38</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q18">
+      <c r="N18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S18">
         <v>6.35</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>10.19</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>16.27</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19">
-        <v>109.73</v>
-      </c>
-      <c r="R19">
-        <v>645.42</v>
+        <v>96</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="S19">
-        <v>230.63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>0.01</v>
+      </c>
+      <c r="T19">
+        <v>0.06</v>
+      </c>
+      <c r="U19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
@@ -2492,136 +2613,154 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="36">
         <v>0.0066</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="37">
         <v>0.0078</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="31">
         <v>0.0062</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="38">
         <v>0.0071</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20">
+      <c r="N20" s="39">
+        <v>0.028</v>
+      </c>
+      <c r="O20" s="39">
+        <v>0.028</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S20">
         <v>-8.140000000000001</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>-5.39</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="31">
         <v>0.0061</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="36">
         <v>0.0066</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="40">
         <v>0.0065</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="41">
         <v>0.0077</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="30">
         <v>0.0054</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="31">
         <v>0.0063</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="40">
         <v>0.0064</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="30">
         <v>0.0054</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="25">
         <v>0.0073</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="31">
         <v>0.0063</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="31">
         <v>0.0063</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="36">
         <v>0.0067</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="N21" s="20">
+        <v>0.0798</v>
+      </c>
+      <c r="O21" s="20">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="36">
         <v>0.0066</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="36">
         <v>0.0066</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="42">
         <v>0.027</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="43">
         <v>0.0121</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="44">
         <v>0.0216</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="37">
         <v>0.007900000000000001</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="24">
         <v>0.0138</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="31">
         <v>0.0062</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="36">
         <v>0.0067</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="37">
         <v>0.007900000000000001</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="37">
         <v>0.007900000000000001</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="45">
         <v>0.0083</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="N22" s="20">
+        <v>0.1407</v>
+      </c>
+      <c r="O22" s="20">
+        <v>0.2662</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>2021</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="41">
         <v>0.0076</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="46">
         <v>0.0057</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="30">
         <v>0.0056</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="30">
         <v>0.0056</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="40">
         <v>0.0065</v>
       </c>
       <c r="G23" s="2">
@@ -2645,33 +2784,39 @@
       <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q23">
+      <c r="N23" s="20">
+        <v>0.0314</v>
+      </c>
+      <c r="O23" s="20">
+        <v>0.3059</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S23">
         <v>-0.11</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>0.21</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="P24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q24">
-        <v>0.01</v>
-      </c>
-      <c r="R24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+    <row r="24" spans="1:21">
+      <c r="R24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S24">
+        <v>0.87</v>
+      </c>
+      <c r="T24">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2684,63 +2829,71 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="P25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q25">
-        <v>0.02</v>
-      </c>
-      <c r="R25">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S25">
+        <v>1.98</v>
+      </c>
+      <c r="T25">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="N26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>2018</v>
       </c>
@@ -2768,118 +2921,136 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="47">
         <v>0.0012</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="19">
         <v>0.0061</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="30">
         <v>0.0056</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="48">
         <v>0.0053</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="N28" s="49">
+        <v>0.0183</v>
+      </c>
+      <c r="O28" s="49">
+        <v>0.0183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>2019</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="50">
         <v>0.005</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="19">
         <v>0.006</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="51">
         <v>0.0048</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="52">
         <v>0.0187</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="25">
         <v>0.0074</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="29">
         <v>0.0168</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="15">
         <v>0.0069</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="53">
         <v>0.008500000000000001</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="48">
         <v>0.0054</v>
       </c>
-      <c r="K29" s="50">
+      <c r="K29" s="54">
         <v>0.0103</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="48">
         <v>0.0053</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="48">
         <v>0.0054</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="N29" s="20">
+        <v>0.1049</v>
+      </c>
+      <c r="O29" s="20">
+        <v>0.1251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>2020</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="55">
         <v>0.0101</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="22">
         <v>-0.0539</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="47">
         <v>0.0013</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <v>0.0126</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="56">
         <v>0.0265</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="57">
         <v>0.015</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="58">
         <v>0.0143</v>
       </c>
-      <c r="I30" s="55">
+      <c r="I30" s="59">
         <v>0.011</v>
       </c>
-      <c r="J30" s="56">
+      <c r="J30" s="60">
         <v>0.0156</v>
       </c>
-      <c r="K30" s="57">
+      <c r="K30" s="61">
         <v>0.0145</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="20">
         <v>0.0462</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="20">
         <v>0.0366</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="N30" s="20">
+        <v>0.1568</v>
+      </c>
+      <c r="O30" s="20">
+        <v>0.3015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>2021</v>
       </c>
-      <c r="B31" s="58">
+      <c r="B31" s="62">
         <v>0.026</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="20">
         <v>0.08749999999999999</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="17">
         <v>0.0007</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="63">
         <v>0.0206</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="63">
         <v>0.0206</v>
       </c>
       <c r="G31" s="2">
@@ -2903,13 +3074,19 @@
       <c r="M31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N31" s="20">
+        <v>0.1631</v>
+      </c>
+      <c r="O31" s="20">
+        <v>0.5138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2922,54 +3099,62 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>2018</v>
       </c>
@@ -2997,118 +3182,136 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="64">
         <v>0.0034</v>
       </c>
-      <c r="K36" s="61">
+      <c r="K36" s="65">
         <v>0.0193</v>
       </c>
-      <c r="L36" s="57">
+      <c r="L36" s="61">
         <v>0.0148</v>
       </c>
-      <c r="M36" s="62">
+      <c r="M36" s="66">
         <v>-0.0131</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="67">
+        <v>0.0242</v>
+      </c>
+      <c r="O36" s="67">
+        <v>0.0242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>2019</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="68">
         <v>-0.009900000000000001</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="69">
         <v>-0.003</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="70">
         <v>-0.0063</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="38">
         <v>0.0072</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="71">
         <v>-0.007</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="26">
         <v>0.0022</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="27">
         <v>0.002</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="72">
         <v>-0.0014</v>
       </c>
-      <c r="J37" s="60">
+      <c r="J37" s="64">
         <v>0.0034</v>
       </c>
-      <c r="K37" s="43">
+      <c r="K37" s="46">
         <v>0.0056</v>
       </c>
-      <c r="L37" s="68">
+      <c r="L37" s="73">
         <v>-0.0126</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="17">
         <v>0.0007</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="74">
+        <v>-0.0191</v>
+      </c>
+      <c r="O37" s="75">
+        <v>0.0046</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>2020</v>
       </c>
-      <c r="B38" s="69">
+      <c r="B38" s="76">
         <v>0.0028</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="18">
         <v>0.0191</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="20">
         <v>0.1042</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="73">
         <v>-0.0125</v>
       </c>
-      <c r="F38" s="70">
+      <c r="F38" s="77">
         <v>-0.0092</v>
       </c>
-      <c r="G38" s="71">
+      <c r="G38" s="78">
         <v>-0.0057</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="31">
         <v>0.0063</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="16">
         <v>0.0039</v>
       </c>
-      <c r="J38" s="47">
+      <c r="J38" s="51">
         <v>0.0047</v>
       </c>
-      <c r="K38" s="72">
+      <c r="K38" s="79">
         <v>-0.0155</v>
       </c>
-      <c r="L38" s="73">
+      <c r="L38" s="80">
         <v>-0.008800000000000001</v>
       </c>
-      <c r="M38" s="32">
+      <c r="M38" s="33">
         <v>0.0027</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="20">
+        <v>0.09030000000000001</v>
+      </c>
+      <c r="O38" s="20">
+        <v>0.0954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>2021</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="47">
         <v>0.0013</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="54">
         <v>0.0104</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="81">
         <v>-0.0038</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="76">
         <v>0.0029</v>
       </c>
-      <c r="F39" s="75">
+      <c r="F39" s="82">
         <v>-0.0042</v>
       </c>
       <c r="G39" s="2">
@@ -3132,13 +3335,19 @@
       <c r="M39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N39" s="40">
+        <v>0.0065</v>
+      </c>
+      <c r="O39" s="20">
+        <v>0.1025</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3151,54 +3360,62 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>2018</v>
       </c>
@@ -3226,118 +3443,136 @@
       <c r="I44" s="2">
         <v>0</v>
       </c>
-      <c r="J44" s="76">
+      <c r="J44" s="83">
         <v>-0.002</v>
       </c>
-      <c r="K44" s="77">
+      <c r="K44" s="84">
         <v>0.0175</v>
       </c>
-      <c r="L44" s="54">
+      <c r="L44" s="58">
         <v>0.0141</v>
       </c>
-      <c r="M44" s="78">
+      <c r="M44" s="85">
         <v>-0.0148</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="86">
+        <v>0.0145</v>
+      </c>
+      <c r="O44" s="86">
+        <v>0.0145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>2019</v>
       </c>
       <c r="B45" s="4">
         <v>-0.011</v>
       </c>
-      <c r="C45" s="79">
+      <c r="C45" s="87">
         <v>-0.0036</v>
       </c>
-      <c r="D45" s="80">
+      <c r="D45" s="88">
         <v>-0.008</v>
       </c>
-      <c r="E45" s="81">
+      <c r="E45" s="89">
         <v>0.0182</v>
       </c>
-      <c r="F45" s="82">
+      <c r="F45" s="90">
         <v>-0.005</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="12">
         <v>0.0126</v>
       </c>
-      <c r="H45" s="83">
+      <c r="H45" s="91">
         <v>0.0025</v>
       </c>
-      <c r="I45" s="84">
+      <c r="I45" s="92">
         <v>0.0016</v>
       </c>
-      <c r="J45" s="84">
+      <c r="J45" s="92">
         <v>0.0015</v>
       </c>
-      <c r="K45" s="85">
+      <c r="K45" s="93">
         <v>0.0097</v>
       </c>
-      <c r="L45" s="86">
+      <c r="L45" s="94">
         <v>-0.0136</v>
       </c>
-      <c r="M45" s="87">
+      <c r="M45" s="95">
         <v>-0.0007</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="7">
+        <v>0.0037</v>
+      </c>
+      <c r="O45" s="89">
+        <v>0.0183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>2020</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="40">
         <v>0.0064</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="22">
         <v>-0.0422</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="20">
         <v>0.0766</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="96">
         <v>-0.012</v>
       </c>
-      <c r="F46" s="89">
+      <c r="F46" s="97">
         <v>-0.0044</v>
       </c>
-      <c r="G46" s="44">
+      <c r="G46" s="47">
         <v>0.0014</v>
       </c>
-      <c r="H46" s="34">
+      <c r="H46" s="36">
         <v>0.0067</v>
       </c>
-      <c r="I46" s="90">
+      <c r="I46" s="98">
         <v>0.008699999999999999</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="24">
         <v>0.0136</v>
       </c>
-      <c r="K46" s="91">
+      <c r="K46" s="99">
         <v>-0.008999999999999999</v>
       </c>
-      <c r="L46" s="92">
+      <c r="L46" s="100">
         <v>0.0288</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="20">
         <v>0.0308</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="20">
+        <v>0.1057</v>
+      </c>
+      <c r="O46" s="20">
+        <v>0.1259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>2021</v>
       </c>
-      <c r="B47" s="93">
+      <c r="B47" s="101">
         <v>0.0196</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="20">
         <v>0.0926</v>
       </c>
-      <c r="D47" s="73">
+      <c r="D47" s="80">
         <v>-0.008699999999999999</v>
       </c>
-      <c r="E47" s="94">
+      <c r="E47" s="102">
         <v>0.0179</v>
       </c>
-      <c r="F47" s="85">
+      <c r="F47" s="93">
         <v>0.0098</v>
       </c>
       <c r="G47" s="2">
@@ -3360,15 +3595,21 @@
       </c>
       <c r="M47" s="2">
         <v>0</v>
+      </c>
+      <c r="N47" s="20">
+        <v>0.1351</v>
+      </c>
+      <c r="O47" s="20">
+        <v>0.278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B41:M41"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B41:O41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3417,13 +3658,13 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>1.003239</v>
+        <v>0.3238999999999947</v>
       </c>
       <c r="F2">
-        <v>1.0066</v>
+        <v>0.6599999999999966</v>
       </c>
       <c r="G2">
-        <v>1.0012001</v>
+        <v>0.1200099999999935</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3440,13 +3681,13 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>0.9887597</v>
+        <v>-1.124030000000005</v>
       </c>
       <c r="F3">
-        <v>1.0078</v>
+        <v>0.7800000000000011</v>
       </c>
       <c r="G3">
-        <v>1.0060927</v>
+        <v>0.6092699999999951</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3463,13 +3704,13 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0.9915699</v>
+        <v>-0.8430099999999925</v>
       </c>
       <c r="F4">
-        <v>1.0062</v>
+        <v>0.6200000000000045</v>
       </c>
       <c r="G4">
-        <v>1.0055594</v>
+        <v>0.5559400000000068</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3486,13 +3727,13 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>1.020459</v>
+        <v>2.045900000000003</v>
       </c>
       <c r="F5">
-        <v>1.0071</v>
+        <v>0.710000000000008</v>
       </c>
       <c r="G5">
-        <v>1.0053313</v>
+        <v>0.5331299999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3509,13 +3750,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1.0162036</v>
+        <v>1.620360000000005</v>
       </c>
       <c r="F6">
-        <v>1.0060999</v>
+        <v>0.6099899999999963</v>
       </c>
       <c r="G6">
-        <v>1.0050083</v>
+        <v>0.5008300000000077</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3532,13 +3773,13 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>1.009579</v>
+        <v>0.9578999999999951</v>
       </c>
       <c r="F7">
-        <v>1.0066</v>
+        <v>0.6599999999999966</v>
       </c>
       <c r="G7">
-        <v>1.0059606</v>
+        <v>0.5960600000000085</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3555,13 +3796,13 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>1.0128783</v>
+        <v>1.287829999999985</v>
       </c>
       <c r="F8">
-        <v>1.0065</v>
+        <v>0.6499999999999915</v>
       </c>
       <c r="G8">
-        <v>1.0047597</v>
+        <v>0.4759699999999896</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3578,13 +3819,13 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>1.0004631</v>
+        <v>0.04630999999999119</v>
       </c>
       <c r="F9">
-        <v>1.0077001</v>
+        <v>0.7700100000000134</v>
       </c>
       <c r="G9">
-        <v>1.0186582</v>
+        <v>1.865819999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3601,13 +3842,13 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>1.0124508</v>
+        <v>1.245080000000016</v>
       </c>
       <c r="F10">
-        <v>1.0054</v>
+        <v>0.5400000000000063</v>
       </c>
       <c r="G10">
-        <v>1.0074024</v>
+        <v>0.7402399999999858</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3624,13 +3865,13 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>1.0040866</v>
+        <v>0.4086599999999976</v>
       </c>
       <c r="F11">
-        <v>1.0063</v>
+        <v>0.6299999999999955</v>
       </c>
       <c r="G11">
-        <v>1.0167687</v>
+        <v>1.676870000000008</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3647,13 +3888,13 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>1.0043786</v>
+        <v>0.4378599999999864</v>
       </c>
       <c r="F12">
-        <v>1.0064</v>
+        <v>0.6400000000000006</v>
       </c>
       <c r="G12">
-        <v>1.0068563</v>
+        <v>0.6856299999999891</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3670,13 +3911,13 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>1.0068371</v>
+        <v>0.6837100000000049</v>
       </c>
       <c r="F13">
-        <v>1.0054001</v>
+        <v>0.5400099999999952</v>
       </c>
       <c r="G13">
-        <v>1.008466</v>
+        <v>0.8466000000000093</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3693,13 +3934,13 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>1.0038879</v>
+        <v>0.3887900000000002</v>
       </c>
       <c r="F14">
-        <v>1.0073</v>
+        <v>0.730000000000004</v>
       </c>
       <c r="G14">
-        <v>1.0053837</v>
+        <v>0.5383700000000147</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3716,13 +3957,13 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>1.000666</v>
+        <v>0.06660000000000821</v>
       </c>
       <c r="F15">
-        <v>1.0063</v>
+        <v>0.6299999999999955</v>
       </c>
       <c r="G15">
-        <v>1.0103467</v>
+        <v>1.034669999999991</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3739,13 +3980,13 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>1.0191689</v>
+        <v>1.916889999999995</v>
       </c>
       <c r="F16">
-        <v>1.0063</v>
+        <v>0.6299999999999955</v>
       </c>
       <c r="G16">
-        <v>1.0053</v>
+        <v>0.5300000000000011</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3762,13 +4003,13 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>1.0060233</v>
+        <v>0.6023300000000091</v>
       </c>
       <c r="F17">
-        <v>1.0067</v>
+        <v>0.6699999999999875</v>
       </c>
       <c r="G17">
-        <v>1.0053614</v>
+        <v>0.536139999999989</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3785,13 +4026,13 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1.0037581</v>
+        <v>0.3758100000000013</v>
       </c>
       <c r="F18">
-        <v>1.0066</v>
+        <v>0.6599999999999966</v>
       </c>
       <c r="G18">
-        <v>1.0101324</v>
+        <v>1.01324000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3808,13 +4049,13 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>0.9877167</v>
+        <v>-1.22833</v>
       </c>
       <c r="F19">
-        <v>1.0066</v>
+        <v>0.6599999999999966</v>
       </c>
       <c r="G19">
-        <v>0.94606245</v>
+        <v>-5.393754999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3831,13 +4072,13 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>0.9300741</v>
+        <v>-6.992589999999993</v>
       </c>
       <c r="F20">
-        <v>1.027</v>
+        <v>2.699999999999989</v>
       </c>
       <c r="G20">
-        <v>1.0013021</v>
+        <v>0.1302099999999911</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3854,13 +4095,13 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>1.0249343</v>
+        <v>2.493429999999989</v>
       </c>
       <c r="F21">
-        <v>1.0121</v>
+        <v>1.209999999999994</v>
       </c>
       <c r="G21">
-        <v>1.0126323</v>
+        <v>1.263229999999993</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3877,13 +4118,13 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>1.031081</v>
+        <v>3.108099999999993</v>
       </c>
       <c r="F22">
-        <v>1.0216</v>
+        <v>2.160000000000011</v>
       </c>
       <c r="G22">
-        <v>1.0265089</v>
+        <v>2.650890000000004</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3900,13 +4141,13 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>1.0136297</v>
+        <v>1.362970000000004</v>
       </c>
       <c r="F23">
-        <v>1.0079</v>
+        <v>0.7900000000000063</v>
       </c>
       <c r="G23">
-        <v>1.015012</v>
+        <v>1.501199999999997</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3923,13 +4164,13 @@
         <v>7</v>
       </c>
       <c r="E24">
-        <v>1.0074869</v>
+        <v>0.7486899999999963</v>
       </c>
       <c r="F24">
-        <v>1.0138</v>
+        <v>1.38000000000001</v>
       </c>
       <c r="G24">
-        <v>1.0142618</v>
+        <v>1.426180000000016</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3946,13 +4187,13 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>1.0022618</v>
+        <v>0.2261800000000136</v>
       </c>
       <c r="F25">
-        <v>1.0062001</v>
+        <v>0.6200100000000077</v>
       </c>
       <c r="G25">
-        <v>1.0110234</v>
+        <v>1.102339999999998</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3969,13 +4210,13 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>1.0019716</v>
+        <v>0.1971600000000109</v>
       </c>
       <c r="F26">
-        <v>1.0067</v>
+        <v>0.6699999999999875</v>
       </c>
       <c r="G26">
-        <v>1.015625</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3992,13 +4233,13 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>1.0238041</v>
+        <v>2.380409999999998</v>
       </c>
       <c r="F27">
-        <v>1.0079</v>
+        <v>0.7900000000000063</v>
       </c>
       <c r="G27">
-        <v>1.0145392</v>
+        <v>1.453919999999997</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4015,13 +4256,13 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>1.0168303</v>
+        <v>1.683030000000002</v>
       </c>
       <c r="F28">
-        <v>1.0079</v>
+        <v>0.7900000000000063</v>
       </c>
       <c r="G28">
-        <v>1.046159</v>
+        <v>4.615900000000011</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4038,13 +4279,13 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <v>1.0055946</v>
+        <v>0.5594600000000014</v>
       </c>
       <c r="F29">
-        <v>1.0083</v>
+        <v>0.8299999999999983</v>
       </c>
       <c r="G29">
-        <v>1.0365562</v>
+        <v>3.655619999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4061,13 +4302,13 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1.0062506</v>
+        <v>0.6250600000000048</v>
       </c>
       <c r="F30">
-        <v>1.0076001</v>
+        <v>0.7600100000000083</v>
       </c>
       <c r="G30">
-        <v>1.0259701</v>
+        <v>2.597010000000012</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4084,13 +4325,13 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>0.99539554</v>
+        <v>-0.4604460000000046</v>
       </c>
       <c r="F31">
-        <v>1.0057</v>
+        <v>0.5700000000000074</v>
       </c>
       <c r="G31">
-        <v>1.0875459</v>
+        <v>8.754590000000007</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4107,13 +4348,13 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>1.0094489</v>
+        <v>0.9448900000000009</v>
       </c>
       <c r="F32">
-        <v>1.0056001</v>
+        <v>0.5600100000000054</v>
       </c>
       <c r="G32">
-        <v>1.0006887</v>
+        <v>0.06887000000000398</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4130,13 +4371,13 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>1.002678</v>
+        <v>0.267799999999994</v>
       </c>
       <c r="F33">
-        <v>1.0056</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="G33">
-        <v>1.0206289</v>
+        <v>2.062889999999996</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4153,13 +4394,13 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <v>1.010743</v>
+        <v>1.074299999999994</v>
       </c>
       <c r="F34">
-        <v>1.0065</v>
+        <v>0.6499999999999915</v>
       </c>
       <c r="G34">
-        <v>1.020629</v>
+        <v>2.062899999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4169,13 +4410,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -4203,3251 +4444,3869 @@
       <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>327.8421</v>
+        <v>276.7841</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>2018</v>
+      </c>
+      <c r="I2">
+        <v>1.003239</v>
+      </c>
+      <c r="J2">
+        <v>0.32390356</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>324.3575</v>
+        <v>277.6806</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="I3">
-        <v>1.010743</v>
+        <v>0.9887597</v>
       </c>
       <c r="J3">
-        <v>0.010743022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>-1.12403035</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>323.4912</v>
+        <v>274.5594</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="I4">
-        <v>1.002678</v>
+        <v>0.9915699</v>
       </c>
       <c r="J4">
-        <v>0.0026780367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>-0.8430122999999999</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>320.4632</v>
+        <v>272.2448</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H5">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="I5">
-        <v>1.0094489</v>
+        <v>1.020459</v>
       </c>
       <c r="J5">
-        <v>0.009448886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>2.0459056</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>321.9456</v>
+        <v>277.8147</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="I6">
-        <v>0.99539554</v>
+        <v>1.0162036</v>
       </c>
       <c r="J6">
-        <v>-0.004604459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>1.6203642</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>319.9457</v>
+        <v>282.3163</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="I7">
-        <v>1.0062506</v>
+        <v>1.009579</v>
       </c>
       <c r="J7">
-        <v>0.00625062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.9578943</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>318.1657</v>
+        <v>285.0206</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I8">
-        <v>1.0055946</v>
+        <v>1.0128783</v>
       </c>
       <c r="J8">
-        <v>0.005594611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>1.2878299</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>312.8995</v>
+        <v>288.6912</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I9">
-        <v>1.0168303</v>
+        <v>1.0004631</v>
       </c>
       <c r="J9">
-        <v>0.016830325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0.04631281</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>305.6244</v>
+        <v>288.8249</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I10">
-        <v>1.0238041</v>
+        <v>1.0124508</v>
       </c>
       <c r="J10">
-        <v>0.023804069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>1.2450814</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>305.023</v>
+        <v>292.421</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I11">
-        <v>1.0019716</v>
+        <v>1.0040866</v>
       </c>
       <c r="J11">
-        <v>0.0019716024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.40866137</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>304.3347</v>
+        <v>293.616</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I12">
-        <v>1.0022618</v>
+        <v>1.0043786</v>
       </c>
       <c r="J12">
-        <v>0.0022617579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.4378557</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>302.0731</v>
+        <v>294.9016</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I13">
-        <v>1.0074869</v>
+        <v>1.0068371</v>
       </c>
       <c r="J13">
-        <v>0.0074869394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0.68371296</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>298.0113</v>
+        <v>296.9179</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I14">
-        <v>1.0136297</v>
+        <v>1.0038879</v>
       </c>
       <c r="J14">
-        <v>0.013629675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>0.38878918</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>289.028</v>
+        <v>298.0723</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I15">
-        <v>1.031081</v>
+        <v>1.000666</v>
       </c>
       <c r="J15">
-        <v>0.031080961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0.06660223</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>281.9966</v>
+        <v>298.2708</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H16">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I16">
-        <v>1.0249343</v>
+        <v>1.0191689</v>
       </c>
       <c r="J16">
-        <v>0.024934292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>1.9168854</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17">
-        <v>303.198</v>
+        <v>303.9883</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H17">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I17">
-        <v>0.9300741</v>
+        <v>1.0060233</v>
       </c>
       <c r="J17">
-        <v>-0.069925904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0.6023288</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>306.9686</v>
+        <v>305.8193</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>2020</v>
       </c>
       <c r="I18">
-        <v>0.9877167</v>
+        <v>1.0037581</v>
       </c>
       <c r="J18">
-        <v>-0.012283325</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0.37580729</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>305.8193</v>
+        <v>306.9686</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>2020</v>
       </c>
       <c r="I19">
-        <v>1.0037581</v>
+        <v>0.9877167</v>
       </c>
       <c r="J19">
-        <v>0.0037580729</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>-1.2283325</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>303.9883</v>
+        <v>303.198</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I20">
-        <v>1.0060233</v>
+        <v>0.9300741</v>
       </c>
       <c r="J20">
-        <v>0.006023288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>-6.9925904</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>298.2708</v>
+        <v>281.9966</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I21">
-        <v>1.0191689</v>
+        <v>1.0249343</v>
       </c>
       <c r="J21">
-        <v>0.019168854</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>2.4934292</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>298.0723</v>
+        <v>289.028</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I22">
-        <v>1.000666</v>
+        <v>1.031081</v>
       </c>
       <c r="J22">
-        <v>0.0006660223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>3.1080961</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>296.9179</v>
+        <v>298.0113</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I23">
-        <v>1.0038879</v>
+        <v>1.0136297</v>
       </c>
       <c r="J23">
-        <v>0.0038878918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>1.3629675</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>294.9016</v>
+        <v>302.0731</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I24">
-        <v>1.0068371</v>
+        <v>1.0074869</v>
       </c>
       <c r="J24">
-        <v>0.0068371296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0.74869394</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>293.616</v>
+        <v>304.3347</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I25">
-        <v>1.0043786</v>
+        <v>1.0022618</v>
       </c>
       <c r="J25">
-        <v>0.004378557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>0.22617579</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>292.421</v>
+        <v>305.023</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I26">
-        <v>1.0040866</v>
+        <v>1.0019716</v>
       </c>
       <c r="J26">
-        <v>0.0040866137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>0.19716024</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>288.8249</v>
+        <v>305.6244</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I27">
-        <v>1.0124508</v>
+        <v>1.0238041</v>
       </c>
       <c r="J27">
-        <v>0.012450814</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>2.3804069</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>288.6912</v>
+        <v>312.8995</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H28">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I28">
-        <v>1.0004631</v>
+        <v>1.0168303</v>
       </c>
       <c r="J28">
-        <v>0.0004631281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>1.6830325</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>285.0206</v>
+        <v>318.1657</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H29">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="I29">
-        <v>1.0128783</v>
+        <v>1.0055946</v>
       </c>
       <c r="J29">
-        <v>0.012878299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0.5594611</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30">
-        <v>282.3163</v>
+        <v>319.9457</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="I30">
-        <v>1.009579</v>
+        <v>1.0062506</v>
       </c>
       <c r="J30">
-        <v>0.009578942999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>0.625062</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>277.8147</v>
+        <v>321.9456</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="I31">
-        <v>1.0162036</v>
+        <v>0.99539554</v>
       </c>
       <c r="J31">
-        <v>0.016203642</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>-0.4604459</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>272.2448</v>
+        <v>320.4632</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="I32">
-        <v>1.020459</v>
+        <v>1.0094489</v>
       </c>
       <c r="J32">
-        <v>0.020459056</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>0.9448886</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>274.5594</v>
+        <v>323.4912</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="I33">
-        <v>0.9915699</v>
+        <v>1.002678</v>
       </c>
       <c r="J33">
-        <v>-0.008430122999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>0.26780367</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>277.6806</v>
+        <v>324.3575</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="I34">
-        <v>0.9887597</v>
+        <v>1.010743</v>
       </c>
       <c r="J34">
-        <v>-0.0112403035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>1.0743022</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35">
-        <v>276.7841</v>
+        <v>327.8421</v>
       </c>
       <c r="F35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>2021</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>105.474495</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+      <c r="H36">
+        <v>2018</v>
+      </c>
+      <c r="I36">
+        <v>1.0066</v>
+      </c>
+      <c r="J36">
+        <v>0.66000223</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>106.17062</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>2018</v>
+      </c>
+      <c r="I37">
+        <v>1.0078</v>
+      </c>
+      <c r="J37">
+        <v>0.7799983</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>106.99876</v>
+      </c>
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>2018</v>
+      </c>
+      <c r="I38">
+        <v>1.0062</v>
+      </c>
+      <c r="J38">
+        <v>0.6199956000000001</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>107.66215</v>
+      </c>
+      <c r="F39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>2018</v>
+      </c>
+      <c r="I39">
+        <v>1.0071</v>
+      </c>
+      <c r="J39">
+        <v>0.7099986</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>108.42655</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2019</v>
+      </c>
+      <c r="I40">
+        <v>1.0060999</v>
+      </c>
+      <c r="J40">
+        <v>0.60999393</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>109.08795</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2019</v>
+      </c>
+      <c r="I41">
+        <v>1.0066</v>
+      </c>
+      <c r="J41">
+        <v>0.66000223</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>109.80793</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>2019</v>
+      </c>
+      <c r="I42">
+        <v>1.0065</v>
+      </c>
+      <c r="J42">
+        <v>0.65000057</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>110.52168</v>
+      </c>
+      <c r="F43" t="s">
         <v>89</v>
       </c>
-      <c r="G35">
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>2019</v>
+      </c>
+      <c r="I43">
+        <v>1.0077001</v>
+      </c>
+      <c r="J43">
+        <v>0.77000856</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>111.3727</v>
+      </c>
+      <c r="F44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>2019</v>
+      </c>
+      <c r="I44">
+        <v>1.0054</v>
+      </c>
+      <c r="J44">
+        <v>0.53999424</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
         <v>9</v>
       </c>
-      <c r="H35">
-        <v>2018</v>
-      </c>
-      <c r="I35">
-        <v>1.003239</v>
-      </c>
-      <c r="J35">
-        <v>0.0032390356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1">
-        <v>67</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36">
-        <v>151.37746</v>
-      </c>
-      <c r="F36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>111.97411</v>
+      </c>
+      <c r="F45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45">
         <v>6</v>
       </c>
-      <c r="H36">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1">
-        <v>66</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <v>148.31781</v>
-      </c>
-      <c r="F37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37">
-        <v>2021</v>
-      </c>
-      <c r="I37">
-        <v>1.020629</v>
-      </c>
-      <c r="J37">
-        <v>0.020629048</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1">
-        <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>145.32</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="H45">
+        <v>2019</v>
+      </c>
+      <c r="I45">
+        <v>1.0063</v>
+      </c>
+      <c r="J45">
+        <v>0.62999725</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>112.67955</v>
+      </c>
+      <c r="F46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>2019</v>
+      </c>
+      <c r="I46">
+        <v>1.0064</v>
+      </c>
+      <c r="J46">
+        <v>0.6399989</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>113.400696</v>
+      </c>
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>2019</v>
+      </c>
+      <c r="I47">
+        <v>1.0054001</v>
+      </c>
+      <c r="J47">
+        <v>0.54000616</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>114.01306</v>
+      </c>
+      <c r="F48" t="s">
         <v>82</v>
       </c>
-      <c r="G38">
+      <c r="G48">
+        <v>9</v>
+      </c>
+      <c r="H48">
+        <v>2019</v>
+      </c>
+      <c r="I48">
+        <v>1.0073</v>
+      </c>
+      <c r="J48">
+        <v>0.73000193</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
         <v>4</v>
       </c>
-      <c r="H38">
-        <v>2021</v>
-      </c>
-      <c r="I38">
-        <v>1.0206289</v>
-      </c>
-      <c r="J38">
-        <v>0.02062893</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1">
-        <v>64</v>
-      </c>
-      <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>145.22</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E49">
+        <v>114.84536</v>
+      </c>
+      <c r="F49" t="s">
         <v>83</v>
       </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <v>2021</v>
-      </c>
-      <c r="I39">
-        <v>1.0006887</v>
-      </c>
-      <c r="J39">
-        <v>0.00068867207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1">
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>2019</v>
+      </c>
+      <c r="I49">
+        <v>1.0063</v>
+      </c>
+      <c r="J49">
+        <v>0.62999725</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>115.568886</v>
+      </c>
+      <c r="F50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>2019</v>
+      </c>
+      <c r="I50">
+        <v>1.0063</v>
+      </c>
+      <c r="J50">
+        <v>0.62999725</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>116.29697</v>
+      </c>
+      <c r="F51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>2019</v>
+      </c>
+      <c r="I51">
+        <v>1.0067</v>
+      </c>
+      <c r="J51">
+        <v>0.6700039</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
         <v>63</v>
       </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40">
-        <v>133.53</v>
-      </c>
-      <c r="F40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>2021</v>
-      </c>
-      <c r="I40">
-        <v>1.0875459</v>
-      </c>
-      <c r="J40">
-        <v>0.08754587</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>130.15</v>
-      </c>
-      <c r="F41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>2021</v>
-      </c>
-      <c r="I41">
-        <v>1.0259701</v>
-      </c>
-      <c r="J41">
-        <v>0.025970101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42">
-        <v>125.56</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>117.07616</v>
+      </c>
+      <c r="F52" t="s">
         <v>86</v>
       </c>
-      <c r="G42">
-        <v>12</v>
-      </c>
-      <c r="H42">
-        <v>2020</v>
-      </c>
-      <c r="I42">
-        <v>1.0365562</v>
-      </c>
-      <c r="J42">
-        <v>0.036556244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1">
-        <v>60</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>120.02</v>
-      </c>
-      <c r="F43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43">
-        <v>11</v>
-      </c>
-      <c r="H43">
-        <v>2020</v>
-      </c>
-      <c r="I43">
-        <v>1.046159</v>
-      </c>
-      <c r="J43">
-        <v>0.04615903</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1">
-        <v>59</v>
-      </c>
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>118.3</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44">
-        <v>10</v>
-      </c>
-      <c r="H44">
-        <v>2020</v>
-      </c>
-      <c r="I44">
-        <v>1.0145392</v>
-      </c>
-      <c r="J44">
-        <v>0.014539242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1">
-        <v>58</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45">
-        <v>116.48</v>
-      </c>
-      <c r="F45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G45">
-        <v>9</v>
-      </c>
-      <c r="H45">
-        <v>2020</v>
-      </c>
-      <c r="I45">
-        <v>1.015625</v>
-      </c>
-      <c r="J45">
-        <v>0.015625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1">
-        <v>57</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46">
-        <v>115.21</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46">
-        <v>8</v>
-      </c>
-      <c r="H46">
-        <v>2020</v>
-      </c>
-      <c r="I46">
-        <v>1.0110234</v>
-      </c>
-      <c r="J46">
-        <v>0.011023402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1">
-        <v>56</v>
-      </c>
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47">
-        <v>113.59</v>
-      </c>
-      <c r="F47" t="s">
-        <v>91</v>
-      </c>
-      <c r="G47">
-        <v>7</v>
-      </c>
-      <c r="H47">
-        <v>2020</v>
-      </c>
-      <c r="I47">
-        <v>1.0142618</v>
-      </c>
-      <c r="J47">
-        <v>0.014261842</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48">
-        <v>111.91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
-      <c r="H48">
-        <v>2020</v>
-      </c>
-      <c r="I48">
-        <v>1.015012</v>
-      </c>
-      <c r="J48">
-        <v>0.015012026</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1">
-        <v>54</v>
-      </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49">
-        <v>109.02</v>
-      </c>
-      <c r="F49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49">
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <v>2020</v>
-      </c>
-      <c r="I49">
-        <v>1.0265089</v>
-      </c>
-      <c r="J49">
-        <v>0.026508927</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1">
-        <v>53</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50">
-        <v>107.66</v>
-      </c>
-      <c r="F50" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50">
-        <v>4</v>
-      </c>
-      <c r="H50">
-        <v>2020</v>
-      </c>
-      <c r="I50">
-        <v>1.0126323</v>
-      </c>
-      <c r="J50">
-        <v>0.012632251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>107.52</v>
-      </c>
-      <c r="F51" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51">
-        <v>3</v>
-      </c>
-      <c r="H51">
-        <v>2020</v>
-      </c>
-      <c r="I51">
-        <v>1.0013021</v>
-      </c>
-      <c r="J51">
-        <v>0.0013021231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52">
-        <v>113.65</v>
-      </c>
-      <c r="F52" t="s">
-        <v>84</v>
-      </c>
       <c r="G52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>2020</v>
       </c>
       <c r="I52">
-        <v>0.94606245</v>
+        <v>1.0066</v>
       </c>
       <c r="J52">
-        <v>-0.053937554</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>0.66000223</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>112.51</v>
+        <v>117.84886</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>2020</v>
       </c>
       <c r="I53">
-        <v>1.0101324</v>
+        <v>1.0066</v>
       </c>
       <c r="J53">
-        <v>0.010132432</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>0.66000223</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>118.62666</v>
+      </c>
+      <c r="F54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>2020</v>
+      </c>
+      <c r="I54">
+        <v>1.027</v>
+      </c>
+      <c r="J54">
+        <v>2.699995</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>121.82958</v>
+      </c>
+      <c r="F55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>2020</v>
+      </c>
+      <c r="I55">
+        <v>1.0121</v>
+      </c>
+      <c r="J55">
+        <v>1.2099981</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>123.30372</v>
+      </c>
+      <c r="F56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>2020</v>
+      </c>
+      <c r="I56">
+        <v>1.0216</v>
+      </c>
+      <c r="J56">
+        <v>2.1600008</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>125.96708</v>
+      </c>
+      <c r="F57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>2020</v>
+      </c>
+      <c r="I57">
+        <v>1.0079</v>
+      </c>
+      <c r="J57">
+        <v>0.79</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>126.96222</v>
+      </c>
+      <c r="F58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>2020</v>
+      </c>
+      <c r="I58">
+        <v>1.0138</v>
+      </c>
+      <c r="J58">
+        <v>1.3800025</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>128.7143</v>
+      </c>
+      <c r="F59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>2020</v>
+      </c>
+      <c r="I59">
+        <v>1.0062001</v>
+      </c>
+      <c r="J59">
+        <v>0.6200075</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>129.51233</v>
+      </c>
+      <c r="F60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>2020</v>
+      </c>
+      <c r="I60">
+        <v>1.0067</v>
+      </c>
+      <c r="J60">
+        <v>0.6700039</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>130.38007</v>
+      </c>
+      <c r="F61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>2020</v>
+      </c>
+      <c r="I61">
+        <v>1.0079</v>
+      </c>
+      <c r="J61">
+        <v>0.79</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>131.41006</v>
+      </c>
+      <c r="F62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>2020</v>
+      </c>
+      <c r="I62">
+        <v>1.0079</v>
+      </c>
+      <c r="J62">
+        <v>0.79</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>132.4482</v>
+      </c>
+      <c r="F63" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63">
+        <v>12</v>
+      </c>
+      <c r="H63">
+        <v>2020</v>
+      </c>
+      <c r="I63">
+        <v>1.0083</v>
+      </c>
+      <c r="J63">
+        <v>0.8299947</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>133.54752</v>
+      </c>
+      <c r="F64" t="s">
+        <v>86</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>2021</v>
+      </c>
+      <c r="I64">
+        <v>1.0076001</v>
+      </c>
+      <c r="J64">
+        <v>0.7600069</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>134.56248</v>
+      </c>
+      <c r="F65" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>2021</v>
+      </c>
+      <c r="I65">
+        <v>1.0057</v>
+      </c>
+      <c r="J65">
+        <v>0.5699992</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>135.32948</v>
+      </c>
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>2021</v>
+      </c>
+      <c r="I66">
+        <v>1.0056001</v>
+      </c>
+      <c r="J66">
+        <v>0.5600095</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>136.08734</v>
+      </c>
+      <c r="F67" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>2021</v>
+      </c>
+      <c r="I67">
+        <v>1.0056</v>
+      </c>
+      <c r="J67">
+        <v>0.55999756</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>136.84943</v>
+      </c>
+      <c r="F68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>2021</v>
+      </c>
+      <c r="I68">
+        <v>1.0065</v>
+      </c>
+      <c r="J68">
+        <v>0.65000057</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>137.73895</v>
+      </c>
+      <c r="F69" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+      <c r="H69">
+        <v>2021</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70">
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <v>2018</v>
+      </c>
+      <c r="I70">
+        <v>1.0012001</v>
+      </c>
+      <c r="J70">
+        <v>0.12000799</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>100.12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <v>2018</v>
+      </c>
+      <c r="I71">
+        <v>1.0060927</v>
+      </c>
+      <c r="J71">
+        <v>0.60926676</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
         <v>49</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>100.73</v>
+      </c>
+      <c r="F72" t="s">
+        <v>84</v>
+      </c>
+      <c r="G72">
+        <v>11</v>
+      </c>
+      <c r="H72">
+        <v>2018</v>
+      </c>
+      <c r="I72">
+        <v>1.0055594</v>
+      </c>
+      <c r="J72">
+        <v>0.55594444</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>37</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>101.29</v>
+      </c>
+      <c r="F73" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73">
+        <v>12</v>
+      </c>
+      <c r="H73">
+        <v>2018</v>
+      </c>
+      <c r="I73">
+        <v>1.0053313</v>
+      </c>
+      <c r="J73">
+        <v>0.5331278</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>101.83</v>
+      </c>
+      <c r="F74" t="s">
+        <v>86</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>2019</v>
+      </c>
+      <c r="I74">
+        <v>1.0050083</v>
+      </c>
+      <c r="J74">
+        <v>0.500834</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>102.34</v>
+      </c>
+      <c r="F75" t="s">
+        <v>87</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>2019</v>
+      </c>
+      <c r="I75">
+        <v>1.0059606</v>
+      </c>
+      <c r="J75">
+        <v>0.5960583699999999</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>102.95</v>
+      </c>
+      <c r="F76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>2019</v>
+      </c>
+      <c r="I76">
+        <v>1.0047597</v>
+      </c>
+      <c r="J76">
+        <v>0.47596693</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>103.44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>2019</v>
+      </c>
+      <c r="I77">
+        <v>1.0186582</v>
+      </c>
+      <c r="J77">
+        <v>1.8658161</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>105.37</v>
+      </c>
+      <c r="F78" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>2019</v>
+      </c>
+      <c r="I78">
+        <v>1.0074024</v>
+      </c>
+      <c r="J78">
+        <v>0.740242</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>106.15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>2019</v>
+      </c>
+      <c r="I79">
+        <v>1.0167687</v>
+      </c>
+      <c r="J79">
+        <v>1.6768694</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>107.93</v>
+      </c>
+      <c r="F80" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80">
+        <v>7</v>
+      </c>
+      <c r="H80">
+        <v>2019</v>
+      </c>
+      <c r="I80">
+        <v>1.0068563</v>
+      </c>
+      <c r="J80">
+        <v>0.6856322300000001</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>108.67</v>
+      </c>
+      <c r="F81" t="s">
+        <v>93</v>
+      </c>
+      <c r="G81">
+        <v>8</v>
+      </c>
+      <c r="H81">
+        <v>2019</v>
+      </c>
+      <c r="I81">
+        <v>1.008466</v>
+      </c>
+      <c r="J81">
+        <v>0.8466005000000001</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>109.59</v>
+      </c>
+      <c r="F82" t="s">
+        <v>82</v>
+      </c>
+      <c r="G82">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <v>2019</v>
+      </c>
+      <c r="I82">
+        <v>1.0053837</v>
+      </c>
+      <c r="J82">
+        <v>0.538373</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>110.18</v>
+      </c>
+      <c r="F83" t="s">
+        <v>83</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83">
+        <v>2019</v>
+      </c>
+      <c r="I83">
+        <v>1.0103467</v>
+      </c>
+      <c r="J83">
+        <v>1.0346651</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>48</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>111.32</v>
+      </c>
+      <c r="F84" t="s">
+        <v>84</v>
+      </c>
+      <c r="G84">
+        <v>11</v>
+      </c>
+      <c r="H84">
+        <v>2019</v>
+      </c>
+      <c r="I84">
+        <v>1.0053</v>
+      </c>
+      <c r="J84">
+        <v>0.5300045</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>49</v>
+      </c>
+      <c r="B85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>111.91</v>
+      </c>
+      <c r="F85" t="s">
+        <v>85</v>
+      </c>
+      <c r="G85">
+        <v>12</v>
+      </c>
+      <c r="H85">
+        <v>2019</v>
+      </c>
+      <c r="I85">
+        <v>1.0053614</v>
+      </c>
+      <c r="J85">
+        <v>0.5361437999999999</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
         <v>5</v>
       </c>
-      <c r="E54">
-        <v>111.91</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E86">
+        <v>112.51</v>
+      </c>
+      <c r="F86" t="s">
         <v>86</v>
       </c>
-      <c r="G54">
-        <v>12</v>
-      </c>
-      <c r="H54">
-        <v>2019</v>
-      </c>
-      <c r="I54">
-        <v>1.0053614</v>
-      </c>
-      <c r="J54">
-        <v>0.005361438</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1">
-        <v>48</v>
-      </c>
-      <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55">
-        <v>111.32</v>
-      </c>
-      <c r="F55" t="s">
-        <v>87</v>
-      </c>
-      <c r="G55">
-        <v>11</v>
-      </c>
-      <c r="H55">
-        <v>2019</v>
-      </c>
-      <c r="I55">
-        <v>1.0053</v>
-      </c>
-      <c r="J55">
-        <v>0.005300045</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1">
-        <v>47</v>
-      </c>
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56">
-        <v>110.18</v>
-      </c>
-      <c r="F56" t="s">
-        <v>88</v>
-      </c>
-      <c r="G56">
-        <v>10</v>
-      </c>
-      <c r="H56">
-        <v>2019</v>
-      </c>
-      <c r="I56">
-        <v>1.0103467</v>
-      </c>
-      <c r="J56">
-        <v>0.010346651</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1">
-        <v>46</v>
-      </c>
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57">
-        <v>109.59</v>
-      </c>
-      <c r="F57" t="s">
-        <v>89</v>
-      </c>
-      <c r="G57">
-        <v>9</v>
-      </c>
-      <c r="H57">
-        <v>2019</v>
-      </c>
-      <c r="I57">
-        <v>1.0053837</v>
-      </c>
-      <c r="J57">
-        <v>0.00538373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1">
-        <v>45</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58">
-        <v>108.67</v>
-      </c>
-      <c r="F58" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58">
-        <v>8</v>
-      </c>
-      <c r="H58">
-        <v>2019</v>
-      </c>
-      <c r="I58">
-        <v>1.008466</v>
-      </c>
-      <c r="J58">
-        <v>0.008466005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1">
-        <v>44</v>
-      </c>
-      <c r="B59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <v>107.93</v>
-      </c>
-      <c r="F59" t="s">
-        <v>91</v>
-      </c>
-      <c r="G59">
-        <v>7</v>
-      </c>
-      <c r="H59">
-        <v>2019</v>
-      </c>
-      <c r="I59">
-        <v>1.0068563</v>
-      </c>
-      <c r="J59">
-        <v>0.0068563223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1">
-        <v>43</v>
-      </c>
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60">
-        <v>106.15</v>
-      </c>
-      <c r="F60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60">
-        <v>6</v>
-      </c>
-      <c r="H60">
-        <v>2019</v>
-      </c>
-      <c r="I60">
-        <v>1.0167687</v>
-      </c>
-      <c r="J60">
-        <v>0.016768694</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1">
-        <v>42</v>
-      </c>
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61">
-        <v>105.37</v>
-      </c>
-      <c r="F61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61">
-        <v>5</v>
-      </c>
-      <c r="H61">
-        <v>2019</v>
-      </c>
-      <c r="I61">
-        <v>1.0074024</v>
-      </c>
-      <c r="J61">
-        <v>0.00740242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1">
-        <v>41</v>
-      </c>
-      <c r="B62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62">
-        <v>103.44</v>
-      </c>
-      <c r="F62" t="s">
-        <v>82</v>
-      </c>
-      <c r="G62">
-        <v>4</v>
-      </c>
-      <c r="H62">
-        <v>2019</v>
-      </c>
-      <c r="I62">
-        <v>1.0186582</v>
-      </c>
-      <c r="J62">
-        <v>0.018658161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1">
-        <v>40</v>
-      </c>
-      <c r="B63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63">
-        <v>102.95</v>
-      </c>
-      <c r="F63" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="H63">
-        <v>2019</v>
-      </c>
-      <c r="I63">
-        <v>1.0047597</v>
-      </c>
-      <c r="J63">
-        <v>0.0047596693</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1">
-        <v>39</v>
-      </c>
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64">
-        <v>102.34</v>
-      </c>
-      <c r="F64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64">
-        <v>2</v>
-      </c>
-      <c r="H64">
-        <v>2019</v>
-      </c>
-      <c r="I64">
-        <v>1.0059606</v>
-      </c>
-      <c r="J64">
-        <v>0.0059605837</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1">
-        <v>38</v>
-      </c>
-      <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65">
-        <v>101.83</v>
-      </c>
-      <c r="F65" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>2019</v>
-      </c>
-      <c r="I65">
-        <v>1.0050083</v>
-      </c>
-      <c r="J65">
-        <v>0.00500834</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1">
-        <v>37</v>
-      </c>
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66">
-        <v>101.29</v>
-      </c>
-      <c r="F66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66">
-        <v>12</v>
-      </c>
-      <c r="H66">
-        <v>2018</v>
-      </c>
-      <c r="I66">
-        <v>1.0053313</v>
-      </c>
-      <c r="J66">
-        <v>0.005331278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1">
-        <v>36</v>
-      </c>
-      <c r="B67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67">
-        <v>100.73</v>
-      </c>
-      <c r="F67" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67">
-        <v>11</v>
-      </c>
-      <c r="H67">
-        <v>2018</v>
-      </c>
-      <c r="I67">
-        <v>1.0055594</v>
-      </c>
-      <c r="J67">
-        <v>0.0055594444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1">
-        <v>35</v>
-      </c>
-      <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68">
-        <v>100.12</v>
-      </c>
-      <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68">
-        <v>10</v>
-      </c>
-      <c r="H68">
-        <v>2018</v>
-      </c>
-      <c r="I68">
-        <v>1.0060927</v>
-      </c>
-      <c r="J68">
-        <v>0.0060926676</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1">
-        <v>34</v>
-      </c>
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69">
-        <v>100</v>
-      </c>
-      <c r="F69" t="s">
-        <v>89</v>
-      </c>
-      <c r="G69">
-        <v>9</v>
-      </c>
-      <c r="H69">
-        <v>2018</v>
-      </c>
-      <c r="I69">
-        <v>1.0012001</v>
-      </c>
-      <c r="J69">
-        <v>0.0012000799</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1">
-        <v>33</v>
-      </c>
-      <c r="B70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70">
-        <v>137.73895</v>
-      </c>
-      <c r="F70" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70">
-        <v>6</v>
-      </c>
-      <c r="H70">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1">
-        <v>32</v>
-      </c>
-      <c r="B71" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71">
-        <v>136.84943</v>
-      </c>
-      <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71">
-        <v>5</v>
-      </c>
-      <c r="H71">
-        <v>2021</v>
-      </c>
-      <c r="I71">
-        <v>1.0065</v>
-      </c>
-      <c r="J71">
-        <v>0.0065000057</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1">
-        <v>31</v>
-      </c>
-      <c r="B72" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72">
-        <v>136.08734</v>
-      </c>
-      <c r="F72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72">
-        <v>4</v>
-      </c>
-      <c r="H72">
-        <v>2021</v>
-      </c>
-      <c r="I72">
-        <v>1.0056</v>
-      </c>
-      <c r="J72">
-        <v>0.0055999756</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1">
-        <v>30</v>
-      </c>
-      <c r="B73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73">
-        <v>135.32948</v>
-      </c>
-      <c r="F73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
-      <c r="H73">
-        <v>2021</v>
-      </c>
-      <c r="I73">
-        <v>1.0056001</v>
-      </c>
-      <c r="J73">
-        <v>0.005600095</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1">
-        <v>29</v>
-      </c>
-      <c r="B74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74">
-        <v>134.56248</v>
-      </c>
-      <c r="F74" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
-      <c r="H74">
-        <v>2021</v>
-      </c>
-      <c r="I74">
-        <v>1.0057</v>
-      </c>
-      <c r="J74">
-        <v>0.005699992</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1">
-        <v>28</v>
-      </c>
-      <c r="B75" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75">
-        <v>133.54752</v>
-      </c>
-      <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>2021</v>
-      </c>
-      <c r="I75">
-        <v>1.0076001</v>
-      </c>
-      <c r="J75">
-        <v>0.007600069</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1">
-        <v>27</v>
-      </c>
-      <c r="B76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76">
-        <v>132.4482</v>
-      </c>
-      <c r="F76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76">
-        <v>12</v>
-      </c>
-      <c r="H76">
-        <v>2020</v>
-      </c>
-      <c r="I76">
-        <v>1.0083</v>
-      </c>
-      <c r="J76">
-        <v>0.008299947</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1">
-        <v>26</v>
-      </c>
-      <c r="B77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77">
-        <v>131.41006</v>
-      </c>
-      <c r="F77" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77">
-        <v>11</v>
-      </c>
-      <c r="H77">
-        <v>2020</v>
-      </c>
-      <c r="I77">
-        <v>1.0079</v>
-      </c>
-      <c r="J77">
-        <v>0.007900000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1">
-        <v>25</v>
-      </c>
-      <c r="B78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78">
-        <v>130.38007</v>
-      </c>
-      <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78">
-        <v>10</v>
-      </c>
-      <c r="H78">
-        <v>2020</v>
-      </c>
-      <c r="I78">
-        <v>1.0079</v>
-      </c>
-      <c r="J78">
-        <v>0.007900000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1">
-        <v>24</v>
-      </c>
-      <c r="B79" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79">
-        <v>129.51233</v>
-      </c>
-      <c r="F79" t="s">
-        <v>89</v>
-      </c>
-      <c r="G79">
-        <v>9</v>
-      </c>
-      <c r="H79">
-        <v>2020</v>
-      </c>
-      <c r="I79">
-        <v>1.0067</v>
-      </c>
-      <c r="J79">
-        <v>0.006700039</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1">
-        <v>23</v>
-      </c>
-      <c r="B80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C80" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80">
-        <v>128.7143</v>
-      </c>
-      <c r="F80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80">
-        <v>8</v>
-      </c>
-      <c r="H80">
-        <v>2020</v>
-      </c>
-      <c r="I80">
-        <v>1.0062001</v>
-      </c>
-      <c r="J80">
-        <v>0.006200075</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1">
-        <v>22</v>
-      </c>
-      <c r="B81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81">
-        <v>126.96222</v>
-      </c>
-      <c r="F81" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81">
-        <v>7</v>
-      </c>
-      <c r="H81">
-        <v>2020</v>
-      </c>
-      <c r="I81">
-        <v>1.0138</v>
-      </c>
-      <c r="J81">
-        <v>0.013800025</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1">
-        <v>21</v>
-      </c>
-      <c r="B82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82">
-        <v>125.96708</v>
-      </c>
-      <c r="F82" t="s">
-        <v>80</v>
-      </c>
-      <c r="G82">
-        <v>6</v>
-      </c>
-      <c r="H82">
-        <v>2020</v>
-      </c>
-      <c r="I82">
-        <v>1.0079</v>
-      </c>
-      <c r="J82">
-        <v>0.007900000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>20</v>
-      </c>
-      <c r="B83" t="s">
-        <v>58</v>
-      </c>
-      <c r="C83" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83">
-        <v>123.30372</v>
-      </c>
-      <c r="F83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83">
-        <v>5</v>
-      </c>
-      <c r="H83">
-        <v>2020</v>
-      </c>
-      <c r="I83">
-        <v>1.0216</v>
-      </c>
-      <c r="J83">
-        <v>0.021600008</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1">
-        <v>19</v>
-      </c>
-      <c r="B84" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84">
-        <v>121.82958</v>
-      </c>
-      <c r="F84" t="s">
-        <v>82</v>
-      </c>
-      <c r="G84">
-        <v>4</v>
-      </c>
-      <c r="H84">
-        <v>2020</v>
-      </c>
-      <c r="I84">
-        <v>1.0121</v>
-      </c>
-      <c r="J84">
-        <v>0.012099981</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1">
-        <v>18</v>
-      </c>
-      <c r="B85" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85">
-        <v>118.62666</v>
-      </c>
-      <c r="F85" t="s">
-        <v>83</v>
-      </c>
-      <c r="G85">
-        <v>3</v>
-      </c>
-      <c r="H85">
-        <v>2020</v>
-      </c>
-      <c r="I85">
-        <v>1.027</v>
-      </c>
-      <c r="J85">
-        <v>0.02699995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1">
-        <v>17</v>
-      </c>
-      <c r="B86" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86">
-        <v>117.84886</v>
-      </c>
-      <c r="F86" t="s">
-        <v>84</v>
-      </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>2020</v>
       </c>
       <c r="I86">
-        <v>1.0066</v>
+        <v>1.0101324</v>
       </c>
       <c r="J86">
-        <v>0.0066000223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>1.0132432</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>117.07616</v>
+        <v>113.65</v>
       </c>
       <c r="F87" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87">
         <v>2020</v>
       </c>
       <c r="I87">
-        <v>1.0066</v>
+        <v>0.94606245</v>
       </c>
       <c r="J87">
-        <v>0.0066000223</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>-5.3937554</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>107.52</v>
+      </c>
+      <c r="F88" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>2020</v>
+      </c>
+      <c r="I88">
+        <v>1.0013021</v>
+      </c>
+      <c r="J88">
+        <v>0.13021231</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>107.66</v>
+      </c>
+      <c r="F89" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>2020</v>
+      </c>
+      <c r="I89">
+        <v>1.0126323</v>
+      </c>
+      <c r="J89">
+        <v>1.2632251</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1">
+        <v>54</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>109.02</v>
+      </c>
+      <c r="F90" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>2020</v>
+      </c>
+      <c r="I90">
+        <v>1.0265089</v>
+      </c>
+      <c r="J90">
+        <v>2.6508927</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1">
+        <v>55</v>
+      </c>
+      <c r="B91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>111.91</v>
+      </c>
+      <c r="F91" t="s">
+        <v>91</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91">
+        <v>2020</v>
+      </c>
+      <c r="I91">
+        <v>1.015012</v>
+      </c>
+      <c r="J91">
+        <v>1.5012026</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1">
+        <v>56</v>
+      </c>
+      <c r="B92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>113.59</v>
+      </c>
+      <c r="F92" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+      <c r="H92">
+        <v>2020</v>
+      </c>
+      <c r="I92">
+        <v>1.0142618</v>
+      </c>
+      <c r="J92">
+        <v>1.4261842</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1">
+        <v>57</v>
+      </c>
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>115.21</v>
+      </c>
+      <c r="F93" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="H93">
+        <v>2020</v>
+      </c>
+      <c r="I93">
+        <v>1.0110234</v>
+      </c>
+      <c r="J93">
+        <v>1.1023402</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1">
+        <v>58</v>
+      </c>
+      <c r="B94" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>116.48</v>
+      </c>
+      <c r="F94" t="s">
+        <v>82</v>
+      </c>
+      <c r="G94">
+        <v>9</v>
+      </c>
+      <c r="H94">
+        <v>2020</v>
+      </c>
+      <c r="I94">
+        <v>1.015625</v>
+      </c>
+      <c r="J94">
+        <v>1.5625</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>118.3</v>
+      </c>
+      <c r="F95" t="s">
+        <v>83</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <v>2020</v>
+      </c>
+      <c r="I95">
+        <v>1.0145392</v>
+      </c>
+      <c r="J95">
+        <v>1.4539242</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1">
+        <v>60</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>120.02</v>
+      </c>
+      <c r="F96" t="s">
+        <v>84</v>
+      </c>
+      <c r="G96">
+        <v>11</v>
+      </c>
+      <c r="H96">
+        <v>2020</v>
+      </c>
+      <c r="I96">
+        <v>1.046159</v>
+      </c>
+      <c r="J96">
+        <v>4.615902999999999</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1">
+        <v>61</v>
+      </c>
+      <c r="B97" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>125.56</v>
+      </c>
+      <c r="F97" t="s">
+        <v>85</v>
+      </c>
+      <c r="G97">
+        <v>12</v>
+      </c>
+      <c r="H97">
+        <v>2020</v>
+      </c>
+      <c r="I97">
+        <v>1.0365562</v>
+      </c>
+      <c r="J97">
+        <v>3.6556244</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1">
+        <v>62</v>
+      </c>
+      <c r="B98" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>130.15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>86</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>2021</v>
+      </c>
+      <c r="I98">
+        <v>1.0259701</v>
+      </c>
+      <c r="J98">
+        <v>2.5970101</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1">
         <v>63</v>
       </c>
-      <c r="C88" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>133.53</v>
+      </c>
+      <c r="F99" t="s">
+        <v>87</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>2021</v>
+      </c>
+      <c r="I99">
+        <v>1.0875459</v>
+      </c>
+      <c r="J99">
+        <v>8.754586999999999</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1">
+        <v>64</v>
+      </c>
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>145.22</v>
+      </c>
+      <c r="F100" t="s">
+        <v>88</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>2021</v>
+      </c>
+      <c r="I100">
+        <v>1.0006887</v>
+      </c>
+      <c r="J100">
+        <v>0.068867207</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>145.32</v>
+      </c>
+      <c r="F101" t="s">
+        <v>89</v>
+      </c>
+      <c r="G101">
         <v>4</v>
       </c>
-      <c r="E88">
-        <v>116.29697</v>
-      </c>
-      <c r="F88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G88">
-        <v>12</v>
-      </c>
-      <c r="H88">
-        <v>2019</v>
-      </c>
-      <c r="I88">
-        <v>1.0067</v>
-      </c>
-      <c r="J88">
-        <v>0.006700039</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1">
-        <v>14</v>
-      </c>
-      <c r="B89" t="s">
-        <v>64</v>
-      </c>
-      <c r="C89" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89">
-        <v>115.568886</v>
-      </c>
-      <c r="F89" t="s">
-        <v>87</v>
-      </c>
-      <c r="G89">
-        <v>11</v>
-      </c>
-      <c r="H89">
-        <v>2019</v>
-      </c>
-      <c r="I89">
-        <v>1.0063</v>
-      </c>
-      <c r="J89">
-        <v>0.0062999725</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90">
-        <v>114.84536</v>
-      </c>
-      <c r="F90" t="s">
-        <v>88</v>
-      </c>
-      <c r="G90">
-        <v>10</v>
-      </c>
-      <c r="H90">
-        <v>2019</v>
-      </c>
-      <c r="I90">
-        <v>1.0063</v>
-      </c>
-      <c r="J90">
-        <v>0.0062999725</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1">
-        <v>12</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="H101">
+        <v>2021</v>
+      </c>
+      <c r="I101">
+        <v>1.0206289</v>
+      </c>
+      <c r="J101">
+        <v>2.062893</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1">
         <v>66</v>
       </c>
-      <c r="C91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91">
-        <v>114.01306</v>
-      </c>
-      <c r="F91" t="s">
-        <v>89</v>
-      </c>
-      <c r="G91">
-        <v>9</v>
-      </c>
-      <c r="H91">
-        <v>2019</v>
-      </c>
-      <c r="I91">
-        <v>1.0073</v>
-      </c>
-      <c r="J91">
-        <v>0.0073000193</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1">
-        <v>11</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="B102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>148.31781</v>
+      </c>
+      <c r="F102" t="s">
+        <v>90</v>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+      <c r="H102">
+        <v>2021</v>
+      </c>
+      <c r="I102">
+        <v>1.020629</v>
+      </c>
+      <c r="J102">
+        <v>2.0629048</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1">
         <v>67</v>
       </c>
-      <c r="C92" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92">
-        <v>113.400696</v>
-      </c>
-      <c r="F92" t="s">
-        <v>90</v>
-      </c>
-      <c r="G92">
-        <v>8</v>
-      </c>
-      <c r="H92">
-        <v>2019</v>
-      </c>
-      <c r="I92">
-        <v>1.0054001</v>
-      </c>
-      <c r="J92">
-        <v>0.0054000616</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="1">
-        <v>10</v>
-      </c>
-      <c r="B93" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93">
-        <v>112.67955</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="B103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>151.37746</v>
+      </c>
+      <c r="F103" t="s">
         <v>91</v>
       </c>
-      <c r="G93">
-        <v>7</v>
-      </c>
-      <c r="H93">
-        <v>2019</v>
-      </c>
-      <c r="I93">
-        <v>1.0064</v>
-      </c>
-      <c r="J93">
-        <v>0.006399989</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="1">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94">
-        <v>111.97411</v>
-      </c>
-      <c r="F94" t="s">
-        <v>80</v>
-      </c>
-      <c r="G94">
+      <c r="G103">
         <v>6</v>
       </c>
-      <c r="H94">
-        <v>2019</v>
-      </c>
-      <c r="I94">
-        <v>1.0063</v>
-      </c>
-      <c r="J94">
-        <v>0.0062999725</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1">
-        <v>8</v>
-      </c>
-      <c r="B95" t="s">
-        <v>70</v>
-      </c>
-      <c r="C95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95">
-        <v>111.3727</v>
-      </c>
-      <c r="F95" t="s">
-        <v>81</v>
-      </c>
-      <c r="G95">
-        <v>5</v>
-      </c>
-      <c r="H95">
-        <v>2019</v>
-      </c>
-      <c r="I95">
-        <v>1.0054</v>
-      </c>
-      <c r="J95">
-        <v>0.0053999424</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="1">
-        <v>7</v>
-      </c>
-      <c r="B96" t="s">
-        <v>71</v>
-      </c>
-      <c r="C96" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96">
-        <v>110.52168</v>
-      </c>
-      <c r="F96" t="s">
-        <v>82</v>
-      </c>
-      <c r="G96">
-        <v>4</v>
-      </c>
-      <c r="H96">
-        <v>2019</v>
-      </c>
-      <c r="I96">
-        <v>1.0077001</v>
-      </c>
-      <c r="J96">
-        <v>0.0077000856</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="1">
-        <v>6</v>
-      </c>
-      <c r="B97" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97">
-        <v>109.80793</v>
-      </c>
-      <c r="F97" t="s">
-        <v>83</v>
-      </c>
-      <c r="G97">
-        <v>3</v>
-      </c>
-      <c r="H97">
-        <v>2019</v>
-      </c>
-      <c r="I97">
-        <v>1.0065</v>
-      </c>
-      <c r="J97">
-        <v>0.0065000057</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="1">
-        <v>5</v>
-      </c>
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C98" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98">
-        <v>109.08795</v>
-      </c>
-      <c r="F98" t="s">
-        <v>84</v>
-      </c>
-      <c r="G98">
-        <v>2</v>
-      </c>
-      <c r="H98">
-        <v>2019</v>
-      </c>
-      <c r="I98">
-        <v>1.0066</v>
-      </c>
-      <c r="J98">
-        <v>0.0066000223</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="1">
-        <v>4</v>
-      </c>
-      <c r="B99" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99">
-        <v>108.42655</v>
-      </c>
-      <c r="F99" t="s">
-        <v>85</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>2019</v>
-      </c>
-      <c r="I99">
-        <v>1.0060999</v>
-      </c>
-      <c r="J99">
-        <v>0.0060999393</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="1">
-        <v>3</v>
-      </c>
-      <c r="B100" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100">
-        <v>107.66215</v>
-      </c>
-      <c r="F100" t="s">
-        <v>86</v>
-      </c>
-      <c r="G100">
-        <v>12</v>
-      </c>
-      <c r="H100">
-        <v>2018</v>
-      </c>
-      <c r="I100">
-        <v>1.0071</v>
-      </c>
-      <c r="J100">
-        <v>0.007099986</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="1">
-        <v>2</v>
-      </c>
-      <c r="B101" t="s">
-        <v>76</v>
-      </c>
-      <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101">
-        <v>106.99876</v>
-      </c>
-      <c r="F101" t="s">
-        <v>87</v>
-      </c>
-      <c r="G101">
-        <v>11</v>
-      </c>
-      <c r="H101">
-        <v>2018</v>
-      </c>
-      <c r="I101">
-        <v>1.0062</v>
-      </c>
-      <c r="J101">
-        <v>0.006199956</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="1">
-        <v>1</v>
-      </c>
-      <c r="B102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102">
-        <v>106.17062</v>
-      </c>
-      <c r="F102" t="s">
-        <v>88</v>
-      </c>
-      <c r="G102">
-        <v>10</v>
-      </c>
-      <c r="H102">
-        <v>2018</v>
-      </c>
-      <c r="I102">
-        <v>1.0078</v>
-      </c>
-      <c r="J102">
-        <v>0.007799983</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="1">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
-        <v>78</v>
-      </c>
-      <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103">
-        <v>105.474495</v>
-      </c>
-      <c r="F103" t="s">
-        <v>89</v>
-      </c>
-      <c r="G103">
-        <v>9</v>
-      </c>
       <c r="H103">
-        <v>2018</v>
-      </c>
-      <c r="I103">
-        <v>1.0066</v>
-      </c>
-      <c r="J103">
-        <v>0.0066000223</v>
+        <v>2021</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7465,7 +8324,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>40</v>
@@ -7488,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -7511,7 +8370,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -7534,7 +8393,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -7557,22 +8416,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>2.05</v>
       </c>
       <c r="E5">
-        <v>0.02</v>
+        <v>1.92</v>
       </c>
       <c r="F5">
-        <v>0.03</v>
+        <v>3.11</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7580,22 +8439,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.78</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>0.77</v>
       </c>
       <c r="F6">
-        <v>0.03</v>
+        <v>2.7</v>
       </c>
       <c r="G6">
-        <v>0.01</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7603,22 +8462,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0.61</v>
       </c>
       <c r="E7">
-        <v>0.02</v>
+        <v>1.87</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>4.62</v>
       </c>
       <c r="G7">
-        <v>0.09</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7626,22 +8485,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>-0.01</v>
+        <v>-1.12</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F8">
-        <v>-0.07000000000000001</v>
+        <v>-6.99</v>
       </c>
       <c r="G8">
-        <v>-0</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7649,22 +8508,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0.62</v>
       </c>
       <c r="E9">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="F9">
-        <v>0.01</v>
+        <v>0.62</v>
       </c>
       <c r="G9">
-        <v>0.01</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7672,22 +8531,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="F10">
-        <v>-0.05</v>
+        <v>-5.39</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7695,22 +8554,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7718,22 +8577,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E12">
-        <v>0.01</v>
+        <v>0.64</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>1.11</v>
       </c>
       <c r="G12">
-        <v>0.01</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7741,22 +8600,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>0.84</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <v>1.25</v>
       </c>
       <c r="G13">
-        <v>0.03</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7764,22 +8623,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>0.05</v>
+        <v>4.99</v>
       </c>
       <c r="E14">
-        <v>0.02</v>
+        <v>2.09</v>
       </c>
       <c r="F14">
-        <v>0.09</v>
+        <v>9.09</v>
       </c>
       <c r="G14">
-        <v>0.02</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7787,22 +8646,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F15">
-        <v>0.02</v>
+        <v>2.32</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7810,22 +8669,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16">
-        <v>0.01</v>
+        <v>0.78</v>
       </c>
       <c r="E16">
-        <v>0.02</v>
+        <v>1.62</v>
       </c>
       <c r="F16">
-        <v>0.08</v>
+        <v>8.41</v>
       </c>
       <c r="G16">
-        <v>0.11</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -7833,7 +8692,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -7856,7 +8715,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -7879,7 +8738,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -7902,7 +8761,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -7925,7 +8784,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -7948,7 +8807,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>

--- a/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book.xlsx
+++ b/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="121">
   <si>
     <t>data</t>
   </si>
@@ -307,13 +307,13 @@
     <t>Retorno IDT</t>
   </si>
   <si>
-    <t>Retorno [0,1]</t>
-  </si>
-  <si>
     <t>Pagaya Opportunity Fund_spread</t>
   </si>
   <si>
     <t>Riverview ALF_spread</t>
+  </si>
+  <si>
+    <t>Sob Retorno (%)</t>
   </si>
   <si>
     <t>Pontos</t>
@@ -2140,6 +2140,9 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="S9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2211,7 +2214,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>100</v>
@@ -2570,19 +2573,19 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>108</v>
       </c>
       <c r="S19">
-        <v>0.01</v>
+        <v>1.1</v>
       </c>
       <c r="T19">
-        <v>0.06</v>
+        <v>6.45</v>
       </c>
       <c r="U19">
-        <v>0.02</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2736,6 +2739,9 @@
       </c>
       <c r="O22" s="20">
         <v>0.2662</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>4</v>
@@ -2890,7 +2896,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -3086,7 +3092,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3151,7 +3157,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3347,7 +3353,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3412,7 +3418,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:15">

--- a/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book.xlsx
+++ b/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book.xlsx
@@ -8834,4 +8834,209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006522679F146DFF498D699F828D56000C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafef3a4b21104a4f88b1575ea132e6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2906f1-4e2b-432c-9c12-773b8d680c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a3c71ec86999a8ee9371076eaf4925b" ns2:_="">
+    <xsd:import namespace="ee2906f1-4e2b-432c-9c12-773b8d680c96"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee2906f1-4e2b-432c-9c12-773b8d680c96" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E24898A-152B-4898-8586-07824A54FF9E}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6A59BC9-6338-4261-AC92-15C2F4B7283E}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40958B72-BA4D-4FA1-9818-844000FDE764}"/>
 </file>